--- a/on_trucks/Processed_Stand_Alone/19_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/19_225-80R17.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>98</v>
       </c>
       <c r="E2">
-        <v>0.01074077582828307</v>
+        <v>0.01073481150792281</v>
       </c>
       <c r="F2">
         <v>0.510662704111662</v>
       </c>
       <c r="G2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H2">
         <v>19</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>98</v>
       </c>
       <c r="E3">
-        <v>0.02197343331869432</v>
+        <v>0.007532365960678495</v>
       </c>
       <c r="F3">
         <v>0.504066627674665</v>
       </c>
       <c r="G3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>137</v>
       </c>
       <c r="E5">
-        <v>0.01299469884232724</v>
+        <v>0.01284044680179965</v>
       </c>
       <c r="F5">
         <v>0.5066514788744965</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>109</v>
       </c>
       <c r="E2">
-        <v>0.01074077582828307</v>
+        <v>0.01073481150792281</v>
       </c>
       <c r="F2">
         <v>0.7020631481473382</v>
       </c>
       <c r="G2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H2">
         <v>19</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>110</v>
       </c>
       <c r="E3">
-        <v>0.02197343331869432</v>
+        <v>0.007532365960678495</v>
       </c>
       <c r="F3">
         <v>0.7200816439103833</v>
       </c>
       <c r="G3">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>152</v>
       </c>
       <c r="E5">
-        <v>0.01299469884232724</v>
+        <v>0.01284044680179965</v>
       </c>
       <c r="F5">
         <v>0.7018178336853191</v>
       </c>
       <c r="G5">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>128</v>
       </c>
       <c r="E2">
-        <v>0.01074077582828307</v>
+        <v>0.01073481150792281</v>
       </c>
       <c r="F2">
         <v>0.8056002739856306</v>
       </c>
       <c r="G2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H2">
         <v>19</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>126</v>
       </c>
       <c r="E3">
-        <v>0.02197343331869432</v>
+        <v>0.007532365960678495</v>
       </c>
       <c r="F3">
         <v>0.8090596501484191</v>
       </c>
       <c r="G3">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>155</v>
       </c>
       <c r="E5">
-        <v>0.01299469884232724</v>
+        <v>0.01284044680179965</v>
       </c>
       <c r="F5">
         <v>0.8263310564607462</v>
       </c>
       <c r="G5">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>174</v>
       </c>
       <c r="E2">
-        <v>0.01074077582828307</v>
+        <v>0.01073481150792281</v>
       </c>
       <c r="F2">
         <v>0.900064538528947</v>
       </c>
       <c r="G2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H2">
         <v>19</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>173</v>
       </c>
       <c r="E3">
-        <v>0.02197343331869432</v>
+        <v>0.007532365960678495</v>
       </c>
       <c r="F3">
         <v>0.9004802702285063</v>
       </c>
       <c r="G3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>164</v>
       </c>
       <c r="E5">
-        <v>0.01299469884232724</v>
+        <v>0.01284044680179965</v>
       </c>
       <c r="F5">
         <v>0.9083109681208703</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H5">
         <v>19</v>

--- a/on_trucks/Processed_Stand_Alone/19_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/19_225-80R17.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001214735301153442</v>
+        <v>0.0001024803900701393</v>
       </c>
       <c r="C2">
-        <v>0.0001128421756808157</v>
+        <v>9.381675467678833E-05</v>
       </c>
       <c r="D2">
-        <v>0.0002061518403783059</v>
+        <v>0.0001874753942039752</v>
       </c>
       <c r="E2">
-        <v>0.0003098101755967793</v>
+        <v>0.000291521407912097</v>
       </c>
       <c r="F2">
-        <v>0.0003159232859045318</v>
+        <v>0.0002976573810351375</v>
       </c>
       <c r="G2">
-        <v>0.0003483765375383264</v>
+        <v>0.0003302320066766378</v>
       </c>
       <c r="H2">
-        <v>0.0002545020928124035</v>
+        <v>0.0002360064748637844</v>
       </c>
       <c r="I2">
-        <v>0.0002061518403783059</v>
+        <v>0.0001874753942039752</v>
       </c>
       <c r="J2">
-        <v>0.00013656590687514</v>
+        <v>0.0001176292117826261</v>
       </c>
       <c r="K2">
-        <v>5.17419056048437E-05</v>
+        <v>3.248797176226616E-05</v>
       </c>
       <c r="L2">
-        <v>1.937498497539522E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>9.358289471124538E-06</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.576000079340601E-07</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.125945207026499E-05</v>
+        <v>1.891514934829677E-06</v>
       </c>
       <c r="P2">
-        <v>0.0001777117189465443</v>
+        <v>0.0001589289077288349</v>
       </c>
       <c r="Q2">
-        <v>0.0003597467881107391</v>
+        <v>0.000341644781582087</v>
       </c>
       <c r="R2">
-        <v>0.0004551013929111777</v>
+        <v>0.0004373560092155291</v>
       </c>
       <c r="S2">
-        <v>0.0004897666246563301</v>
+        <v>0.0004721508876953888</v>
       </c>
       <c r="T2">
-        <v>0.0004178953710381143</v>
+        <v>0.000400010838142981</v>
       </c>
       <c r="U2">
-        <v>0.0004682393535725824</v>
+        <v>0.0004505431053828778</v>
       </c>
       <c r="V2">
-        <v>0.0004103213606568158</v>
+        <v>0.0003924085012320405</v>
       </c>
       <c r="W2">
-        <v>0.0003349761368637098</v>
+        <v>0.000316781488979755</v>
       </c>
       <c r="X2">
-        <v>0.0002685728935207701</v>
+        <v>0.000250129899866717</v>
       </c>
       <c r="Y2">
-        <v>0.0003143799658268364</v>
+        <v>0.0002961082889952019</v>
       </c>
       <c r="Z2">
-        <v>0.0001762969088753185</v>
+        <v>0.0001575088063182258</v>
       </c>
       <c r="AA2">
-        <v>8.704389438205236E-05</v>
+        <v>6.792198872285134E-05</v>
       </c>
       <c r="AB2">
-        <v>5.226528663119228E-05</v>
+        <v>3.301331021505206E-05</v>
       </c>
       <c r="AC2">
-        <v>5.527324678262208E-06</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>2.424401222051675E-06</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>6.321637318250303E-05</v>
+        <v>4.400535344085765E-05</v>
       </c>
       <c r="AF2">
-        <v>0.0001933778097352226</v>
+        <v>0.0001746535891402822</v>
       </c>
       <c r="AG2">
-        <v>0.0003351075468703254</v>
+        <v>0.0003169133904551249</v>
       </c>
       <c r="AH2">
-        <v>0.0005059425254706738</v>
+        <v>0.0004883872858038786</v>
       </c>
       <c r="AI2">
-        <v>0.0004940533248721356</v>
+        <v>0.00047645362001765</v>
       </c>
       <c r="AJ2">
-        <v>0.000578326489114701</v>
+        <v>0.0005610419628993723</v>
       </c>
       <c r="AK2">
-        <v>0.0005911840297619885</v>
+        <v>0.0005739475902917173</v>
       </c>
       <c r="AL2">
-        <v>0.000542458177308982</v>
+        <v>0.0005250395048822775</v>
       </c>
       <c r="AM2">
-        <v>0.0005137463258635407</v>
+        <v>0.0004962202721328639</v>
       </c>
       <c r="AN2">
-        <v>0.0003892046195937353</v>
+        <v>0.0003712127843078836</v>
       </c>
       <c r="AO2">
-        <v>0.0002545020928124035</v>
+        <v>0.0002360064748637844</v>
       </c>
       <c r="AP2">
-        <v>0.0001108739655817301</v>
+        <v>9.184118354188327E-05</v>
       </c>
       <c r="AQ2">
-        <v>2.885918845285865E-05</v>
+        <v>9.519674061395837E-06</v>
       </c>
       <c r="AR2">
-        <v>5.733599288646694E-06</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.307210716151951E-07</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>9.291137867743924E-05</v>
+        <v>7.381141720096966E-05</v>
       </c>
       <c r="AU2">
-        <v>0.09774640492084904</v>
+        <v>0.09809252555456657</v>
       </c>
       <c r="AV2">
-        <v>0.02220510411787196</v>
+        <v>0.02226870297136175</v>
       </c>
       <c r="AW2">
-        <v>0.04746748038965624</v>
+        <v>0.04762555963256509</v>
       </c>
       <c r="AX2">
-        <v>0.000918437046236893</v>
+        <v>0.000902424521417503</v>
       </c>
       <c r="AY2">
-        <v>0.02996370750846348</v>
+        <v>0.03005632326288946</v>
       </c>
       <c r="AZ2">
-        <v>0.001451524773074138</v>
+        <v>0.001437505977406917</v>
       </c>
       <c r="BA2">
-        <v>0.04015485402151655</v>
+        <v>0.04028558430170293</v>
       </c>
       <c r="BB2">
-        <v>0.02067827304100668</v>
+        <v>0.02073616160053333</v>
       </c>
       <c r="BC2">
-        <v>0.01395809370269257</v>
+        <v>0.01399084903033244</v>
       </c>
       <c r="BD2">
-        <v>0.009302711468326574</v>
+        <v>0.009318055831864517</v>
       </c>
       <c r="BE2">
-        <v>0.008409815423375492</v>
+        <v>0.008421820387439287</v>
       </c>
       <c r="BF2">
-        <v>0.0003943245598514886</v>
+        <v>0.0003763518729602356</v>
       </c>
       <c r="BG2">
-        <v>0.002487643125235463</v>
+        <v>0.002477499375381164</v>
       </c>
       <c r="BH2">
-        <v>0.0004958276649614612</v>
+        <v>0.0004782345960758487</v>
       </c>
       <c r="BI2">
-        <v>0.0002033861102390706</v>
+        <v>0.0001846993203323147</v>
       </c>
       <c r="BJ2">
-        <v>3.030505452564791E-05</v>
+        <v>1.097094762191053E-05</v>
       </c>
       <c r="BK2">
-        <v>0.001723505386766463</v>
+        <v>0.001710503788928125</v>
       </c>
       <c r="BL2">
-        <v>0.005537552278777096</v>
+        <v>0.005538815080761754</v>
       </c>
       <c r="BM2">
-        <v>0.002008091301093377</v>
+        <v>0.001996154044460297</v>
       </c>
       <c r="BN2">
-        <v>0.009598028483193723</v>
+        <v>0.009614477321871555</v>
       </c>
       <c r="BO2">
-        <v>0.004333272818150033</v>
+        <v>0.004330031657752637</v>
       </c>
       <c r="BP2">
-        <v>0.0006970255350903694</v>
+        <v>0.0006801849390883665</v>
       </c>
       <c r="BQ2">
-        <v>4.616389232402967E-05</v>
+        <v>2.688909691002725E-05</v>
       </c>
       <c r="BR2">
-        <v>5.440086273870363E-05</v>
+        <v>3.515687330130607E-05</v>
       </c>
       <c r="BS2">
-        <v>0.003675577885039685</v>
+        <v>0.003669876968967261</v>
       </c>
       <c r="BT2">
-        <v>0.0001418130771392984</v>
+        <v>0.0001228960062770855</v>
       </c>
       <c r="BU2">
-        <v>3.469958974688208E-06</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.001224186061629221</v>
+        <v>0.001209317027260926</v>
       </c>
       <c r="BW2">
-        <v>0.0005911840297619885</v>
+        <v>0.0005739475902917173</v>
       </c>
       <c r="BX2">
-        <v>0.0003750332188803042</v>
+        <v>0.0003569883830594429</v>
       </c>
       <c r="BY2">
-        <v>0.002083519604890666</v>
+        <v>0.002071864447433027</v>
       </c>
       <c r="BZ2">
-        <v>0.007131328359012594</v>
+        <v>0.007138551826893738</v>
       </c>
       <c r="CA2">
-        <v>0.00303711685289763</v>
+        <v>0.003029028115256217</v>
       </c>
       <c r="CB2">
-        <v>0.0002573644329565024</v>
+        <v>0.0002388795200582931</v>
       </c>
       <c r="CC2">
-        <v>0.0001943883897860983</v>
+        <v>0.0001756679487246316</v>
       </c>
       <c r="CD2">
-        <v>0.0002071952404308338</v>
+        <v>0.0001885226965356166</v>
       </c>
       <c r="CE2">
-        <v>0.008369075421324517</v>
+        <v>0.008380928019228562</v>
       </c>
       <c r="CF2">
-        <v>0.00992371149958959</v>
+        <v>0.009941378381173807</v>
       </c>
       <c r="CG2">
-        <v>0.005785585291263827</v>
+        <v>0.005787775727899968</v>
       </c>
       <c r="CH2">
-        <v>0.01609549381029574</v>
+        <v>0.01613624293837378</v>
       </c>
       <c r="CI2">
-        <v>0.002775293139716633</v>
+        <v>0.002766225190693269</v>
       </c>
       <c r="CJ2">
-        <v>0.001999439500657819</v>
+        <v>0.001987469886598599</v>
       </c>
       <c r="CK2">
-        <v>0.002111524006300492</v>
+        <v>0.002099973584308836</v>
       </c>
       <c r="CL2">
-        <v>0.003091568755638902</v>
+        <v>0.003083683666178495</v>
       </c>
       <c r="CM2">
-        <v>0.008458646425833792</v>
+        <v>0.008470834016111303</v>
       </c>
       <c r="CN2">
-        <v>0.01324502566679457</v>
+        <v>0.01327511414532298</v>
       </c>
       <c r="CO2">
-        <v>0.007035117054169026</v>
+        <v>0.007041980695189454</v>
       </c>
       <c r="CP2">
-        <v>0.01573572079218368</v>
+        <v>0.0157751243819605</v>
       </c>
       <c r="CQ2">
-        <v>0.02438647622768882</v>
+        <v>0.02445823333534228</v>
       </c>
       <c r="CR2">
-        <v>0.0176869768904158</v>
+        <v>0.0177336781086514</v>
       </c>
       <c r="CS2">
-        <v>0.001846742192970576</v>
+        <v>0.001834201496407543</v>
       </c>
       <c r="CT2">
-        <v>0.003172310659703693</v>
+        <v>0.00316472754209488</v>
       </c>
       <c r="CU2">
-        <v>0.01932219897273782</v>
+        <v>0.01937501586344469</v>
       </c>
       <c r="CV2">
-        <v>0.02808432141384951</v>
+        <v>0.02816990833107595</v>
       </c>
       <c r="CW2">
-        <v>0.02213780711448403</v>
+        <v>0.02220115427957292</v>
       </c>
       <c r="CX2">
-        <v>0.01954456498393239</v>
+        <v>0.01959821351561813</v>
       </c>
       <c r="CY2">
-        <v>0.01519442576493325</v>
+        <v>0.01523180493054605</v>
       </c>
       <c r="CZ2">
-        <v>0.01557030878385634</v>
+        <v>0.01560909373860084</v>
       </c>
       <c r="DA2">
-        <v>0.009211318463725573</v>
+        <v>0.009226321020674461</v>
       </c>
       <c r="DB2">
-        <v>0.004074739505134685</v>
+        <v>0.004070531439335013</v>
       </c>
       <c r="DC2">
-        <v>0.0001658661083502005</v>
+        <v>0.0001470389949698597</v>
       </c>
       <c r="DD2">
-        <v>0.01367683968853339</v>
+        <v>0.01370854313615621</v>
       </c>
       <c r="DE2">
-        <v>0.02979243649984117</v>
+        <v>0.02988441170678197</v>
       </c>
       <c r="DF2">
-        <v>0.03394781570903551</v>
+        <v>0.03405533188653444</v>
       </c>
       <c r="DG2">
-        <v>0.02430351422351226</v>
+        <v>0.02437496105621861</v>
       </c>
       <c r="DH2">
-        <v>0.01154128958102335</v>
+        <v>0.0115650061471426</v>
       </c>
       <c r="DI2">
-        <v>0.002194166710460975</v>
+        <v>0.002182925369245717</v>
       </c>
       <c r="DJ2">
-        <v>0.0005911840297619885</v>
+        <v>0.0005739475902917173</v>
       </c>
       <c r="DK2">
-        <v>0.003940105598356809</v>
+        <v>0.003935394006530744</v>
       </c>
       <c r="DL2">
-        <v>0.003008278051445797</v>
+        <v>0.0030000814577119</v>
       </c>
       <c r="DM2">
-        <v>0.004165179809687724</v>
+        <v>0.004161309987412787</v>
       </c>
       <c r="DN2">
-        <v>0.006588156331667675</v>
+        <v>0.006593348355471154</v>
       </c>
       <c r="DO2">
-        <v>0.004440684523557462</v>
+        <v>0.004437845079120825</v>
       </c>
       <c r="DP2">
-        <v>0.004415916522310567</v>
+        <v>0.004412984446429532</v>
       </c>
       <c r="DQ2">
-        <v>0.003273428564794274</v>
+        <v>0.003266223624556719</v>
       </c>
       <c r="DR2">
-        <v>0.0003928846497789991</v>
+        <v>0.0003749065776752502</v>
       </c>
       <c r="DS2">
-        <v>1.719592186569461E-08</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.0002849353143445037</v>
+        <v>0.0002665535155628028</v>
       </c>
       <c r="DU2">
-        <v>0.003686868985608113</v>
+        <v>0.003681210297850524</v>
       </c>
       <c r="DV2">
-        <v>0.005690392886471553</v>
+        <v>0.005692227306896957</v>
       </c>
       <c r="DW2">
-        <v>0.008483115427065634</v>
+        <v>0.008495394530538112</v>
       </c>
       <c r="DX2">
-        <v>0.01084661454605131</v>
+        <v>0.01086773305222886</v>
       </c>
       <c r="DY2">
-        <v>0.005690392886471553</v>
+        <v>0.005692227306896957</v>
       </c>
       <c r="DZ2">
-        <v>0.001092787055014199</v>
+        <v>0.00107742659303115</v>
       </c>
       <c r="EA2">
-        <v>0.0002007407401058947</v>
+        <v>0.0001820440566088585</v>
       </c>
       <c r="EB2">
-        <v>0.0006555481330022717</v>
+        <v>0.000638552412990587</v>
       </c>
       <c r="EC2">
-        <v>0.00202002250169403</v>
+        <v>0.002008129867327155</v>
       </c>
       <c r="ED2">
-        <v>0.002835843842764938</v>
+        <v>0.002827002351218973</v>
       </c>
       <c r="EE2">
-        <v>0.003273428564794274</v>
+        <v>0.003266223624556719</v>
       </c>
       <c r="EF2">
-        <v>0.003643845183442165</v>
+        <v>0.003638025588193562</v>
       </c>
       <c r="EG2">
-        <v>0.00266849813434025</v>
+        <v>0.002659030775792326</v>
       </c>
       <c r="EH2">
-        <v>0.002917115746856411</v>
+        <v>0.002908578209343304</v>
       </c>
       <c r="EI2">
-        <v>0.0009082092457219946</v>
+        <v>0.00089215846929218</v>
       </c>
       <c r="EJ2">
-        <v>0.0008529914029421617</v>
+        <v>0.0008367341137428202</v>
       </c>
       <c r="EK2">
-        <v>0.001325738866741696</v>
+        <v>0.001311249636255285</v>
       </c>
       <c r="EL2">
-        <v>0.0005179730660763275</v>
+        <v>0.000500462820203826</v>
       </c>
       <c r="EM2">
-        <v>0.0002490183525363355</v>
+        <v>0.0002305022255939787</v>
       </c>
       <c r="EN2">
-        <v>1.822243691737247E-05</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.0001459586673479999</v>
+        <v>0.0001270571008458312</v>
       </c>
       <c r="EP2">
-        <v>0.00113179845697815</v>
+        <v>0.001116583896251962</v>
       </c>
       <c r="EQ2">
-        <v>0.0007563023380745425</v>
+        <v>0.0007396834352089734</v>
       </c>
       <c r="ER2">
-        <v>0.004433123623176823</v>
+        <v>0.00443025590124148</v>
       </c>
       <c r="ES2">
-        <v>0.01029722351839331</v>
+        <v>0.01031628732165305</v>
       </c>
       <c r="ET2">
-        <v>0.01091039154926204</v>
+        <v>0.01093174857916493</v>
       </c>
       <c r="EU2">
-        <v>0.007990948402288461</v>
+        <v>0.008001386818580133</v>
       </c>
       <c r="EV2">
-        <v>0.002035261902461227</v>
+        <v>0.002023426262911606</v>
       </c>
       <c r="EW2">
-        <v>7.058374055339854E-06</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.00224082551280992</v>
+        <v>0.002229758673857169</v>
       </c>
       <c r="EY2">
-        <v>0.001414290071199631</v>
+        <v>0.001400132019070739</v>
       </c>
       <c r="EZ2">
-        <v>2.30446611601378E-05</v>
+        <v>3.683400643251396E-06</v>
       </c>
       <c r="FA2">
-        <v>0.000122354166159678</v>
+        <v>0.0001033643196619807</v>
       </c>
       <c r="FB2">
-        <v>0.0007815656393463733</v>
+        <v>0.0007650412203296906</v>
       </c>
       <c r="FC2">
-        <v>0.001874574294371728</v>
+        <v>0.001862137688878769</v>
       </c>
       <c r="FD2">
-        <v>0.004057786604281226</v>
+        <v>0.004053515135234877</v>
       </c>
       <c r="FE2">
-        <v>0.003323816167330938</v>
+        <v>0.00331679967493607</v>
       </c>
       <c r="FF2">
-        <v>0.0008867058046394465</v>
+        <v>0.0008705746061042262</v>
       </c>
       <c r="FG2">
-        <v>0.0007282508666623467</v>
+        <v>0.0007115270522906593</v>
       </c>
       <c r="FH2">
-        <v>3.129801357563647E-05</v>
+        <v>1.196762030345578E-05</v>
       </c>
       <c r="FI2">
-        <v>0.0008841189445092162</v>
+        <v>0.0008679780712090472</v>
       </c>
       <c r="FJ2">
-        <v>0.00225687461361788</v>
+        <v>0.002245867797731758</v>
       </c>
       <c r="FK2">
-        <v>0.003262380264238069</v>
+        <v>0.003255134003749096</v>
       </c>
       <c r="FL2">
-        <v>0.002342288117917854</v>
+        <v>0.002331600745502175</v>
       </c>
       <c r="FM2">
-        <v>0.001257647263313759</v>
+        <v>0.001242903372650537</v>
       </c>
       <c r="FN2">
-        <v>2.089330305183194E-05</v>
+        <v>1.523996532080809E-06</v>
       </c>
       <c r="FO2">
-        <v>0.0001176942299250828</v>
+        <v>9.868695543148452E-05</v>
       </c>
       <c r="FP2">
-        <v>0.0008740845440040542</v>
+        <v>0.0008579061424026234</v>
       </c>
       <c r="FQ2">
-        <v>0.001999760400673974</v>
+        <v>0.001987791986769409</v>
       </c>
       <c r="FR2">
-        <v>0.00169055338510756</v>
+        <v>0.001677428547954148</v>
       </c>
       <c r="FS2">
-        <v>0.003385407570431636</v>
+        <v>0.003378621427695375</v>
       </c>
       <c r="FT2">
-        <v>0.005431236473424837</v>
+        <v>0.005432101658075995</v>
       </c>
       <c r="FU2">
-        <v>0.004322779217621753</v>
+        <v>0.004319498811531328</v>
       </c>
       <c r="FV2">
-        <v>0.0004881617445755356</v>
+        <v>0.0004705400054201304</v>
       </c>
       <c r="FW2">
-        <v>0.0005119400657726081</v>
+        <v>0.0004944072566933865</v>
       </c>
       <c r="FX2">
-        <v>9.207529463534824E-05</v>
+        <v>7.297220623427608E-05</v>
       </c>
       <c r="FY2">
-        <v>0.0003632851482888708</v>
+        <v>0.0003451963751015298</v>
       </c>
       <c r="FZ2">
-        <v>0.0002835905942768064</v>
+        <v>0.0002652037662898444</v>
       </c>
       <c r="GA2">
-        <v>0.001790060090117028</v>
+        <v>0.001777307404503833</v>
       </c>
       <c r="GB2">
-        <v>0.002368091919216895</v>
+        <v>0.002357501052100996</v>
       </c>
       <c r="GC2">
-        <v>0.004486385925858209</v>
+        <v>0.004483717403041924</v>
       </c>
       <c r="GD2">
-        <v>0.005878430295937924</v>
+        <v>0.005880967969591789</v>
       </c>
       <c r="GE2">
-        <v>0.009475306477015527</v>
+        <v>0.009491296339751855</v>
       </c>
       <c r="GF2">
-        <v>0.01418198871396412</v>
+        <v>0.0142155814009888</v>
       </c>
       <c r="GG2">
-        <v>0.006358715320116922</v>
+        <v>0.006363049242691648</v>
       </c>
       <c r="GH2">
-        <v>0.002104200305931795</v>
+        <v>0.002092622493561048</v>
       </c>
       <c r="GI2">
-        <v>0.0005910094797532011</v>
+        <v>0.0005737723874721007</v>
       </c>
       <c r="GJ2">
-        <v>0.002149897308232319</v>
+        <v>0.002138490401026082</v>
       </c>
       <c r="GK2">
-        <v>0.004791028541194837</v>
+        <v>0.004789499370932763</v>
       </c>
       <c r="GL2">
-        <v>0.00581798529289494</v>
+        <v>0.00582029690438567</v>
       </c>
       <c r="GM2">
-        <v>0.01053673053045082</v>
+        <v>0.01055669008142346</v>
       </c>
       <c r="GN2">
-        <v>0.01057223753223835</v>
+        <v>0.01059232987813573</v>
       </c>
       <c r="GO2">
-        <v>0.004370102220004136</v>
+        <v>0.004366998800260739</v>
       </c>
       <c r="GP2">
-        <v>0.0008222157913928246</v>
+        <v>0.0008058434025000691</v>
       </c>
       <c r="GQ2">
-        <v>1.195718060196056E-05</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.000705989235541629</v>
+        <v>0.0006891821634607396</v>
       </c>
       <c r="GS2">
-        <v>0.001430060771993576</v>
+        <v>0.001415961701725154</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.48831546166282E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.584923233415549E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>8.270231786968978E-05</v>
+        <v>5.844402256646876E-05</v>
       </c>
       <c r="E3">
-        <v>0.0004582400581962984</v>
+        <v>0.0004357673274667364</v>
       </c>
       <c r="F3">
-        <v>0.000353400530896836</v>
+        <v>0.0003304293209845898</v>
       </c>
       <c r="G3">
-        <v>0.0003927869898822892</v>
+        <v>0.0003700030502715182</v>
       </c>
       <c r="H3">
-        <v>0.0004448348085416012</v>
+        <v>0.0004222983400400015</v>
       </c>
       <c r="I3">
-        <v>0.0003791539902334585</v>
+        <v>0.0003563052299706154</v>
       </c>
       <c r="J3">
-        <v>0.0003138551719154759</v>
+        <v>0.0002906959361819412</v>
       </c>
       <c r="K3">
-        <v>0.0003973848597638537</v>
+        <v>0.0003746227815872163</v>
       </c>
       <c r="L3">
-        <v>0.0003738495203700951</v>
+        <v>0.0003509755390110665</v>
       </c>
       <c r="M3">
-        <v>0.0001289291166789442</v>
+        <v>0.0001048906153549799</v>
       </c>
       <c r="N3">
-        <v>0.0001081158522150683</v>
+        <v>8.397839032416721E-05</v>
       </c>
       <c r="O3">
-        <v>1.089396971938471E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2.453486336801203E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.453486336801203E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>7.544502805662866E-05</v>
+        <v>5.115222660875301E-05</v>
       </c>
       <c r="S3">
-        <v>0.0001618867058299971</v>
+        <v>0.0001380049075409133</v>
       </c>
       <c r="T3">
-        <v>0.0001173076129782998</v>
+        <v>9.321385503676504E-05</v>
       </c>
       <c r="U3">
-        <v>0.0001656542357329502</v>
+        <v>0.0001417903508709404</v>
       </c>
       <c r="V3">
-        <v>0.000255791263411131</v>
+        <v>0.0002323559519416572</v>
       </c>
       <c r="W3">
-        <v>0.0002066189146777503</v>
+        <v>0.0001829498040598193</v>
       </c>
       <c r="X3">
-        <v>0.0001462310162332685</v>
+        <v>0.0001222747800336412</v>
       </c>
       <c r="Y3">
-        <v>0.0001958802649543647</v>
+        <v>0.000172160095413572</v>
       </c>
       <c r="Z3">
-        <v>0.0001618867058299971</v>
+        <v>0.0001380049075409133</v>
       </c>
       <c r="AA3">
-        <v>0.0001320953865973849</v>
+        <v>0.0001080719398972038</v>
       </c>
       <c r="AB3">
-        <v>0.0002232641642489891</v>
+        <v>0.0001996741965899742</v>
       </c>
       <c r="AC3">
-        <v>0.0001531775760543336</v>
+        <v>0.0001292543685753737</v>
       </c>
       <c r="AD3">
-        <v>0.0001320953865973849</v>
+        <v>0.0001080719398972038</v>
       </c>
       <c r="AE3">
-        <v>0.0001112386471346289</v>
+        <v>8.711603315748031E-05</v>
       </c>
       <c r="AF3">
-        <v>0.0001127966070944978</v>
+        <v>8.868140072998779E-05</v>
       </c>
       <c r="AG3">
-        <v>4.600621881493626E-05</v>
+        <v>2.157344503078637E-05</v>
       </c>
       <c r="AH3">
-        <v>1.46552556224986E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>3.228940216826462E-08</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>2.588839133314681E-05</v>
+        <v>1.359963567537614E-06</v>
       </c>
       <c r="AK3">
-        <v>0.0001369291664728727</v>
+        <v>0.000112928702885108</v>
       </c>
       <c r="AL3">
-        <v>0.0001001769074195658</v>
+        <v>7.600169832763302E-05</v>
       </c>
       <c r="AM3">
-        <v>8.992951768352597E-05</v>
+        <v>6.570558545641846E-05</v>
       </c>
       <c r="AN3">
-        <v>0.0001822405753057064</v>
+        <v>0.0001584555533039835</v>
       </c>
       <c r="AO3">
-        <v>0.0002457416536699966</v>
+        <v>0.0002222585594474039</v>
       </c>
       <c r="AP3">
-        <v>0.000216968334411162</v>
+        <v>0.0001933484320491518</v>
       </c>
       <c r="AQ3">
-        <v>0.0002378936238721522</v>
+        <v>0.0002143732147209245</v>
       </c>
       <c r="AR3">
-        <v>0.0003738495203700951</v>
+        <v>0.0003509755390110665</v>
       </c>
       <c r="AS3">
-        <v>0.0003915377199144688</v>
+        <v>0.0003687478404154844</v>
       </c>
       <c r="AT3">
-        <v>0.01404952963810136</v>
+        <v>0.01409167924110345</v>
       </c>
       <c r="AU3">
-        <v>0.01647134257571843</v>
+        <v>0.01652500714225436</v>
       </c>
       <c r="AV3">
-        <v>0.07936255795571789</v>
+        <v>0.07971525059351831</v>
       </c>
       <c r="AW3">
-        <v>0.006561426830985696</v>
+        <v>0.006567972845691518</v>
       </c>
       <c r="AX3">
-        <v>0.007096562317201262</v>
+        <v>0.007105652733877079</v>
       </c>
       <c r="AY3">
-        <v>0.02872415226010109</v>
+        <v>0.02883607510683328</v>
       </c>
       <c r="AZ3">
-        <v>0.001831402952825307</v>
+        <v>0.001815459182451049</v>
       </c>
       <c r="BA3">
-        <v>0.01725778955546052</v>
+        <v>0.01731519343156588</v>
       </c>
       <c r="BB3">
-        <v>0.03650779905960389</v>
+        <v>0.03665673071393816</v>
       </c>
       <c r="BC3">
-        <v>0.01950626349754259</v>
+        <v>0.01957435816443847</v>
       </c>
       <c r="BD3">
-        <v>0.0006389653835410359</v>
+        <v>0.0006173519452442874</v>
       </c>
       <c r="BE3">
-        <v>0.01377668464512951</v>
+        <v>0.01381753695547301</v>
       </c>
       <c r="BF3">
-        <v>8.676709776498603E-05</v>
+        <v>6.252812921964145E-05</v>
       </c>
       <c r="BG3">
-        <v>0.003300524414982541</v>
+        <v>0.003291565857958474</v>
       </c>
       <c r="BH3">
-        <v>0.001800933153610172</v>
+        <v>0.001784844508864571</v>
       </c>
       <c r="BI3">
-        <v>0.003965495897853692</v>
+        <v>0.00395969907238096</v>
       </c>
       <c r="BJ3">
-        <v>0.002022255947909168</v>
+        <v>0.002007219623871733</v>
       </c>
       <c r="BK3">
-        <v>0.001503614461268737</v>
+        <v>0.001486112159073768</v>
       </c>
       <c r="BL3">
-        <v>0.002429598137416533</v>
+        <v>0.002416498598167515</v>
       </c>
       <c r="BM3">
-        <v>0.004570731282263571</v>
+        <v>0.004567812161865667</v>
       </c>
       <c r="BN3">
-        <v>0.004108213294177467</v>
+        <v>0.004103095045315168</v>
       </c>
       <c r="BO3">
-        <v>0.0009613884352358136</v>
+        <v>0.0009413080177703044</v>
       </c>
       <c r="BP3">
-        <v>1.921589050502224E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>4.417064586221837E-05</v>
+        <v>1.972914450242217E-05</v>
       </c>
       <c r="BR3">
-        <v>0.0002930438924515489</v>
+        <v>0.0002697857055891317</v>
       </c>
       <c r="BS3">
-        <v>0.000389119659976755</v>
+        <v>0.0003663182833585783</v>
       </c>
       <c r="BT3">
-        <v>0.0001523977760744203</v>
+        <v>0.0001284708608902975</v>
       </c>
       <c r="BU3">
-        <v>0.001148344470420056</v>
+        <v>0.001129152970465118</v>
       </c>
       <c r="BV3">
-        <v>0.00133648096557389</v>
+        <v>0.001318183995847704</v>
       </c>
       <c r="BW3">
-        <v>3.305339714858505E-06</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>3.603262907184369E-07</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.00376031540313889</v>
+        <v>0.003753543008546927</v>
       </c>
       <c r="BZ3">
-        <v>0.005277370464061413</v>
+        <v>0.005277811192099195</v>
       </c>
       <c r="CA3">
-        <v>0.002471424336339142</v>
+        <v>0.002458523667592412</v>
       </c>
       <c r="CB3">
-        <v>0.0002201330543296426</v>
+        <v>0.0001965281992216503</v>
       </c>
       <c r="CC3">
-        <v>0.001452825562576996</v>
+        <v>0.001435081775043803</v>
       </c>
       <c r="CD3">
-        <v>0.002977800223295521</v>
+        <v>0.002967307213613678</v>
       </c>
       <c r="CE3">
-        <v>0.01757086554739607</v>
+        <v>0.01762975800198512</v>
       </c>
       <c r="CF3">
-        <v>0.009609015752483544</v>
+        <v>0.009630052099928146</v>
       </c>
       <c r="CG3">
-        <v>0.01666031757085066</v>
+        <v>0.01671488065442065</v>
       </c>
       <c r="CH3">
-        <v>0.01418149713470204</v>
+        <v>0.01422427420190147</v>
       </c>
       <c r="CI3">
-        <v>0.001061680372652416</v>
+        <v>0.001042076812001136</v>
       </c>
       <c r="CJ3">
-        <v>0.0007543139805697974</v>
+        <v>0.0007332489887974826</v>
       </c>
       <c r="CK3">
-        <v>0.001069354672454736</v>
+        <v>0.001049787600700264</v>
       </c>
       <c r="CL3">
-        <v>0.004590912581743725</v>
+        <v>0.004588089417116793</v>
       </c>
       <c r="CM3">
-        <v>0.0128594791687556</v>
+        <v>0.01289597045374928</v>
       </c>
       <c r="CN3">
-        <v>0.01745170955046538</v>
+        <v>0.01751003545553354</v>
       </c>
       <c r="CO3">
-        <v>0.01238462668098721</v>
+        <v>0.0124188601908259</v>
       </c>
       <c r="CP3">
-        <v>0.02386074038537661</v>
+        <v>0.02394953922879806</v>
       </c>
       <c r="CQ3">
-        <v>0.03548246908601514</v>
+        <v>0.03562652561681174</v>
       </c>
       <c r="CR3">
-        <v>0.01748783954953471</v>
+        <v>0.01754633724145532</v>
       </c>
       <c r="CS3">
-        <v>0.0004260457890255833</v>
+        <v>0.0004034199846090569</v>
       </c>
       <c r="CT3">
-        <v>0.005205541865911629</v>
+        <v>0.005205641071416629</v>
       </c>
       <c r="CU3">
-        <v>0.01940600750012506</v>
+        <v>0.01947362548109018</v>
       </c>
       <c r="CV3">
-        <v>0.02713579830101513</v>
+        <v>0.02724016902114266</v>
       </c>
       <c r="CW3">
-        <v>0.02088317446207505</v>
+        <v>0.0209578159102271</v>
       </c>
       <c r="CX3">
-        <v>0.01660607557224787</v>
+        <v>0.01666038075206889</v>
       </c>
       <c r="CY3">
-        <v>0.01592489458979426</v>
+        <v>0.01597596096696002</v>
       </c>
       <c r="CZ3">
-        <v>0.01277810167085178</v>
+        <v>0.01281420603127904</v>
       </c>
       <c r="DA3">
-        <v>0.007269438212748192</v>
+        <v>0.007279350600271624</v>
       </c>
       <c r="DB3">
-        <v>0.001468755362166664</v>
+        <v>0.001451087315851352</v>
       </c>
       <c r="DC3">
-        <v>0.003237019916618339</v>
+        <v>0.003227759415554111</v>
       </c>
       <c r="DD3">
-        <v>0.02190483343575837</v>
+        <v>0.02198433255299099</v>
       </c>
       <c r="DE3">
-        <v>0.03811215901827755</v>
+        <v>0.03826871890274154</v>
       </c>
       <c r="DF3">
-        <v>0.03056387121271218</v>
+        <v>0.03068454134802425</v>
       </c>
       <c r="DG3">
-        <v>0.02013089448145286</v>
+        <v>0.02020195907343673</v>
       </c>
       <c r="DH3">
-        <v>0.008780817773816908</v>
+        <v>0.008797916298742268</v>
       </c>
       <c r="DI3">
-        <v>0.0001794634653772414</v>
+        <v>0.0001556652390858481</v>
       </c>
       <c r="DJ3">
-        <v>0.002523781934990474</v>
+        <v>0.00251113021025995</v>
       </c>
       <c r="DK3">
-        <v>0.005286265463832289</v>
+        <v>0.005286748484813678</v>
       </c>
       <c r="DL3">
-        <v>0.005068389569444504</v>
+        <v>0.005067836658649409</v>
       </c>
       <c r="DM3">
-        <v>0.01011222773952142</v>
+        <v>0.01013565670267574</v>
       </c>
       <c r="DN3">
-        <v>0.008178331789336208</v>
+        <v>0.008192565681724025</v>
       </c>
       <c r="DO3">
-        <v>0.009314468760070716</v>
+        <v>0.009334104628632761</v>
       </c>
       <c r="DP3">
-        <v>0.006636590529049572</v>
+        <v>0.006643493923645817</v>
       </c>
       <c r="DQ3">
-        <v>0.004850703675051826</v>
+        <v>0.004849115735870837</v>
       </c>
       <c r="DR3">
-        <v>0.0008741353274833466</v>
+        <v>0.0008536400487631231</v>
       </c>
       <c r="DS3">
-        <v>0.0001879624551583178</v>
+        <v>0.0001642046389068096</v>
       </c>
       <c r="DT3">
-        <v>0.0005853870349211483</v>
+        <v>0.0005635188483236628</v>
       </c>
       <c r="DU3">
-        <v>0.003439908311392183</v>
+        <v>0.003431612481228407</v>
       </c>
       <c r="DV3">
-        <v>0.007952051795164903</v>
+        <v>0.00796520979690863</v>
       </c>
       <c r="DW3">
-        <v>0.01500752061342468</v>
+        <v>0.01505422516407581</v>
       </c>
       <c r="DX3">
-        <v>0.01182019119552638</v>
+        <v>0.01185174099105694</v>
       </c>
       <c r="DY3">
-        <v>0.005951460346697685</v>
+        <v>0.005955106161427555</v>
       </c>
       <c r="DZ3">
-        <v>0.001879409751588711</v>
+        <v>0.001863694238537118</v>
       </c>
       <c r="EA3">
-        <v>0.0001664671957120093</v>
+        <v>0.0001426071762205936</v>
       </c>
       <c r="EB3">
-        <v>0.0002752582329096857</v>
+        <v>0.0002519154807953993</v>
       </c>
       <c r="EC3">
-        <v>0.000863597777754781</v>
+        <v>0.0008430523962793135</v>
       </c>
       <c r="ED3">
-        <v>0.001380660164435888</v>
+        <v>0.001362573252991226</v>
       </c>
       <c r="EE3">
-        <v>0.002381125138665138</v>
+        <v>0.002367795125458232</v>
       </c>
       <c r="EF3">
-        <v>0.002478559436155351</v>
+        <v>0.002465692692578033</v>
       </c>
       <c r="EG3">
-        <v>0.003113575219798123</v>
+        <v>0.003103727777785545</v>
       </c>
       <c r="EH3">
-        <v>0.00192233575048299</v>
+        <v>0.001906824337138786</v>
       </c>
       <c r="EI3">
-        <v>0.0004492811184270697</v>
+        <v>0.0004267657907391952</v>
       </c>
       <c r="EJ3">
-        <v>0.0009679197750675743</v>
+        <v>0.0009478704120814683</v>
       </c>
       <c r="EK3">
-        <v>0.0008106703791181259</v>
+        <v>0.0007898733444056245</v>
       </c>
       <c r="EL3">
-        <v>0.0001699637156219432</v>
+        <v>0.0001461203209897943</v>
       </c>
       <c r="EM3">
-        <v>0.000158379475920339</v>
+        <v>0.0001344810018492874</v>
       </c>
       <c r="EN3">
-        <v>0.000158379475920339</v>
+        <v>0.0001344810018492874</v>
       </c>
       <c r="EO3">
-        <v>0.0001242399667997309</v>
+        <v>0.0001001791700337756</v>
       </c>
       <c r="EP3">
-        <v>3.694595104831763E-05</v>
+        <v>1.247009852289963E-05</v>
       </c>
       <c r="EQ3">
-        <v>0.0006074694843523315</v>
+        <v>0.000585706292899594</v>
       </c>
       <c r="ER3">
-        <v>0.004140868893336299</v>
+        <v>0.004135905911640861</v>
       </c>
       <c r="ES3">
-        <v>0.008102777791282387</v>
+        <v>0.008116652448025324</v>
       </c>
       <c r="ET3">
-        <v>0.006539606831547753</v>
+        <v>0.006546049098976511</v>
       </c>
       <c r="EU3">
-        <v>0.003122005319580974</v>
+        <v>0.003112197960057872</v>
       </c>
       <c r="EV3">
-        <v>0.0002210700743055062</v>
+        <v>0.0001974696744346153</v>
       </c>
       <c r="EW3">
-        <v>0.0005596365855844482</v>
+        <v>0.0005376459636491684</v>
       </c>
       <c r="EX3">
-        <v>0.002489039935885386</v>
+        <v>0.002476223023808402</v>
       </c>
       <c r="EY3">
-        <v>0.0004764231777279236</v>
+        <v>0.0004540369020482483</v>
       </c>
       <c r="EZ3">
-        <v>0.0001404407163824195</v>
+        <v>0.0001164569491168718</v>
       </c>
       <c r="FA3">
-        <v>0.0002883185125732689</v>
+        <v>0.0002650378580065395</v>
       </c>
       <c r="FB3">
-        <v>0.0004935575872865622</v>
+        <v>0.0004712527803686467</v>
       </c>
       <c r="FC3">
-        <v>0.001909449550814923</v>
+        <v>0.001893876867619129</v>
       </c>
       <c r="FD3">
-        <v>0.001552938259998216</v>
+        <v>0.001535670477049097</v>
       </c>
       <c r="FE3">
-        <v>0.001177025969681255</v>
+        <v>0.001157970841290347</v>
       </c>
       <c r="FF3">
-        <v>0.0002868920226100135</v>
+        <v>0.0002636045855293859</v>
       </c>
       <c r="FG3">
-        <v>3.455849610981554E-07</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.0007893653796669165</v>
+        <v>0.0007684670463413149</v>
       </c>
       <c r="FI3">
-        <v>0.002830690127084896</v>
+        <v>0.002819497654877681</v>
       </c>
       <c r="FJ3">
-        <v>0.004154411492987458</v>
+        <v>0.00414951290212036</v>
       </c>
       <c r="FK3">
-        <v>0.005683620353596914</v>
+        <v>0.005685992672878167</v>
       </c>
       <c r="FL3">
-        <v>0.003102062420094678</v>
+        <v>0.003092160238318059</v>
       </c>
       <c r="FM3">
-        <v>0.001487496161683924</v>
+        <v>0.001469917222012516</v>
       </c>
       <c r="FN3">
-        <v>4.744362277791049E-05</v>
+        <v>2.301768340031609E-05</v>
       </c>
       <c r="FO3">
-        <v>3.151461318822224E-05</v>
+        <v>7.012936348949325E-06</v>
       </c>
       <c r="FP3">
-        <v>0.001473594862042005</v>
+        <v>0.00145594982603592</v>
       </c>
       <c r="FQ3">
-        <v>0.001634361757900847</v>
+        <v>0.001617481118233764</v>
       </c>
       <c r="FR3">
-        <v>0.002969772923502294</v>
+        <v>0.002959241746519022</v>
       </c>
       <c r="FS3">
-        <v>0.005571334456489261</v>
+        <v>0.0055731728914269</v>
       </c>
       <c r="FT3">
-        <v>0.00879229077352138</v>
+        <v>0.008809443848974226</v>
       </c>
       <c r="FU3">
-        <v>0.00427154858997015</v>
+        <v>0.004267206949385736</v>
       </c>
       <c r="FV3">
-        <v>0.002117927645444783</v>
+        <v>0.002103346210425088</v>
       </c>
       <c r="FW3">
-        <v>0.001211178668801524</v>
+        <v>0.001192285925819844</v>
       </c>
       <c r="FX3">
-        <v>7.967079794777802E-05</v>
+        <v>5.539808871488856E-05</v>
       </c>
       <c r="FY3">
-        <v>4.286584889582834E-06</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.0001842845352530565</v>
+        <v>0.000160509231642004</v>
       </c>
       <c r="GA3">
-        <v>0.0006587846830305149</v>
+        <v>0.000637265479307933</v>
       </c>
       <c r="GB3">
-        <v>0.001134263970782752</v>
+        <v>0.001115005522453172</v>
       </c>
       <c r="GC3">
-        <v>0.004328332888507457</v>
+        <v>0.004324261239513555</v>
       </c>
       <c r="GD3">
-        <v>0.004595188281633589</v>
+        <v>0.004592385446623181</v>
       </c>
       <c r="GE3">
-        <v>0.01267651567346851</v>
+        <v>0.01271213702423089</v>
       </c>
       <c r="GF3">
-        <v>0.01087726071981511</v>
+        <v>0.01090432717566485</v>
       </c>
       <c r="GG3">
-        <v>0.005049214569938428</v>
+        <v>0.0050485704880142</v>
       </c>
       <c r="GH3">
-        <v>0.003385854312784548</v>
+        <v>0.003377301472753017</v>
       </c>
       <c r="GI3">
-        <v>0.0001134676170772134</v>
+        <v>8.935560115543405E-05</v>
       </c>
       <c r="GJ3">
-        <v>0.001712640355884486</v>
+        <v>0.001696131906483324</v>
       </c>
       <c r="GK3">
-        <v>0.00321649791714696</v>
+        <v>0.003207139840389794</v>
       </c>
       <c r="GL3">
-        <v>0.006330135536943476</v>
+        <v>0.0063355818338407</v>
       </c>
       <c r="GM3">
-        <v>0.009294184760593205</v>
+        <v>0.009313724185077893</v>
       </c>
       <c r="GN3">
-        <v>0.007008263219475739</v>
+        <v>0.007016933801541464</v>
       </c>
       <c r="GO3">
-        <v>0.002333140439901165</v>
+        <v>0.002319582274450183</v>
       </c>
       <c r="GP3">
-        <v>0.0001225627168429348</v>
+        <v>9.849394527769186E-05</v>
       </c>
       <c r="GQ3">
-        <v>0.0003176591618174898</v>
+        <v>0.0002945180128669285</v>
       </c>
       <c r="GR3">
-        <v>0.001447220262721382</v>
+        <v>0.00142944982373942</v>
       </c>
       <c r="GS3">
-        <v>0.002686020630811405</v>
+        <v>0.002674140300368662</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001714850059492107</v>
+        <v>7.613953391586707E-05</v>
       </c>
       <c r="C4">
-        <v>0.0001529421663872265</v>
+        <v>5.726356097230523E-05</v>
       </c>
       <c r="D4">
-        <v>0.0001408536466727795</v>
+        <v>4.495786365475806E-05</v>
       </c>
       <c r="E4">
-        <v>0.0001480470365028584</v>
+        <v>5.228048710469823E-05</v>
       </c>
       <c r="F4">
-        <v>9.668922371602382E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>7.966007811828336E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001136585873151764</v>
+        <v>1.727422852882582E-05</v>
       </c>
       <c r="I4">
-        <v>9.338275779412859E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2.98505862948746E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>6.801596239333866E-07</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>5.325727574196581E-06</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>8.799857292131288E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>9.681875771296401E-05</v>
+        <v>1.318611539155599E-07</v>
       </c>
       <c r="O4">
-        <v>0.0003211346924142117</v>
+        <v>0.0002284777679432555</v>
       </c>
       <c r="P4">
-        <v>0.0004074257103758601</v>
+        <v>0.0003163190564833256</v>
       </c>
       <c r="Q4">
-        <v>0.0002918031131070772</v>
+        <v>0.0001986192289884935</v>
       </c>
       <c r="R4">
-        <v>0.0003283254222443534</v>
+        <v>0.000235797683604743</v>
       </c>
       <c r="S4">
-        <v>0.0004006080905369047</v>
+        <v>0.0003093789539607625</v>
       </c>
       <c r="T4">
-        <v>0.0003197061224479571</v>
+        <v>0.0002270235328493872</v>
       </c>
       <c r="U4">
-        <v>0.0001685349060188975</v>
+        <v>7.313643364747226E-05</v>
       </c>
       <c r="V4">
-        <v>0.0001271526669964216</v>
+        <v>3.101073755216095E-05</v>
       </c>
       <c r="W4">
-        <v>0.0001836223656625041</v>
+        <v>8.849494867252085E-05</v>
       </c>
       <c r="X4">
-        <v>9.87919276663541E-05</v>
+        <v>2.140480304652313E-06</v>
       </c>
       <c r="Y4">
-        <v>2.441767142320997E-05</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>1.538391463660382E-06</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>3.967716506275285E-06</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>5.371549873114175E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>6.127581455255328E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0001751623958623441</v>
+        <v>7.988299037361167E-05</v>
       </c>
       <c r="AE4">
-        <v>0.0003088617427041211</v>
+        <v>0.0002159843272331114</v>
       </c>
       <c r="AF4">
-        <v>0.0002464576941782189</v>
+        <v>0.0001524591520512795</v>
       </c>
       <c r="AG4">
-        <v>0.0002891982631686085</v>
+        <v>0.0001959675813378619</v>
       </c>
       <c r="AH4">
-        <v>0.0005607324267544753</v>
+        <v>0.000472380021189175</v>
       </c>
       <c r="AI4">
-        <v>0.0003277255622585233</v>
+        <v>0.0002351870467697208</v>
       </c>
       <c r="AJ4">
-        <v>0.0002669118336950547</v>
+        <v>0.0001732807626149162</v>
       </c>
       <c r="AK4">
-        <v>0.0003610393214715914</v>
+        <v>0.0002690993079124752</v>
       </c>
       <c r="AL4">
-        <v>0.0002701814136178212</v>
+        <v>0.000176609082527983</v>
       </c>
       <c r="AM4">
-        <v>0.0001804834557366509</v>
+        <v>8.529964632227268E-05</v>
       </c>
       <c r="AN4">
-        <v>0.0001519567664105035</v>
+        <v>5.62604576861535E-05</v>
       </c>
       <c r="AO4">
-        <v>5.773626863616382E-05</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.768378858227659E-08</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>1.103579073931445E-09</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>2.558259639569232E-06</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.511268940679238E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.04696143889068499</v>
+        <v>0.04770670337536178</v>
       </c>
       <c r="AU4">
-        <v>0.0008889368390016872</v>
+        <v>0.0008064808251586539</v>
       </c>
       <c r="AV4">
-        <v>0.09533966774790281</v>
+        <v>0.09695407651439616</v>
       </c>
       <c r="AW4">
-        <v>0.00971337077055243</v>
+        <v>0.009789451075070938</v>
       </c>
       <c r="AX4">
-        <v>0.02317623345253501</v>
+        <v>0.02349418226678051</v>
       </c>
       <c r="AY4">
-        <v>0.01769262558206785</v>
+        <v>0.01791205804842457</v>
       </c>
       <c r="AZ4">
-        <v>0.00808750630895832</v>
+        <v>0.008134376970354632</v>
       </c>
       <c r="BA4">
-        <v>0.02191906548223161</v>
+        <v>0.02221442850988503</v>
       </c>
       <c r="BB4">
-        <v>0.01362499867815263</v>
+        <v>0.01377135375520402</v>
       </c>
       <c r="BC4">
-        <v>0.004265362299244347</v>
+        <v>0.004243565820714417</v>
       </c>
       <c r="BD4">
-        <v>0.001732778559068604</v>
+        <v>0.001665482674545703</v>
       </c>
       <c r="BE4">
-        <v>0.004396663396142775</v>
+        <v>0.004377225821612872</v>
       </c>
       <c r="BF4">
-        <v>0.005102477379470159</v>
+        <v>0.005095720182087706</v>
       </c>
       <c r="BG4">
-        <v>0.002753854434948925</v>
+        <v>0.002704902799064012</v>
       </c>
       <c r="BH4">
-        <v>0.0001484502864933329</v>
+        <v>5.269098172631451E-05</v>
       </c>
       <c r="BI4">
-        <v>0.0003109692426543382</v>
+        <v>0.0002181296897007031</v>
       </c>
       <c r="BJ4">
-        <v>0.00235968194426</v>
+        <v>0.002303648760033522</v>
       </c>
       <c r="BK4">
-        <v>0.004979237882381302</v>
+        <v>0.004970266612538593</v>
       </c>
       <c r="BL4">
-        <v>0.002270406746368843</v>
+        <v>0.002212769678957965</v>
       </c>
       <c r="BM4">
-        <v>0.004180644901245527</v>
+        <v>0.004157326423176127</v>
       </c>
       <c r="BN4">
-        <v>0.003258823323020637</v>
+        <v>0.00321894376008941</v>
       </c>
       <c r="BO4">
-        <v>9.543623274562177E-06</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.001991786952950352</v>
+        <v>0.001929144311628008</v>
       </c>
       <c r="BQ4">
-        <v>0.001641815261217323</v>
+        <v>0.001572885165768348</v>
       </c>
       <c r="BR4">
-        <v>0.006782966539773934</v>
+        <v>0.006806400351422496</v>
       </c>
       <c r="BS4">
-        <v>0.00694329553598667</v>
+        <v>0.006969609755487263</v>
       </c>
       <c r="BT4">
-        <v>0.00155173176334526</v>
+        <v>0.001481183263111508</v>
       </c>
       <c r="BU4">
-        <v>8.180321806765848E-08</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>3.580241015428164E-06</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.0009847846767375862</v>
+        <v>0.0009040506275480854</v>
       </c>
       <c r="BX4">
-        <v>0.00153292626378948</v>
+        <v>0.001462039911327739</v>
       </c>
       <c r="BY4">
-        <v>0.007315575827192729</v>
+        <v>0.007348578288366858</v>
       </c>
       <c r="BZ4">
-        <v>0.003226261723789802</v>
+        <v>0.003185797171940071</v>
       </c>
       <c r="CA4">
-        <v>0.0002074201251003576</v>
+        <v>0.0001127202493210396</v>
       </c>
       <c r="CB4">
-        <v>0.0002050305151568045</v>
+        <v>0.0001102877085826378</v>
       </c>
       <c r="CC4">
-        <v>0.000412410550258109</v>
+        <v>0.0003213934520434439</v>
       </c>
       <c r="CD4">
-        <v>0.007170666330615756</v>
+        <v>0.007201065404619542</v>
       </c>
       <c r="CE4">
-        <v>0.0221698554763075</v>
+        <v>0.02246972409861448</v>
       </c>
       <c r="CF4">
-        <v>0.009758651769482809</v>
+        <v>0.009835545574665252</v>
       </c>
       <c r="CG4">
-        <v>0.02179417548518174</v>
+        <v>0.02208729478814006</v>
       </c>
       <c r="CH4">
-        <v>0.01690282060072448</v>
+        <v>0.01710806374061142</v>
       </c>
       <c r="CI4">
-        <v>0.0009733352070080436</v>
+        <v>0.0008923954611367847</v>
       </c>
       <c r="CJ4">
-        <v>0.0003675129513186724</v>
+        <v>0.0002756892404539107</v>
       </c>
       <c r="CK4">
-        <v>0.0004509533693476573</v>
+        <v>0.0003606287163011616</v>
       </c>
       <c r="CL4">
-        <v>0.003307226221877273</v>
+        <v>0.003268216246439394</v>
       </c>
       <c r="CM4">
-        <v>0.007695827818210482</v>
+        <v>0.007735661737489823</v>
       </c>
       <c r="CN4">
-        <v>0.006893508837162722</v>
+        <v>0.006918928608362592</v>
       </c>
       <c r="CO4">
-        <v>0.009190348782907165</v>
+        <v>0.009257032679566927</v>
       </c>
       <c r="CP4">
-        <v>0.01877103555659384</v>
+        <v>0.01900984231351377</v>
       </c>
       <c r="CQ4">
-        <v>0.02660965337143135</v>
+        <v>0.02698928566107632</v>
       </c>
       <c r="CR4">
-        <v>0.01098614174048725</v>
+        <v>0.01108508814896847</v>
       </c>
       <c r="CS4">
-        <v>6.31104385092161E-05</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.008777467292660181</v>
+        <v>0.008836733522431493</v>
       </c>
       <c r="CU4">
-        <v>0.01756017958519647</v>
+        <v>0.01777723257872937</v>
       </c>
       <c r="CV4">
-        <v>0.02065770051202736</v>
+        <v>0.02093040235143487</v>
       </c>
       <c r="CW4">
-        <v>0.01544418363518016</v>
+        <v>0.01562322147553886</v>
       </c>
       <c r="CX4">
-        <v>0.01000458376367345</v>
+        <v>0.01008589588658921</v>
       </c>
       <c r="CY4">
-        <v>0.01027985775717097</v>
+        <v>0.01036611534466931</v>
       </c>
       <c r="CZ4">
-        <v>0.006534946845632612</v>
+        <v>0.006553924832749502</v>
       </c>
       <c r="DA4">
-        <v>0.002441796942320293</v>
+        <v>0.00238723900393686</v>
       </c>
       <c r="DB4">
-        <v>0.0002678906236719339</v>
+        <v>0.0001742771371485599</v>
       </c>
       <c r="DC4">
-        <v>0.01129570873317472</v>
+        <v>0.01140021670080949</v>
       </c>
       <c r="DD4">
-        <v>0.03650297913773292</v>
+        <v>0.03706035103713722</v>
       </c>
       <c r="DE4">
-        <v>0.04465143294525155</v>
+        <v>0.0453551967692828</v>
       </c>
       <c r="DF4">
-        <v>0.03290984322260936</v>
+        <v>0.03340266225167943</v>
       </c>
       <c r="DG4">
-        <v>0.01689073260101003</v>
+        <v>0.01709575857263598</v>
       </c>
       <c r="DH4">
-        <v>0.00396966490622926</v>
+        <v>0.00394255604433272</v>
       </c>
       <c r="DI4">
-        <v>0.0002234240647223153</v>
+        <v>0.0001290117094442131</v>
       </c>
       <c r="DJ4">
-        <v>0.005536027169228921</v>
+        <v>0.005537058957296177</v>
       </c>
       <c r="DK4">
-        <v>0.008241937305310377</v>
+        <v>0.008291582413406893</v>
       </c>
       <c r="DL4">
-        <v>0.008139012807741644</v>
+        <v>0.008186808814690106</v>
       </c>
       <c r="DM4">
-        <v>0.01405845166791368</v>
+        <v>0.014212593991344</v>
       </c>
       <c r="DN4">
-        <v>0.01041584075395881</v>
+        <v>0.01050454135863397</v>
       </c>
       <c r="DO4">
-        <v>0.01314868568940401</v>
+        <v>0.01328648351414781</v>
       </c>
       <c r="DP4">
-        <v>0.01146953522906862</v>
+        <v>0.01157716609533989</v>
       </c>
       <c r="DQ4">
-        <v>0.006588281444372752</v>
+        <v>0.006608217619968488</v>
       </c>
       <c r="DR4">
-        <v>0.001401254666899804</v>
+        <v>0.001328002754180532</v>
       </c>
       <c r="DS4">
-        <v>0.0002806642333701979</v>
+        <v>0.0001872802325078258</v>
       </c>
       <c r="DT4">
-        <v>0.0005668911866089941</v>
+        <v>0.0004786494269072793</v>
       </c>
       <c r="DU4">
-        <v>0.003469814718036635</v>
+        <v>0.003433725743740471</v>
       </c>
       <c r="DV4">
-        <v>0.00614003545496114</v>
+        <v>0.006151918618949235</v>
       </c>
       <c r="DW4">
-        <v>0.01307635169111267</v>
+        <v>0.01321284999161838</v>
       </c>
       <c r="DX4">
-        <v>0.01156018472692731</v>
+        <v>0.01166944416651708</v>
       </c>
       <c r="DY4">
-        <v>0.007156042230961204</v>
+        <v>0.007186178574127344</v>
       </c>
       <c r="DZ4">
-        <v>0.004684336389347413</v>
+        <v>0.00467006703496494</v>
       </c>
       <c r="EA4">
-        <v>0.001362936767804943</v>
+        <v>0.001288996450741895</v>
       </c>
       <c r="EB4">
-        <v>1.277854269814747E-05</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.0001809286557261345</v>
+        <v>8.575284460012407E-05</v>
       </c>
       <c r="ED4">
-        <v>0.0006791584839570354</v>
+        <v>0.0005929336744792122</v>
       </c>
       <c r="EE4">
-        <v>0.001832731456707533</v>
+        <v>0.001767231286734049</v>
       </c>
       <c r="EF4">
-        <v>0.001202007371606389</v>
+        <v>0.00112517586014069</v>
       </c>
       <c r="EG4">
-        <v>0.001434309766118982</v>
+        <v>0.001361651708345414</v>
       </c>
       <c r="EH4">
-        <v>0.000342945691898996</v>
+        <v>0.0002506806152887553</v>
       </c>
       <c r="EI4">
-        <v>0.0001363112367800795</v>
+        <v>4.033384660782433E-05</v>
       </c>
       <c r="EJ4">
-        <v>0.0006147282354789956</v>
+        <v>0.0005273458974317413</v>
       </c>
       <c r="EK4">
-        <v>0.0005772275463648304</v>
+        <v>0.0004891714856477372</v>
       </c>
       <c r="EL4">
-        <v>0.0003232835323634522</v>
+        <v>0.0002306652131080762</v>
       </c>
       <c r="EM4">
-        <v>0.0001036087315525724</v>
+        <v>7.043820999952529E-06</v>
       </c>
       <c r="EN4">
-        <v>7.590524820697932E-05</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.0005621507167209727</v>
+        <v>0.0004738237915968431</v>
       </c>
       <c r="EP4">
-        <v>9.280522780777091E-05</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.0005957523859272398</v>
+        <v>0.000508029135210793</v>
       </c>
       <c r="ER4">
-        <v>0.003147419725652194</v>
+        <v>0.003105538729392096</v>
       </c>
       <c r="ES4">
-        <v>0.005234929176341405</v>
+        <v>0.005230551555983293</v>
       </c>
       <c r="ET4">
-        <v>0.0026146664382368</v>
+        <v>0.002563214205403683</v>
       </c>
       <c r="EU4">
-        <v>0.0002656095537258169</v>
+        <v>0.0001719550863946101</v>
       </c>
       <c r="EV4">
-        <v>0.0004862160285146888</v>
+        <v>0.000396524890569937</v>
       </c>
       <c r="EW4">
-        <v>0.004180644901245527</v>
+        <v>0.004157326423176127</v>
       </c>
       <c r="EX4">
-        <v>0.006284173851556329</v>
+        <v>0.006298646549434981</v>
       </c>
       <c r="EY4">
-        <v>0.001945453654044829</v>
+        <v>0.001881978606849995</v>
       </c>
       <c r="EZ4">
-        <v>0.0001303219469215574</v>
+        <v>3.423695551718526E-05</v>
       </c>
       <c r="FA4">
-        <v>0.001272176269948871</v>
+        <v>0.001196605385384908</v>
       </c>
       <c r="FB4">
-        <v>0.001513195464255558</v>
+        <v>0.001441954635989396</v>
       </c>
       <c r="FC4">
-        <v>0.003197608424466645</v>
+        <v>0.003156629098681403</v>
       </c>
       <c r="FD4">
-        <v>0.001547537863444327</v>
+        <v>0.00147691401725014</v>
       </c>
       <c r="FE4">
-        <v>0.000359017691519346</v>
+        <v>0.0002670413581495536</v>
       </c>
       <c r="FF4">
-        <v>3.236316523552289E-06</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.000576431986383623</v>
+        <v>0.0004883616329479901</v>
       </c>
       <c r="FH4">
-        <v>0.003318710221605999</v>
+        <v>0.003279906563202298</v>
       </c>
       <c r="FI4">
-        <v>0.006794473439502119</v>
+        <v>0.006818113979597266</v>
       </c>
       <c r="FJ4">
-        <v>0.008673731795110603</v>
+        <v>0.008731134353626343</v>
       </c>
       <c r="FK4">
-        <v>0.009755379269560112</v>
+        <v>0.009832214282292681</v>
       </c>
       <c r="FL4">
-        <v>0.006415081848464043</v>
+        <v>0.006431906388062494</v>
       </c>
       <c r="FM4">
-        <v>0.003710066112361458</v>
+        <v>0.003678293400369814</v>
       </c>
       <c r="FN4">
-        <v>0.0005368957873175403</v>
+        <v>0.0004481151420387631</v>
       </c>
       <c r="FO4">
-        <v>8.14507980759833E-05</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.0002407465643131261</v>
+        <v>0.000146645418267395</v>
       </c>
       <c r="FQ4">
-        <v>0.0004212335500496937</v>
+        <v>0.0003303749623881941</v>
       </c>
       <c r="FR4">
-        <v>0.001778473257989211</v>
+        <v>0.001711998306501983</v>
       </c>
       <c r="FS4">
-        <v>0.00431588749805085</v>
+        <v>0.00429499873542263</v>
       </c>
       <c r="FT4">
-        <v>0.005795827863091954</v>
+        <v>0.005801527128510427</v>
       </c>
       <c r="FU4">
-        <v>0.002691391136424423</v>
+        <v>0.002641317309421347</v>
       </c>
       <c r="FV4">
-        <v>0.002314349145330844</v>
+        <v>0.002257501529821974</v>
       </c>
       <c r="FW4">
-        <v>0.001158143872642525</v>
+        <v>0.001080524326761233</v>
       </c>
       <c r="FX4">
-        <v>0.0001118914923569185</v>
+        <v>1.547538663574454E-05</v>
       </c>
       <c r="FY4">
-        <v>0.0006651919542869503</v>
+        <v>0.0005787162276158707</v>
       </c>
       <c r="FZ4">
-        <v>5.936367859772142E-05</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>1.211440871383553E-06</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>8.768813792864593E-05</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.001388095767210641</v>
+        <v>0.001314607446861533</v>
       </c>
       <c r="GD4">
-        <v>0.001766159258280091</v>
+        <v>0.001699463078304629</v>
       </c>
       <c r="GE4">
-        <v>0.006360863849744771</v>
+        <v>0.006376714330046891</v>
       </c>
       <c r="GF4">
-        <v>0.003873459708501802</v>
+        <v>0.003844622461762307</v>
       </c>
       <c r="GG4">
-        <v>0.000974169376988339</v>
+        <v>0.0008932446174877175</v>
       </c>
       <c r="GH4">
-        <v>0.0002005810152619098</v>
+        <v>0.0001057582707180832</v>
       </c>
       <c r="GI4">
-        <v>0.0009339047779394624</v>
+        <v>0.0008522566404473429</v>
       </c>
       <c r="GJ4">
-        <v>0.004009564305286764</v>
+        <v>0.003983172260341937</v>
       </c>
       <c r="GK4">
-        <v>0.00565992786630216</v>
+        <v>0.005663185605689216</v>
       </c>
       <c r="GL4">
-        <v>0.006746306840639903</v>
+        <v>0.006769082038514704</v>
       </c>
       <c r="GM4">
-        <v>0.007495271322947993</v>
+        <v>0.007531502122907837</v>
       </c>
       <c r="GN4">
-        <v>0.003503579817239042</v>
+        <v>0.003468097453469761</v>
       </c>
       <c r="GO4">
-        <v>0.0003529944116616269</v>
+        <v>0.0002609098664087256</v>
       </c>
       <c r="GP4">
-        <v>9.668922371602382E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.002466843941728638</v>
+        <v>0.002412735987911128</v>
       </c>
       <c r="GR4">
-        <v>0.004878858884752437</v>
+        <v>0.004868084245215044</v>
       </c>
       <c r="GS4">
-        <v>0.006820813138879928</v>
+        <v>0.006844926887681548</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001995169916282701</v>
+        <v>0.0001782379096198566</v>
       </c>
       <c r="C5">
-        <v>5.488375769707839E-05</v>
+        <v>3.300558526935102E-05</v>
       </c>
       <c r="D5">
-        <v>1.806227924210705E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>4.79749629869713E-05</v>
+        <v>2.606817339700997E-05</v>
       </c>
       <c r="F5">
-        <v>3.239024464090584E-09</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>8.246209653989172E-05</v>
+        <v>6.069815732214139E-05</v>
       </c>
       <c r="H5">
-        <v>8.171882657107932E-05</v>
+        <v>5.995180862857689E-05</v>
       </c>
       <c r="I5">
-        <v>4.546590009225155E-05</v>
+        <v>2.354871762438224E-05</v>
       </c>
       <c r="J5">
-        <v>7.877937669441858E-05</v>
+        <v>5.700018315291103E-05</v>
       </c>
       <c r="K5">
-        <v>0.0001158335891396244</v>
+        <v>9.420787915834552E-05</v>
       </c>
       <c r="L5">
-        <v>0.0001285242446071247</v>
+        <v>0.0001069511010374425</v>
       </c>
       <c r="M5">
-        <v>0.0002819794081681484</v>
+        <v>0.0002610418966436391</v>
       </c>
       <c r="N5">
-        <v>0.0002476226296097583</v>
+        <v>0.0002265428076610584</v>
       </c>
       <c r="O5">
-        <v>0.0001470507638297523</v>
+        <v>0.0001255543596087511</v>
       </c>
       <c r="P5">
-        <v>4.368591316693977E-05</v>
+        <v>2.176135775244904E-05</v>
       </c>
       <c r="Q5">
-        <v>3.717106144030284E-05</v>
+        <v>1.52195206287039E-05</v>
       </c>
       <c r="R5">
-        <v>1.746586126713274E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>3.423068856368084E-05</v>
+        <v>1.226696832988608E-05</v>
       </c>
       <c r="T5">
-        <v>8.042211662548925E-06</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>2.201432207627939E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>2.676836487679983E-06</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>4.233421422365703E-07</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>1.957443317865709E-05</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>4.6985742028479E-05</v>
+        <v>2.507485495149681E-05</v>
       </c>
       <c r="Z5">
-        <v>0.0001497740637154826</v>
+        <v>0.0001282889397709858</v>
       </c>
       <c r="AA5">
-        <v>0.0002267495904855907</v>
+        <v>0.0002055833095853665</v>
       </c>
       <c r="AB5">
-        <v>0.0001151503191682944</v>
+        <v>9.352177899036912E-05</v>
       </c>
       <c r="AC5">
-        <v>0.000144796263924351</v>
+        <v>0.0001232905212597781</v>
       </c>
       <c r="AD5">
-        <v>0.0001689234129119762</v>
+        <v>0.0001475176081621617</v>
       </c>
       <c r="AE5">
-        <v>0.0001320119244607817</v>
+        <v>0.0001104532273328278</v>
       </c>
       <c r="AF5">
-        <v>9.760826990435851E-05</v>
+        <v>7.590706818548921E-05</v>
       </c>
       <c r="AG5">
-        <v>0.0002710327586274697</v>
+        <v>0.0002500499045998222</v>
       </c>
       <c r="AH5">
-        <v>0.0002906199278055923</v>
+        <v>0.0002697182064822144</v>
       </c>
       <c r="AI5">
-        <v>0.0001058814115572176</v>
+        <v>8.42144783101728E-05</v>
       </c>
       <c r="AJ5">
-        <v>0.0001707944728334666</v>
+        <v>0.000149396418266943</v>
       </c>
       <c r="AK5">
-        <v>2.644134389052162E-05</v>
+        <v>4.445359137434962E-06</v>
       </c>
       <c r="AL5">
-        <v>9.78211158954275E-07</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>9.746758591026163E-06</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>8.68012263578219E-05</v>
+        <v>6.505526040272653E-05</v>
       </c>
       <c r="AO5">
-        <v>0.0001158335891396244</v>
+        <v>9.420787915834552E-05</v>
       </c>
       <c r="AP5">
-        <v>0.0001048498556005017</v>
+        <v>8.317864950914678E-05</v>
       </c>
       <c r="AQ5">
-        <v>0.0002101118811837087</v>
+        <v>0.0001888766846409923</v>
       </c>
       <c r="AR5">
-        <v>0.000435704261717856</v>
+        <v>0.0004154034993309333</v>
       </c>
       <c r="AS5">
-        <v>0.0003882680137082802</v>
+        <v>0.0003677707639654553</v>
       </c>
       <c r="AT5">
-        <v>0.0005073531787114685</v>
+        <v>0.0004873491958305998</v>
       </c>
       <c r="AU5">
-        <v>0.000605968074573589</v>
+        <v>0.0005863725679309045</v>
       </c>
       <c r="AV5">
-        <v>0.000131094544499275</v>
+        <v>0.0001095320474594276</v>
       </c>
       <c r="AW5">
-        <v>5.279213478484285E-05</v>
+        <v>3.090529857208158E-05</v>
       </c>
       <c r="AX5">
-        <v>7.625152680048712E-05</v>
+        <v>5.446186256277956E-05</v>
       </c>
       <c r="AY5">
-        <v>2.298710703546135E-05</v>
+        <v>9.768143660703892E-07</v>
       </c>
       <c r="AZ5">
-        <v>5.255059279497795E-06</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>1.772394325630362E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>5.110323785570894E-06</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>6.225712138769216E-05</v>
+        <v>4.040949042975772E-05</v>
       </c>
       <c r="BD5">
-        <v>3.397917157423449E-05</v>
+        <v>1.201440952304703E-05</v>
       </c>
       <c r="BE5">
-        <v>4.286294420147153E-05</v>
+        <v>2.093497993820377E-05</v>
       </c>
       <c r="BF5">
-        <v>8.077603661063877E-05</v>
+        <v>5.900511350459009E-05</v>
       </c>
       <c r="BG5">
-        <v>1.176225750645586E-05</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>8.262980253285478E-05</v>
+        <v>6.08665579760127E-05</v>
       </c>
       <c r="BI5">
-        <v>0.0001457850938828597</v>
+        <v>0.0001242834470857328</v>
       </c>
       <c r="BJ5">
-        <v>0.0001533085935671738</v>
+        <v>0.0001318381101234345</v>
       </c>
       <c r="BK5">
-        <v>0.0003094456170156667</v>
+        <v>0.0002886218742435263</v>
       </c>
       <c r="BL5">
-        <v>0.0005325580776538713</v>
+        <v>0.0005126584968738597</v>
       </c>
       <c r="BM5">
-        <v>0.0003105288869702127</v>
+        <v>0.0002897096312487567</v>
       </c>
       <c r="BN5">
-        <v>0.0002653232588670402</v>
+        <v>0.0002443167553190676</v>
       </c>
       <c r="BO5">
-        <v>0.0004288391320059167</v>
+        <v>0.000408509933323089</v>
       </c>
       <c r="BP5">
-        <v>0.0001872547321427944</v>
+        <v>0.0001659248581968903</v>
       </c>
       <c r="BQ5">
-        <v>0.0001457850938828597</v>
+        <v>0.0001242834470857328</v>
       </c>
       <c r="BR5">
-        <v>8.889646026990591E-05</v>
+        <v>6.715917305709426E-05</v>
       </c>
       <c r="BS5">
-        <v>9.183047614679466E-07</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>1.033812556621241E-05</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0001099505353864772</v>
+        <v>8.830045700075891E-05</v>
       </c>
       <c r="BV5">
-        <v>0.0002453686897043336</v>
+        <v>0.0002242795316316575</v>
       </c>
       <c r="BW5">
-        <v>0.0004529963009922823</v>
+        <v>0.0004327671645711086</v>
       </c>
       <c r="BX5">
-        <v>0.0004547440109189485</v>
+        <v>0.0004345221137487017</v>
       </c>
       <c r="BY5">
-        <v>0.0005726146759730971</v>
+        <v>0.0005528810150417336</v>
       </c>
       <c r="BZ5">
-        <v>0.0004827143097453151</v>
+        <v>0.0004626082693363172</v>
       </c>
       <c r="CA5">
-        <v>0.0003671450645945988</v>
+        <v>0.000346560320739268</v>
       </c>
       <c r="CB5">
-        <v>0.0001678854829555278</v>
+        <v>0.000146475378959434</v>
       </c>
       <c r="CC5">
-        <v>0.0001069604155119426</v>
+        <v>8.529795164523391E-05</v>
       </c>
       <c r="CD5">
-        <v>0.0002453686897043336</v>
+        <v>0.0002242795316316575</v>
       </c>
       <c r="CE5">
-        <v>0.0001607872432533698</v>
+        <v>0.000139347737388259</v>
       </c>
       <c r="CF5">
-        <v>4.643907405141718E-05</v>
+        <v>2.452592260172686E-05</v>
       </c>
       <c r="CG5">
-        <v>2.068775513194212E-05</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>3.26885656283883E-05</v>
+        <v>1.071845771279437E-05</v>
       </c>
       <c r="CI5">
-        <v>3.538862151509399E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>3.854648838258995E-05</v>
+        <v>1.660064477543838E-05</v>
       </c>
       <c r="CK5">
-        <v>5.337489476039025E-05</v>
+        <v>3.149047241827697E-05</v>
       </c>
       <c r="CL5">
-        <v>0.0001008771457671965</v>
+        <v>7.918948417432818E-05</v>
       </c>
       <c r="CM5">
-        <v>0.0001472746638203574</v>
+        <v>0.0001257791870234041</v>
       </c>
       <c r="CN5">
-        <v>0.10696310051183</v>
+        <v>0.1073840506345491</v>
       </c>
       <c r="CO5">
-        <v>0.04703556202638855</v>
+        <v>0.04720828417837195</v>
       </c>
       <c r="CP5">
-        <v>0.05186851482359793</v>
+        <v>0.05206125571981532</v>
       </c>
       <c r="CQ5">
-        <v>0.002920946877437115</v>
+        <v>0.002910940326140405</v>
       </c>
       <c r="CR5">
-        <v>0.03829097839331114</v>
+        <v>0.03842747929701658</v>
       </c>
       <c r="CS5">
-        <v>0.002785119083136447</v>
+        <v>0.002774549914742475</v>
       </c>
       <c r="CT5">
-        <v>0.01673026729799824</v>
+        <v>0.01677746081985436</v>
       </c>
       <c r="CU5">
-        <v>0.02893992878568104</v>
+        <v>0.02903769637700597</v>
       </c>
       <c r="CV5">
-        <v>0.01410949840796567</v>
+        <v>0.01414583635057087</v>
       </c>
       <c r="CW5">
-        <v>0.0002775200583552627</v>
+        <v>0.0002565640756006173</v>
       </c>
       <c r="CX5">
-        <v>0.008847252128769438</v>
+        <v>0.008861793135468227</v>
       </c>
       <c r="CY5">
-        <v>2.163109709235951E-05</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.008452252145343632</v>
+        <v>0.008465157008679879</v>
       </c>
       <c r="DA5">
-        <v>0.0001861338321898273</v>
+        <v>0.0001647993153246952</v>
       </c>
       <c r="DB5">
-        <v>0.0005055070787889309</v>
+        <v>0.0004854954491124632</v>
       </c>
       <c r="DC5">
-        <v>0.001326293544348744</v>
+        <v>0.001309681723239464</v>
       </c>
       <c r="DD5">
-        <v>0.001730296227396797</v>
+        <v>0.00171535784004968</v>
       </c>
       <c r="DE5">
-        <v>0.006140161742358909</v>
+        <v>0.00614348961449219</v>
       </c>
       <c r="DF5">
-        <v>0.002479061195978631</v>
+        <v>0.002467224294415953</v>
       </c>
       <c r="DG5">
-        <v>0.005436762771873519</v>
+        <v>0.00543717707032308</v>
       </c>
       <c r="DH5">
-        <v>0.001104177353668735</v>
+        <v>0.001086645497252258</v>
       </c>
       <c r="DI5">
-        <v>6.538628725639241E-05</v>
+        <v>4.355161772676478E-05</v>
       </c>
       <c r="DJ5">
-        <v>0.001054389155757848</v>
+        <v>0.001036651069890831</v>
       </c>
       <c r="DK5">
-        <v>0.001689673729101317</v>
+        <v>0.001674567077871301</v>
       </c>
       <c r="DL5">
-        <v>0.006874598711541946</v>
+        <v>0.006880968720948025</v>
       </c>
       <c r="DM5">
-        <v>0.004107009427669949</v>
+        <v>0.004101915707893618</v>
       </c>
       <c r="DN5">
-        <v>0.0005889244752887382</v>
+        <v>0.0005692583717523478</v>
       </c>
       <c r="DO5">
-        <v>3.98303223287203E-05</v>
+        <v>1.788979653543634E-05</v>
       </c>
       <c r="DP5">
-        <v>0.0003462311454721465</v>
+        <v>0.0003255597733348088</v>
       </c>
       <c r="DQ5">
-        <v>0.001119976253005814</v>
+        <v>0.001102509837767489</v>
       </c>
       <c r="DR5">
-        <v>0.005868584753754276</v>
+        <v>0.00587078771726485</v>
       </c>
       <c r="DS5">
-        <v>0.009338072608174619</v>
+        <v>0.009354646659691825</v>
       </c>
       <c r="DT5">
-        <v>0.004054603829868887</v>
+        <v>0.004049293039017619</v>
       </c>
       <c r="DU5">
-        <v>0.0001833740723056268</v>
+        <v>0.0001620281241417448</v>
       </c>
       <c r="DV5">
-        <v>0.0001861618321886524</v>
+        <v>0.000164827431303303</v>
       </c>
       <c r="DW5">
-        <v>0.0001218472988872893</v>
+        <v>0.0001002464985052528</v>
       </c>
       <c r="DX5">
-        <v>0.01777782625404269</v>
+        <v>0.01782935890679683</v>
       </c>
       <c r="DY5">
-        <v>0.01829286023243187</v>
+        <v>0.01834652622559255</v>
       </c>
       <c r="DZ5">
-        <v>0.01638955231229464</v>
+        <v>0.01643533454659185</v>
       </c>
       <c r="EA5">
-        <v>0.02446608097340363</v>
+        <v>0.02454531728191786</v>
       </c>
       <c r="EB5">
-        <v>0.009882676585323043</v>
+        <v>0.00990150646018155</v>
       </c>
       <c r="EC5">
-        <v>7.534090683869673E-05</v>
+        <v>5.354747068992892E-05</v>
       </c>
       <c r="ED5">
-        <v>8.814391630148265E-05</v>
+        <v>6.640351194975803E-05</v>
       </c>
       <c r="EE5">
-        <v>0.0009098729018217472</v>
+        <v>0.0008915362100823803</v>
       </c>
       <c r="EF5">
-        <v>0.003239665864063671</v>
+        <v>0.003230979489922319</v>
       </c>
       <c r="EG5">
-        <v>0.01319659844627094</v>
+        <v>0.01322915503374788</v>
       </c>
       <c r="EH5">
-        <v>0.007401257689443343</v>
+        <v>0.007409809191576443</v>
       </c>
       <c r="EI5">
-        <v>0.01308609845090751</v>
+        <v>0.01311819733245645</v>
       </c>
       <c r="EJ5">
-        <v>0.02518700494315367</v>
+        <v>0.02526922741626917</v>
       </c>
       <c r="EK5">
-        <v>0.02469791896367571</v>
+        <v>0.02477811557650611</v>
       </c>
       <c r="EL5">
-        <v>0.002300726903461535</v>
+        <v>0.002288151317136178</v>
       </c>
       <c r="EM5">
-        <v>0.002869083179613314</v>
+        <v>0.002858861801864676</v>
       </c>
       <c r="EN5">
-        <v>0.01542738335266724</v>
+        <v>0.01546918015298218</v>
       </c>
       <c r="EO5">
-        <v>0.02527463693947663</v>
+        <v>0.02535722239617478</v>
       </c>
       <c r="EP5">
-        <v>0.02148336909855817</v>
+        <v>0.0215502506110188</v>
       </c>
       <c r="EQ5">
-        <v>0.0131516374481575</v>
+        <v>0.01318400780109843</v>
       </c>
       <c r="ER5">
-        <v>0.009585241597803412</v>
+        <v>0.009602839456709925</v>
       </c>
       <c r="ES5">
-        <v>0.0104513075614633</v>
+        <v>0.01047249278274303</v>
       </c>
       <c r="ET5">
-        <v>0.005246407179860837</v>
+        <v>0.005246032999699101</v>
       </c>
       <c r="EU5">
-        <v>0.001230973248348382</v>
+        <v>0.001213966597679202</v>
       </c>
       <c r="EV5">
-        <v>0.00196202791767334</v>
+        <v>0.001948049394333426</v>
       </c>
       <c r="EW5">
-        <v>0.02321253802600227</v>
+        <v>0.02328658199006306</v>
       </c>
       <c r="EX5">
-        <v>0.04729880801534275</v>
+        <v>0.04747262056782137</v>
       </c>
       <c r="EY5">
-        <v>0.04622997106019114</v>
+        <v>0.04639935634542118</v>
       </c>
       <c r="EZ5">
-        <v>0.03098444369989323</v>
+        <v>0.031090679948552</v>
       </c>
       <c r="FA5">
-        <v>0.01302283045356224</v>
+        <v>0.01305466727050798</v>
       </c>
       <c r="FB5">
-        <v>0.001901634520207445</v>
+        <v>0.001887405839245883</v>
       </c>
       <c r="FC5">
-        <v>0.00158259043359453</v>
+        <v>0.001567040228869491</v>
       </c>
       <c r="FD5">
-        <v>0.006661842720469183</v>
+        <v>0.006667331465780981</v>
       </c>
       <c r="FE5">
-        <v>0.008214487655320226</v>
+        <v>0.008226407665976668</v>
       </c>
       <c r="FF5">
-        <v>0.01230034848387757</v>
+        <v>0.01232919268277558</v>
       </c>
       <c r="FG5">
-        <v>0.01302493745347383</v>
+        <v>0.01305678299789822</v>
       </c>
       <c r="FH5">
-        <v>0.01413606640685088</v>
+        <v>0.01417251439770129</v>
       </c>
       <c r="FI5">
-        <v>0.01113517353276829</v>
+        <v>0.01115919141940694</v>
       </c>
       <c r="FJ5">
-        <v>0.01118500453067738</v>
+        <v>0.01120922882404995</v>
       </c>
       <c r="FK5">
-        <v>0.003697065044871209</v>
+        <v>0.003690273280008621</v>
       </c>
       <c r="FL5">
-        <v>0.001984713716721444</v>
+        <v>0.001970829161029869</v>
       </c>
       <c r="FM5">
-        <v>9.280589610586604E-05</v>
+        <v>7.108480230511182E-05</v>
       </c>
       <c r="FN5">
-        <v>0.001603956732698</v>
+        <v>0.001588495030074043</v>
       </c>
       <c r="FO5">
-        <v>0.00437951021623582</v>
+        <v>0.004375545231586596</v>
       </c>
       <c r="FP5">
-        <v>0.009349967607675506</v>
+        <v>0.009366590929889668</v>
       </c>
       <c r="FQ5">
-        <v>0.01269722946722445</v>
+        <v>0.01272771760084112</v>
       </c>
       <c r="FR5">
-        <v>0.008244441654063357</v>
+        <v>0.008256485738234436</v>
       </c>
       <c r="FS5">
-        <v>0.004684596803434392</v>
+        <v>0.004681895528698056</v>
       </c>
       <c r="FT5">
-        <v>0.00273029988543666</v>
+        <v>0.002719503648510485</v>
       </c>
       <c r="FU5">
-        <v>0.0001271329746655024</v>
+        <v>0.0001055540682675265</v>
       </c>
       <c r="FV5">
-        <v>2.337219601930302E-05</v>
+        <v>1.363498440573679E-06</v>
       </c>
       <c r="FW5">
-        <v>0.0002609981590485213</v>
+        <v>0.0002399737403520492</v>
       </c>
       <c r="FX5">
-        <v>0.000702911270505854</v>
+        <v>0.0006837173156941153</v>
       </c>
       <c r="FY5">
-        <v>0.001079106054720727</v>
+        <v>0.001061470349592641</v>
       </c>
       <c r="FZ5">
-        <v>0.0005264230779112958</v>
+        <v>0.0005064980851324761</v>
       </c>
       <c r="GA5">
-        <v>0.0006527285126115218</v>
+        <v>0.0006333266940284209</v>
       </c>
       <c r="GB5">
-        <v>4.113518527396827E-05</v>
+        <v>1.920006439951083E-05</v>
       </c>
       <c r="GC5">
-        <v>8.450460645418803E-05</v>
+        <v>6.274912758879068E-05</v>
       </c>
       <c r="GD5">
-        <v>0.0004012664231628671</v>
+        <v>0.0003808230145902829</v>
       </c>
       <c r="GE5">
-        <v>6.992346306601258E-05</v>
+        <v>4.810758713232694E-05</v>
       </c>
       <c r="GF5">
-        <v>0.0002193982907940512</v>
+        <v>0.0001982015598161027</v>
       </c>
       <c r="GG5">
-        <v>0.000178929952492102</v>
+        <v>0.0001575655961828014</v>
       </c>
       <c r="GH5">
-        <v>3.350858859398015E-07</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.0001889706120707961</v>
+        <v>0.0001676478455316589</v>
       </c>
       <c r="GJ5">
-        <v>5.219034781009382E-07</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.00104973275595323</v>
+        <v>0.001031975382648357</v>
       </c>
       <c r="GL5">
-        <v>0.004628616205783336</v>
+        <v>0.004625683051839098</v>
       </c>
       <c r="GM5">
-        <v>0.004807515798276713</v>
+        <v>0.004805323670644125</v>
       </c>
       <c r="GN5">
-        <v>0.002603217190769047</v>
+        <v>0.00259189456013123</v>
       </c>
       <c r="GO5">
-        <v>9.689216593440623E-06</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.0009978300581310663</v>
+        <v>0.0009798576968309957</v>
       </c>
       <c r="GQ5">
-        <v>0.006961425007898716</v>
+        <v>0.006968154663569198</v>
       </c>
       <c r="GR5">
-        <v>0.004817333797864749</v>
+        <v>0.004815182337714523</v>
       </c>
       <c r="GS5">
-        <v>0.0006064225245545203</v>
+        <v>0.0005868289003051297</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001680010989463509</v>
+        <v>0.0001547099719831911</v>
       </c>
       <c r="C6">
-        <v>0.0001290064991909125</v>
+        <v>0.0001156143667761979</v>
       </c>
       <c r="D6">
-        <v>0.0001074265693262549</v>
+        <v>9.397853967002036E-05</v>
       </c>
       <c r="E6">
-        <v>0.0001323936691696693</v>
+        <v>0.0001190103103450246</v>
       </c>
       <c r="F6">
-        <v>4.483616971880189E-05</v>
+        <v>3.122601577830739E-05</v>
       </c>
       <c r="G6">
-        <v>8.362525947552913E-05</v>
+        <v>7.011557866595158E-05</v>
       </c>
       <c r="H6">
-        <v>1.116226592999384E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2.056485987102378E-05</v>
+        <v>6.891837363435918E-06</v>
       </c>
       <c r="J6">
-        <v>3.464832778269677E-06</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>3.600806677416893E-05</v>
+        <v>2.237504591030842E-05</v>
       </c>
       <c r="L6">
-        <v>1.369082791413551E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.706915939121328E-05</v>
+        <v>8.359430153635662E-05</v>
       </c>
       <c r="N6">
-        <v>0.0001399607691222108</v>
+        <v>0.0001265970109179716</v>
       </c>
       <c r="O6">
-        <v>0.0001385211791312395</v>
+        <v>0.0001251536920404877</v>
       </c>
       <c r="P6">
-        <v>7.694449951742871E-05</v>
+        <v>6.341751392255961E-05</v>
       </c>
       <c r="Q6">
-        <v>0.0001212501092395581</v>
+        <v>0.0001078378858975257</v>
       </c>
       <c r="R6">
-        <v>3.126042780394459E-05</v>
+        <v>1.761510940604054E-05</v>
       </c>
       <c r="S6">
-        <v>3.194625979964328E-05</v>
+        <v>1.830271787260573E-05</v>
       </c>
       <c r="T6">
-        <v>7.331914954016575E-05</v>
+        <v>5.978277341138184E-05</v>
       </c>
       <c r="U6">
-        <v>7.894476950488366E-05</v>
+        <v>6.542296509342411E-05</v>
       </c>
       <c r="V6">
-        <v>1.140875392844795E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>8.365872947531921E-05</v>
+        <v>7.014913536114214E-05</v>
       </c>
       <c r="X6">
-        <v>0.000102288853358477</v>
+        <v>8.882751577436165E-05</v>
       </c>
       <c r="Y6">
-        <v>3.019173181064712E-06</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>3.979941375039081E-07</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>5.375092966289137E-08</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>3.630044677233521E-05</v>
+        <v>2.266818324343712E-05</v>
       </c>
       <c r="AC6">
-        <v>2.74649698277485E-05</v>
+        <v>1.380982027503974E-05</v>
       </c>
       <c r="AD6">
-        <v>2.63832338345328E-06</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>4.761138370139664E-06</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>2.13628078660193E-05</v>
+        <v>7.691852236872491E-06</v>
       </c>
       <c r="AG6">
-        <v>1.955022687738723E-05</v>
+        <v>5.874576224765762E-06</v>
       </c>
       <c r="AH6">
-        <v>2.593417783734913E-05</v>
+        <v>1.227506316287488E-05</v>
       </c>
       <c r="AI6">
-        <v>8.29889594795198E-05</v>
+        <v>6.947763049894359E-05</v>
       </c>
       <c r="AJ6">
-        <v>6.266267960699972E-05</v>
+        <v>4.909870064181458E-05</v>
       </c>
       <c r="AK6">
-        <v>4.756046470171598E-05</v>
+        <v>3.395736734461108E-05</v>
       </c>
       <c r="AL6">
-        <v>8.251332948250279E-05</v>
+        <v>6.900076850511361E-05</v>
       </c>
       <c r="AM6">
-        <v>6.744121957703024E-05</v>
+        <v>5.388961818695738E-05</v>
       </c>
       <c r="AN6">
-        <v>4.720056670397315E-05</v>
+        <v>3.359653712394497E-05</v>
       </c>
       <c r="AO6">
-        <v>5.912696662917458E-05</v>
+        <v>4.555382931159876E-05</v>
       </c>
       <c r="AP6">
-        <v>4.333189572823621E-05</v>
+        <v>2.971784535401417E-05</v>
       </c>
       <c r="AQ6">
-        <v>2.93220958161012E-05</v>
+        <v>1.567175666919796E-05</v>
       </c>
       <c r="AR6">
-        <v>1.852786788379914E-07</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>7.242647554576431E-05</v>
+        <v>5.888778717527356E-05</v>
       </c>
       <c r="AT6">
-        <v>0.06433778959649397</v>
+        <v>0.06449071375328876</v>
       </c>
       <c r="AU6">
-        <v>0.0005558891965136408</v>
+        <v>0.0005436027936069729</v>
       </c>
       <c r="AV6">
-        <v>0.08140159348947525</v>
+        <v>0.08159871702844768</v>
       </c>
       <c r="AW6">
-        <v>0.005239702767138261</v>
+        <v>0.005239548575041986</v>
       </c>
       <c r="AX6">
-        <v>0.02236793685971546</v>
+        <v>0.02241214893960836</v>
       </c>
       <c r="AY6">
-        <v>0.01133897592888557</v>
+        <v>0.01135462033053619</v>
       </c>
       <c r="AZ6">
-        <v>0.004858085969531639</v>
+        <v>0.004856943297563666</v>
       </c>
       <c r="BA6">
-        <v>0.03351227178982175</v>
+        <v>0.03358535039453999</v>
       </c>
       <c r="BB6">
-        <v>0.0184646378841957</v>
+        <v>0.01849873947499399</v>
       </c>
       <c r="BC6">
-        <v>0.00130305429182766</v>
+        <v>0.001292703227360458</v>
       </c>
       <c r="BD6">
-        <v>0.003145899580269924</v>
+        <v>0.003140321931139007</v>
       </c>
       <c r="BE6">
-        <v>0.005456093665781126</v>
+        <v>0.005456499978487231</v>
       </c>
       <c r="BF6">
-        <v>0.008432247947115638</v>
+        <v>0.008440363219753852</v>
       </c>
       <c r="BG6">
-        <v>0.001941679487822407</v>
+        <v>0.001932982617184615</v>
       </c>
       <c r="BH6">
-        <v>0.0001875124988239816</v>
+        <v>0.0001742719111090118</v>
       </c>
       <c r="BI6">
-        <v>2.056485987102378E-05</v>
+        <v>6.891837363435918E-06</v>
       </c>
       <c r="BJ6">
-        <v>0.00346875467824508</v>
+        <v>0.003464013301961232</v>
       </c>
       <c r="BK6">
-        <v>0.004058505374546353</v>
+        <v>0.004055291595308205</v>
       </c>
       <c r="BL6">
-        <v>0.002998314781195529</v>
+        <v>0.002992354851713829</v>
       </c>
       <c r="BM6">
-        <v>0.005483433565609658</v>
+        <v>0.005483910695273624</v>
       </c>
       <c r="BN6">
-        <v>0.002727035682896904</v>
+        <v>0.002720373074890668</v>
       </c>
       <c r="BO6">
-        <v>5.375092966289137E-08</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.00132834099166907</v>
+        <v>0.001318055425874808</v>
       </c>
       <c r="BQ6">
-        <v>0.001008580093674508</v>
+        <v>0.000997466269760042</v>
       </c>
       <c r="BR6">
-        <v>0.003787594576245419</v>
+        <v>0.003783679072468872</v>
       </c>
       <c r="BS6">
-        <v>0.005290019966822688</v>
+        <v>0.005289996108452288</v>
       </c>
       <c r="BT6">
-        <v>0.00134554689156116</v>
+        <v>0.001335305893212106</v>
       </c>
       <c r="BU6">
-        <v>0.0003392400678723948</v>
+        <v>0.0003263924912851499</v>
       </c>
       <c r="BV6">
-        <v>6.403799459837419E-06</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.001307461991800017</v>
+        <v>0.001297122344342575</v>
       </c>
       <c r="BX6">
-        <v>0.001870002188271945</v>
+        <v>0.001861119656079662</v>
       </c>
       <c r="BY6">
-        <v>0.01005397893694466</v>
+        <v>0.01006629488536761</v>
       </c>
       <c r="BZ6">
-        <v>0.004976632468788153</v>
+        <v>0.004975796860946053</v>
       </c>
       <c r="CA6">
-        <v>0.0007579967452460869</v>
+        <v>0.0007462338498084122</v>
       </c>
       <c r="CB6">
-        <v>7.224711954688918E-05</v>
+        <v>5.870796660095031E-05</v>
       </c>
       <c r="CC6">
-        <v>0.0005099489368017634</v>
+        <v>0.0004975435375031374</v>
       </c>
       <c r="CD6">
-        <v>0.008518890946572242</v>
+        <v>0.008527230645549977</v>
       </c>
       <c r="CE6">
-        <v>0.02009339587398065</v>
+        <v>0.02013171634219436</v>
       </c>
       <c r="CF6">
-        <v>0.01060160093351015</v>
+        <v>0.01061533535544973</v>
       </c>
       <c r="CG6">
-        <v>0.02321247585441878</v>
+        <v>0.02325887549471878</v>
       </c>
       <c r="CH6">
-        <v>0.0185694898835381</v>
+        <v>0.01860386306639289</v>
       </c>
       <c r="CI6">
-        <v>0.001504172190566313</v>
+        <v>0.001494342070135087</v>
       </c>
       <c r="CJ6">
-        <v>1.658928189595733E-05</v>
+        <v>2.905961679171743E-06</v>
       </c>
       <c r="CK6">
-        <v>0.000257485868385131</v>
+        <v>0.000244426528633563</v>
       </c>
       <c r="CL6">
-        <v>0.003072045480733114</v>
+        <v>0.003066276531608873</v>
       </c>
       <c r="CM6">
-        <v>0.009902516937894582</v>
+        <v>0.009914440563080384</v>
       </c>
       <c r="CN6">
-        <v>0.007384755953685173</v>
+        <v>0.007390157968527175</v>
       </c>
       <c r="CO6">
-        <v>0.009805633938502202</v>
+        <v>0.009817306613270177</v>
       </c>
       <c r="CP6">
-        <v>0.0199596918748192</v>
+        <v>0.01999766601731359</v>
       </c>
       <c r="CQ6">
-        <v>0.03016718781080105</v>
+        <v>0.03023160183837504</v>
       </c>
       <c r="CR6">
-        <v>0.01106008493063469</v>
+        <v>0.01107500693709752</v>
       </c>
       <c r="CS6">
-        <v>2.63832338345328E-06</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.009136130942701111</v>
+        <v>0.009146069442664566</v>
       </c>
       <c r="CU6">
-        <v>0.01872895488253799</v>
+        <v>0.01876374111833683</v>
       </c>
       <c r="CV6">
-        <v>0.023000534855748</v>
+        <v>0.0230463855175636</v>
       </c>
       <c r="CW6">
-        <v>0.01313660191761144</v>
+        <v>0.01315690260566727</v>
       </c>
       <c r="CX6">
-        <v>0.009766342938748621</v>
+        <v>0.009777913840317306</v>
       </c>
       <c r="CY6">
-        <v>0.01177740692613587</v>
+        <v>0.01179418697018648</v>
       </c>
       <c r="CZ6">
-        <v>0.007048997555790942</v>
+        <v>0.007053529875115992</v>
       </c>
       <c r="DA6">
-        <v>0.003506838278006232</v>
+        <v>0.003502195547463457</v>
       </c>
       <c r="DB6">
-        <v>3.598610977430663E-05</v>
+        <v>2.235303203650205E-05</v>
       </c>
       <c r="DC6">
-        <v>0.01050275593413007</v>
+        <v>0.01051623432359698</v>
       </c>
       <c r="DD6">
-        <v>0.03792731976213198</v>
+        <v>0.03801183440970941</v>
       </c>
       <c r="DE6">
-        <v>0.0449602977180234</v>
+        <v>0.04506302948075691</v>
       </c>
       <c r="DF6">
-        <v>0.03240174979678659</v>
+        <v>0.03247195188075396</v>
       </c>
       <c r="DG6">
-        <v>0.01750410989021982</v>
+        <v>0.01753572348102911</v>
       </c>
       <c r="DH6">
-        <v>0.00567845296438656</v>
+        <v>0.00567943524149553</v>
       </c>
       <c r="DI6">
-        <v>3.600806677416893E-05</v>
+        <v>2.237504591030842E-05</v>
       </c>
       <c r="DJ6">
-        <v>0.003586759577504991</v>
+        <v>0.003582323862471937</v>
       </c>
       <c r="DK6">
-        <v>0.006591357758661113</v>
+        <v>0.006594704680145218</v>
       </c>
       <c r="DL6">
-        <v>0.00668222695809121</v>
+        <v>0.00668580925279567</v>
       </c>
       <c r="DM6">
-        <v>0.0125168539214983</v>
+        <v>0.01253554931224142</v>
       </c>
       <c r="DN6">
-        <v>0.01139472042853596</v>
+        <v>0.01141050922193298</v>
       </c>
       <c r="DO6">
-        <v>0.01232262492271644</v>
+        <v>0.01234081721334186</v>
       </c>
       <c r="DP6">
-        <v>0.01175849992625445</v>
+        <v>0.01177523099659915</v>
       </c>
       <c r="DQ6">
-        <v>0.006845628957066405</v>
+        <v>0.006849634502497759</v>
       </c>
       <c r="DR6">
-        <v>0.002345496785289795</v>
+        <v>0.002337845899191713</v>
       </c>
       <c r="DS6">
-        <v>0.001014794193635535</v>
+        <v>0.001003696465744018</v>
       </c>
       <c r="DT6">
-        <v>0.0001709506289278524</v>
+        <v>0.0001576671419612441</v>
       </c>
       <c r="DU6">
-        <v>0.002351231385253829</v>
+        <v>0.002343595353157647</v>
       </c>
       <c r="DV6">
-        <v>0.005371458366311932</v>
+        <v>0.005371645453107425</v>
       </c>
       <c r="DW6">
-        <v>0.01183950592574641</v>
+        <v>0.01185644682123635</v>
       </c>
       <c r="DX6">
-        <v>0.01057611393367</v>
+        <v>0.01058978233811116</v>
       </c>
       <c r="DY6">
-        <v>0.005850469663307726</v>
+        <v>0.005851897505301538</v>
       </c>
       <c r="DZ6">
-        <v>0.003000978081178826</v>
+        <v>0.002995025050288703</v>
       </c>
       <c r="EA6">
-        <v>0.000426678657324008</v>
+        <v>0.0004140575678469341</v>
       </c>
       <c r="EB6">
-        <v>6.104664461713498E-05</v>
+        <v>4.747847973018365E-05</v>
       </c>
       <c r="EC6">
-        <v>0.0003379572278804404</v>
+        <v>0.0003251063284271198</v>
       </c>
       <c r="ED6">
-        <v>0.0005315075966665543</v>
+        <v>0.0005191580395150005</v>
       </c>
       <c r="EE6">
-        <v>0.001061398893343246</v>
+        <v>0.001050421882904096</v>
       </c>
       <c r="EF6">
-        <v>0.000674181555771749</v>
+        <v>0.0006622015587068462</v>
       </c>
       <c r="EG6">
-        <v>0.0007248787954537921</v>
+        <v>0.0007130301165103418</v>
       </c>
       <c r="EH6">
-        <v>5.051486668318692E-05</v>
+        <v>3.691942194229258E-05</v>
       </c>
       <c r="EI6">
-        <v>4.650982370830526E-05</v>
+        <v>3.290400493673202E-05</v>
       </c>
       <c r="EJ6">
-        <v>0.0002429340184763956</v>
+        <v>0.0002298369859114583</v>
       </c>
       <c r="EK6">
-        <v>0.0001278628791980849</v>
+        <v>0.000114467784530789</v>
       </c>
       <c r="EL6">
-        <v>0.000174204048907448</v>
+        <v>0.0001609289890860392</v>
       </c>
       <c r="EM6">
-        <v>4.456291972051562E-07</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>6.536794959003313E-06</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.0008286678948028601</v>
+        <v>0.0008170880547476655</v>
       </c>
       <c r="EP6">
-        <v>6.228597560936228E-06</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.0009680371939287804</v>
+        <v>0.0009568183540910361</v>
       </c>
       <c r="ER6">
-        <v>0.004117329974177423</v>
+        <v>0.004114268564890129</v>
       </c>
       <c r="ES6">
-        <v>0.005873153963165458</v>
+        <v>0.005874640562986372</v>
       </c>
       <c r="ET6">
-        <v>0.003186106180017761</v>
+        <v>0.00318063267571173</v>
       </c>
       <c r="EU6">
-        <v>0.0004039492974665593</v>
+        <v>0.000391269333446078</v>
       </c>
       <c r="EV6">
-        <v>0.0003306282679264053</v>
+        <v>0.0003177583846929145</v>
       </c>
       <c r="EW6">
-        <v>0.004406525972363679</v>
+        <v>0.004404213650708208</v>
       </c>
       <c r="EX6">
-        <v>0.005410117566069473</v>
+        <v>0.005410404789549347</v>
       </c>
       <c r="EY6">
-        <v>0.001797766088724986</v>
+        <v>0.001788696447550971</v>
       </c>
       <c r="EZ6">
-        <v>0.0003221271579797215</v>
+        <v>0.0003092352548138743</v>
       </c>
       <c r="FA6">
-        <v>0.001834904288492067</v>
+        <v>0.001825930844244317</v>
       </c>
       <c r="FB6">
-        <v>0.002218131986088586</v>
+        <v>0.002210151194333408</v>
       </c>
       <c r="FC6">
-        <v>0.004614866271057035</v>
+        <v>0.00461309360120152</v>
       </c>
       <c r="FD6">
-        <v>0.002440123784696324</v>
+        <v>0.002432718005430067</v>
       </c>
       <c r="FE6">
-        <v>0.00100151319371883</v>
+        <v>0.0009903810648230172</v>
       </c>
       <c r="FF6">
-        <v>0.0004971254368821884</v>
+        <v>0.0004846868216149919</v>
       </c>
       <c r="FG6">
-        <v>6.844682957072338E-05</v>
+        <v>5.489783295393036E-05</v>
       </c>
       <c r="FH6">
-        <v>0.001483821390693947</v>
+        <v>0.001473938556765377</v>
       </c>
       <c r="FI6">
-        <v>0.004988934968710996</v>
+        <v>0.004988131227321372</v>
       </c>
       <c r="FJ6">
-        <v>0.006916162956624039</v>
+        <v>0.00692035120218618</v>
       </c>
       <c r="FK6">
-        <v>0.008414314947228109</v>
+        <v>0.008422383769056142</v>
       </c>
       <c r="FL6">
-        <v>0.006258605460748029</v>
+        <v>0.006261090473241724</v>
       </c>
       <c r="FM6">
-        <v>0.002745076482783759</v>
+        <v>0.002738460604815794</v>
       </c>
       <c r="FN6">
-        <v>0.0005431384965936092</v>
+        <v>0.0005308190662879902</v>
       </c>
       <c r="FO6">
-        <v>0.0001147736992801761</v>
+        <v>0.0001013447004688093</v>
       </c>
       <c r="FP6">
-        <v>0.0002165287686420008</v>
+        <v>0.0002033633400889096</v>
       </c>
       <c r="FQ6">
-        <v>0.0001835268488489783</v>
+        <v>0.0001702759373358932</v>
       </c>
       <c r="FR6">
-        <v>0.0006620185358480315</v>
+        <v>0.0006500070336176091</v>
       </c>
       <c r="FS6">
-        <v>0.002871798081989001</v>
+        <v>0.002865510443634464</v>
       </c>
       <c r="FT6">
-        <v>0.00455115357145662</v>
+        <v>0.004549215870288224</v>
       </c>
       <c r="FU6">
-        <v>0.001607970689915322</v>
+        <v>0.001598409432720626</v>
       </c>
       <c r="FV6">
-        <v>0.001797766088724986</v>
+        <v>0.001788696447550971</v>
       </c>
       <c r="FW6">
-        <v>0.0005977402962511642</v>
+        <v>0.0005855622978223873</v>
       </c>
       <c r="FX6">
-        <v>6.241595960854707E-05</v>
+        <v>4.885134157885024E-05</v>
       </c>
       <c r="FY6">
-        <v>0.0004210130673595408</v>
+        <v>0.0004083773026331689</v>
       </c>
       <c r="FZ6">
-        <v>7.331914954016575E-05</v>
+        <v>5.978277341138184E-05</v>
       </c>
       <c r="GA6">
-        <v>5.039275468395276E-06</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.0001695861289364101</v>
+        <v>0.0001562991075845626</v>
       </c>
       <c r="GC6">
-        <v>0.001382233991331071</v>
+        <v>0.001372088021450105</v>
       </c>
       <c r="GD6">
-        <v>0.002148740486523787</v>
+        <v>0.002140579953989333</v>
       </c>
       <c r="GE6">
-        <v>0.007961740950066508</v>
+        <v>0.007968637495701631</v>
       </c>
       <c r="GF6">
-        <v>0.004801159669888663</v>
+        <v>0.004799869545026268</v>
       </c>
       <c r="GG6">
-        <v>0.001512829990512014</v>
+        <v>0.001503022295878166</v>
       </c>
       <c r="GH6">
-        <v>0.0004252398773330315</v>
+        <v>0.0004126150610675411</v>
       </c>
       <c r="GI6">
-        <v>0.0008678572945570767</v>
+        <v>0.0008563789645325829</v>
       </c>
       <c r="GJ6">
-        <v>0.003853533375831871</v>
+        <v>0.003849788669505971</v>
       </c>
       <c r="GK6">
-        <v>0.005706343964211637</v>
+        <v>0.005707398485760845</v>
       </c>
       <c r="GL6">
-        <v>0.007562862952568143</v>
+        <v>0.007568726307645975</v>
       </c>
       <c r="GM6">
-        <v>0.008030642949634377</v>
+        <v>0.008037717968125307</v>
       </c>
       <c r="GN6">
-        <v>0.004036329674685432</v>
+        <v>0.004033058455017276</v>
       </c>
       <c r="GO6">
-        <v>0.0003221271579797215</v>
+        <v>0.0003092352548138743</v>
       </c>
       <c r="GP6">
-        <v>0.0001212098192398108</v>
+        <v>0.0001077974915369273</v>
       </c>
       <c r="GQ6">
-        <v>0.001777714888850741</v>
+        <v>0.001768593310215892</v>
       </c>
       <c r="GR6">
-        <v>0.004192598573705363</v>
+        <v>0.004189732128308734</v>
       </c>
       <c r="GS6">
-        <v>0.005895881963022914</v>
+        <v>0.005897427433864507</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001214735301153442</v>
+        <v>0.0001024803900701393</v>
       </c>
       <c r="C2">
-        <v>0.0002343157057961599</v>
+        <v>0.0001962971447469276</v>
       </c>
       <c r="D2">
-        <v>0.0004404675461744657</v>
+        <v>0.0003837725389509028</v>
       </c>
       <c r="E2">
-        <v>0.0007502777217712451</v>
+        <v>0.0006752939468629999</v>
       </c>
       <c r="F2">
-        <v>0.001066201007675777</v>
+        <v>0.0009729513278981374</v>
       </c>
       <c r="G2">
-        <v>0.001414577545214103</v>
+        <v>0.001303183334574775</v>
       </c>
       <c r="H2">
-        <v>0.001669079638026507</v>
+        <v>0.001539189809438559</v>
       </c>
       <c r="I2">
-        <v>0.001875231478404813</v>
+        <v>0.001726665203642535</v>
       </c>
       <c r="J2">
-        <v>0.002011797385279953</v>
+        <v>0.001844294415425161</v>
       </c>
       <c r="K2">
-        <v>0.002063539290884796</v>
+        <v>0.001876782387187427</v>
       </c>
       <c r="L2">
-        <v>0.002082914275860191</v>
+        <v>0.001876782387187427</v>
       </c>
       <c r="M2">
-        <v>0.002092272565331316</v>
+        <v>0.001876782387187427</v>
       </c>
       <c r="N2">
-        <v>0.00209243016533925</v>
+        <v>0.001876782387187427</v>
       </c>
       <c r="O2">
-        <v>0.002113689617409515</v>
+        <v>0.001878673902122257</v>
       </c>
       <c r="P2">
-        <v>0.00229140133635606</v>
+        <v>0.002037602809851092</v>
       </c>
       <c r="Q2">
-        <v>0.002651148124466799</v>
+        <v>0.002379247591433179</v>
       </c>
       <c r="R2">
-        <v>0.003106249517377977</v>
+        <v>0.002816603600648708</v>
       </c>
       <c r="S2">
-        <v>0.003596016142034307</v>
+        <v>0.003288754488344097</v>
       </c>
       <c r="T2">
-        <v>0.004013911513072421</v>
+        <v>0.003688765326487078</v>
       </c>
       <c r="U2">
-        <v>0.004482150866645003</v>
+        <v>0.004139308431869956</v>
       </c>
       <c r="V2">
-        <v>0.004892472227301819</v>
+        <v>0.004531716933101997</v>
       </c>
       <c r="W2">
-        <v>0.005227448364165528</v>
+        <v>0.004848498422081751</v>
       </c>
       <c r="X2">
-        <v>0.005496021257686299</v>
+        <v>0.005098628321948468</v>
       </c>
       <c r="Y2">
-        <v>0.005810401223513135</v>
+        <v>0.00539473661094367</v>
       </c>
       <c r="Z2">
-        <v>0.005986698132388453</v>
+        <v>0.005552245417261895</v>
       </c>
       <c r="AA2">
-        <v>0.006073742026770505</v>
+        <v>0.005620167405984746</v>
       </c>
       <c r="AB2">
-        <v>0.006126007313401697</v>
+        <v>0.005653180716199798</v>
       </c>
       <c r="AC2">
-        <v>0.00613153463807996</v>
+        <v>0.005653180716199798</v>
       </c>
       <c r="AD2">
-        <v>0.006133959039302011</v>
+        <v>0.005653180716199798</v>
       </c>
       <c r="AE2">
-        <v>0.006197175412484514</v>
+        <v>0.005697186069640656</v>
       </c>
       <c r="AF2">
-        <v>0.006390553222219736</v>
+        <v>0.005871839658780938</v>
       </c>
       <c r="AG2">
-        <v>0.006725660769090061</v>
+        <v>0.006188753049236063</v>
       </c>
       <c r="AH2">
-        <v>0.007231603294560735</v>
+        <v>0.006677140335039942</v>
       </c>
       <c r="AI2">
-        <v>0.00772565661943287</v>
+        <v>0.007153593955057592</v>
       </c>
       <c r="AJ2">
-        <v>0.008303983108547571</v>
+        <v>0.007714635917956964</v>
       </c>
       <c r="AK2">
-        <v>0.008895167138309559</v>
+        <v>0.008288583508248681</v>
       </c>
       <c r="AL2">
-        <v>0.009437625315618542</v>
+        <v>0.008813623013130959</v>
       </c>
       <c r="AM2">
-        <v>0.009951371641482082</v>
+        <v>0.009309843285263823</v>
       </c>
       <c r="AN2">
-        <v>0.01034057626107582</v>
+        <v>0.009681056069571706</v>
       </c>
       <c r="AO2">
-        <v>0.01059507835388822</v>
+        <v>0.009917062544435491</v>
       </c>
       <c r="AP2">
-        <v>0.01070595231946995</v>
+        <v>0.01000890372797737</v>
       </c>
       <c r="AQ2">
-        <v>0.01073481150792281</v>
+        <v>0.01001842340203877</v>
       </c>
       <c r="AR2">
-        <v>0.01074054510721146</v>
+        <v>0.01001842340203877</v>
       </c>
       <c r="AS2">
-        <v>0.01074077582828307</v>
+        <v>0.01001842340203877</v>
       </c>
       <c r="AT2">
-        <v>0.01083368720696051</v>
+        <v>0.01009223481923974</v>
       </c>
       <c r="AU2">
-        <v>0.1085800921278096</v>
+        <v>0.1081847603738063</v>
       </c>
       <c r="AV2">
-        <v>0.1307851962456815</v>
+        <v>0.1304534633451681</v>
       </c>
       <c r="AW2">
-        <v>0.1782526766353378</v>
+        <v>0.1780790229777331</v>
       </c>
       <c r="AX2">
-        <v>0.1791711136815747</v>
+        <v>0.1789814474991507</v>
       </c>
       <c r="AY2">
-        <v>0.2091348211900381</v>
+        <v>0.2090377707620401</v>
       </c>
       <c r="AZ2">
-        <v>0.2105863459631123</v>
+        <v>0.210475276739447</v>
       </c>
       <c r="BA2">
-        <v>0.2507411999846288</v>
+        <v>0.25076086104115</v>
       </c>
       <c r="BB2">
-        <v>0.2714194730256355</v>
+        <v>0.2714970226416833</v>
       </c>
       <c r="BC2">
-        <v>0.285377566728328</v>
+        <v>0.2854878716720157</v>
       </c>
       <c r="BD2">
-        <v>0.2946802781966546</v>
+        <v>0.2948059275038802</v>
       </c>
       <c r="BE2">
-        <v>0.3030900936200301</v>
+        <v>0.3032277478913195</v>
       </c>
       <c r="BF2">
-        <v>0.3034844181798816</v>
+        <v>0.3036040997642798</v>
       </c>
       <c r="BG2">
-        <v>0.3059720613051171</v>
+        <v>0.3060815991396609</v>
       </c>
       <c r="BH2">
-        <v>0.3064678889700785</v>
+        <v>0.3065598337357368</v>
       </c>
       <c r="BI2">
-        <v>0.3066712750803176</v>
+        <v>0.3067445330560691</v>
       </c>
       <c r="BJ2">
-        <v>0.3067015801348433</v>
+        <v>0.306755504003691</v>
       </c>
       <c r="BK2">
-        <v>0.3084250855216097</v>
+        <v>0.3084660077926191</v>
       </c>
       <c r="BL2">
-        <v>0.3139626378003869</v>
+        <v>0.3140048228733809</v>
       </c>
       <c r="BM2">
-        <v>0.3159707291014802</v>
+        <v>0.3160009769178412</v>
       </c>
       <c r="BN2">
-        <v>0.325568757584674</v>
+        <v>0.3256154542397127</v>
       </c>
       <c r="BO2">
-        <v>0.329902030402824</v>
+        <v>0.3299454858974654</v>
       </c>
       <c r="BP2">
-        <v>0.3305990559379144</v>
+        <v>0.3306256708365538</v>
       </c>
       <c r="BQ2">
-        <v>0.3306452198302384</v>
+        <v>0.3306525599334638</v>
       </c>
       <c r="BR2">
-        <v>0.3306996206929771</v>
+        <v>0.3306877168067651</v>
       </c>
       <c r="BS2">
-        <v>0.3343751985780168</v>
+        <v>0.3343575937757323</v>
       </c>
       <c r="BT2">
-        <v>0.3345170116551561</v>
+        <v>0.3344804897820094</v>
       </c>
       <c r="BU2">
-        <v>0.3345204816141308</v>
+        <v>0.3344804897820094</v>
       </c>
       <c r="BV2">
-        <v>0.3357446676757601</v>
+        <v>0.3356898068092703</v>
       </c>
       <c r="BW2">
-        <v>0.336335851705522</v>
+        <v>0.336263754399562</v>
       </c>
       <c r="BX2">
-        <v>0.3367108849244024</v>
+        <v>0.3366207427826214</v>
       </c>
       <c r="BY2">
-        <v>0.338794404529293</v>
+        <v>0.3386926072300545</v>
       </c>
       <c r="BZ2">
-        <v>0.3459257328883056</v>
+        <v>0.3458311590569482</v>
       </c>
       <c r="CA2">
-        <v>0.3489628497412033</v>
+        <v>0.3488601871722044</v>
       </c>
       <c r="CB2">
-        <v>0.3492202141741598</v>
+        <v>0.3490990666922627</v>
       </c>
       <c r="CC2">
-        <v>0.3494146025639459</v>
+        <v>0.3492747346409873</v>
       </c>
       <c r="CD2">
-        <v>0.3496217978043767</v>
+        <v>0.349463257337523</v>
       </c>
       <c r="CE2">
-        <v>0.3579908732257012</v>
+        <v>0.3578441853567516</v>
       </c>
       <c r="CF2">
-        <v>0.3679145847252908</v>
+        <v>0.3677855637379254</v>
       </c>
       <c r="CG2">
-        <v>0.3737001700165546</v>
+        <v>0.3735733394658253</v>
       </c>
       <c r="CH2">
-        <v>0.3897956638268504</v>
+        <v>0.3897095824041991</v>
       </c>
       <c r="CI2">
-        <v>0.392570956966567</v>
+        <v>0.3924758075948924</v>
       </c>
       <c r="CJ2">
-        <v>0.3945703964672249</v>
+        <v>0.394463277481491</v>
       </c>
       <c r="CK2">
-        <v>0.3966819204735254</v>
+        <v>0.3965632510657998</v>
       </c>
       <c r="CL2">
-        <v>0.3997734892291643</v>
+        <v>0.3996469347319783</v>
       </c>
       <c r="CM2">
-        <v>0.4082321356549981</v>
+        <v>0.4081177687480896</v>
       </c>
       <c r="CN2">
-        <v>0.4214771613217926</v>
+        <v>0.4213928828934126</v>
       </c>
       <c r="CO2">
-        <v>0.4285122783759617</v>
+        <v>0.4284348635886021</v>
       </c>
       <c r="CP2">
-        <v>0.4442479991681453</v>
+        <v>0.4442099879705625</v>
       </c>
       <c r="CQ2">
-        <v>0.4686344753958341</v>
+        <v>0.4686682213059048</v>
       </c>
       <c r="CR2">
-        <v>0.48632145228625</v>
+        <v>0.4864018994145562</v>
       </c>
       <c r="CS2">
-        <v>0.4881681944792206</v>
+        <v>0.4882361009109638</v>
       </c>
       <c r="CT2">
-        <v>0.4913405051389242</v>
+        <v>0.4914008284530587</v>
       </c>
       <c r="CU2">
-        <v>0.510662704111662</v>
+        <v>0.5107758443165034</v>
       </c>
       <c r="CV2">
-        <v>0.5387470255255116</v>
+        <v>0.5389457526475793</v>
       </c>
       <c r="CW2">
-        <v>0.5608848326399956</v>
+        <v>0.5611469069271522</v>
       </c>
       <c r="CX2">
-        <v>0.580429397623928</v>
+        <v>0.5807451204427703</v>
       </c>
       <c r="CY2">
-        <v>0.5956238233888612</v>
+        <v>0.5959769253733164</v>
       </c>
       <c r="CZ2">
-        <v>0.6111941321727176</v>
+        <v>0.6115860191119172</v>
       </c>
       <c r="DA2">
-        <v>0.6204054506364431</v>
+        <v>0.6208123401325917</v>
       </c>
       <c r="DB2">
-        <v>0.6244801901415779</v>
+        <v>0.6248828715719267</v>
       </c>
       <c r="DC2">
-        <v>0.6246460562499281</v>
+        <v>0.6250299105668965</v>
       </c>
       <c r="DD2">
-        <v>0.6383228959384615</v>
+        <v>0.6387384537030527</v>
       </c>
       <c r="DE2">
-        <v>0.6681153324383027</v>
+        <v>0.6686228654098347</v>
       </c>
       <c r="DF2">
-        <v>0.7020631481473382</v>
+        <v>0.7026781972963692</v>
       </c>
       <c r="DG2">
-        <v>0.7263666623708505</v>
+        <v>0.7270531583525878</v>
       </c>
       <c r="DH2">
-        <v>0.7379079519518739</v>
+        <v>0.7386181644997304</v>
       </c>
       <c r="DI2">
-        <v>0.7401021186623349</v>
+        <v>0.7408010898689761</v>
       </c>
       <c r="DJ2">
-        <v>0.7406933026920969</v>
+        <v>0.7413750374592678</v>
       </c>
       <c r="DK2">
-        <v>0.7446334082904537</v>
+        <v>0.7453104314657986</v>
       </c>
       <c r="DL2">
-        <v>0.7476416863418994</v>
+        <v>0.7483105129235105</v>
       </c>
       <c r="DM2">
-        <v>0.7518068661515871</v>
+        <v>0.7524718229109233</v>
       </c>
       <c r="DN2">
-        <v>0.7583950224832547</v>
+        <v>0.7590651712663945</v>
       </c>
       <c r="DO2">
-        <v>0.7628357070068122</v>
+        <v>0.7635030163455153</v>
       </c>
       <c r="DP2">
-        <v>0.7672516235291228</v>
+        <v>0.7679160007919449</v>
       </c>
       <c r="DQ2">
-        <v>0.7705250520939171</v>
+        <v>0.7711822244165016</v>
       </c>
       <c r="DR2">
-        <v>0.7709179367436961</v>
+        <v>0.7715571309941769</v>
       </c>
       <c r="DS2">
-        <v>0.770917953939618</v>
+        <v>0.7715571309941769</v>
       </c>
       <c r="DT2">
-        <v>0.7712028892539625</v>
+        <v>0.7718236845097397</v>
       </c>
       <c r="DU2">
-        <v>0.7748897582395706</v>
+        <v>0.7755048948075902</v>
       </c>
       <c r="DV2">
-        <v>0.7805801511260422</v>
+        <v>0.7811971221144872</v>
       </c>
       <c r="DW2">
-        <v>0.7890632665531078</v>
+        <v>0.7896925166450254</v>
       </c>
       <c r="DX2">
-        <v>0.7999098810991591</v>
+        <v>0.8005602496972543</v>
       </c>
       <c r="DY2">
-        <v>0.8056002739856306</v>
+        <v>0.8062524770041513</v>
       </c>
       <c r="DZ2">
-        <v>0.8066930610406448</v>
+        <v>0.8073299035971824</v>
       </c>
       <c r="EA2">
-        <v>0.8068938017807507</v>
+        <v>0.8075119476537912</v>
       </c>
       <c r="EB2">
-        <v>0.8075493499137529</v>
+        <v>0.8081505000667818</v>
       </c>
       <c r="EC2">
-        <v>0.8095693724154469</v>
+        <v>0.8101586299341089</v>
       </c>
       <c r="ED2">
-        <v>0.8124052162582118</v>
+        <v>0.8129856322853279</v>
       </c>
       <c r="EE2">
-        <v>0.8156786448230061</v>
+        <v>0.8162518559098847</v>
       </c>
       <c r="EF2">
-        <v>0.8193224900064483</v>
+        <v>0.8198898814980783</v>
       </c>
       <c r="EG2">
-        <v>0.8219909881407885</v>
+        <v>0.8225489122738706</v>
       </c>
       <c r="EH2">
-        <v>0.8249081038876449</v>
+        <v>0.8254574904832139</v>
       </c>
       <c r="EI2">
-        <v>0.8258163131333669</v>
+        <v>0.8263496489525061</v>
       </c>
       <c r="EJ2">
-        <v>0.826669304536309</v>
+        <v>0.8271863830662489</v>
       </c>
       <c r="EK2">
-        <v>0.8279950434030507</v>
+        <v>0.8284976327025042</v>
       </c>
       <c r="EL2">
-        <v>0.8285130164691271</v>
+        <v>0.828998095522708</v>
       </c>
       <c r="EM2">
-        <v>0.8287620348216634</v>
+        <v>0.8292285977483019</v>
       </c>
       <c r="EN2">
-        <v>0.8287802572585808</v>
+        <v>0.8292285977483019</v>
       </c>
       <c r="EO2">
-        <v>0.8289262159259289</v>
+        <v>0.8293556548491477</v>
       </c>
       <c r="EP2">
-        <v>0.8300580143829071</v>
+        <v>0.8304722387453997</v>
       </c>
       <c r="EQ2">
-        <v>0.8308143167209816</v>
+        <v>0.8312119221806087</v>
       </c>
       <c r="ER2">
-        <v>0.8352474403441584</v>
+        <v>0.8356421780818502</v>
       </c>
       <c r="ES2">
-        <v>0.8455446638625518</v>
+        <v>0.8459584654035032</v>
       </c>
       <c r="ET2">
-        <v>0.8564550554118138</v>
+        <v>0.8568902139826681</v>
       </c>
       <c r="EU2">
-        <v>0.8644460038141022</v>
+        <v>0.8648916008012482</v>
       </c>
       <c r="EV2">
-        <v>0.8664812657165635</v>
+        <v>0.8669150270641598</v>
       </c>
       <c r="EW2">
-        <v>0.8664883240906188</v>
+        <v>0.8669150270641598</v>
       </c>
       <c r="EX2">
-        <v>0.8687291496034287</v>
+        <v>0.869144785738017</v>
       </c>
       <c r="EY2">
-        <v>0.8701434396746284</v>
+        <v>0.8705449177570878</v>
       </c>
       <c r="EZ2">
-        <v>0.8701664843357885</v>
+        <v>0.870548601157731</v>
       </c>
       <c r="FA2">
-        <v>0.8702888385019482</v>
+        <v>0.870651965477393</v>
       </c>
       <c r="FB2">
-        <v>0.8710704041412946</v>
+        <v>0.8714170066977227</v>
       </c>
       <c r="FC2">
-        <v>0.8729449784356663</v>
+        <v>0.8732791443866015</v>
       </c>
       <c r="FD2">
-        <v>0.8770027650399476</v>
+        <v>0.8773326595218364</v>
       </c>
       <c r="FE2">
-        <v>0.8803265812072785</v>
+        <v>0.8806494591967724</v>
       </c>
       <c r="FF2">
-        <v>0.8812132870119179</v>
+        <v>0.8815200338028766</v>
       </c>
       <c r="FG2">
-        <v>0.8819415378785803</v>
+        <v>0.8822315608551672</v>
       </c>
       <c r="FH2">
-        <v>0.8819728358921559</v>
+        <v>0.8822435284754706</v>
       </c>
       <c r="FI2">
-        <v>0.8828569548366652</v>
+        <v>0.8831115065466797</v>
       </c>
       <c r="FJ2">
-        <v>0.8851138294502831</v>
+        <v>0.8853573743444114</v>
       </c>
       <c r="FK2">
-        <v>0.8883762097145211</v>
+        <v>0.8886125083481605</v>
       </c>
       <c r="FL2">
-        <v>0.8907184978324389</v>
+        <v>0.8909441090936627</v>
       </c>
       <c r="FM2">
-        <v>0.8919761450957527</v>
+        <v>0.8921870124663133</v>
       </c>
       <c r="FN2">
-        <v>0.8919970383988046</v>
+        <v>0.8921885364628453</v>
       </c>
       <c r="FO2">
-        <v>0.8921147326287298</v>
+        <v>0.8922872234182768</v>
       </c>
       <c r="FP2">
-        <v>0.8929888171727338</v>
+        <v>0.8931451295606795</v>
       </c>
       <c r="FQ2">
-        <v>0.8949885775734078</v>
+        <v>0.8951329215474489</v>
       </c>
       <c r="FR2">
-        <v>0.8966791309585154</v>
+        <v>0.8968103500954031</v>
       </c>
       <c r="FS2">
-        <v>0.900064538528947</v>
+        <v>0.9001889715230985</v>
       </c>
       <c r="FT2">
-        <v>0.9054957750023718</v>
+        <v>0.9056210731811745</v>
       </c>
       <c r="FU2">
-        <v>0.9098185542199935</v>
+        <v>0.9099405719927058</v>
       </c>
       <c r="FV2">
-        <v>0.910306715964569</v>
+        <v>0.910411111998126</v>
       </c>
       <c r="FW2">
-        <v>0.9108186560303416</v>
+        <v>0.9109055192548193</v>
       </c>
       <c r="FX2">
-        <v>0.910910731324977</v>
+        <v>0.9109784914610536</v>
       </c>
       <c r="FY2">
-        <v>0.9112740164732659</v>
+        <v>0.9113236878361551</v>
       </c>
       <c r="FZ2">
-        <v>0.9115576070675427</v>
+        <v>0.9115888916024449</v>
       </c>
       <c r="GA2">
-        <v>0.9133476671576598</v>
+        <v>0.9133661990069488</v>
       </c>
       <c r="GB2">
-        <v>0.9157157590768767</v>
+        <v>0.9157237000590498</v>
       </c>
       <c r="GC2">
-        <v>0.920202145002735</v>
+        <v>0.9202074174620917</v>
       </c>
       <c r="GD2">
-        <v>0.9260805752986729</v>
+        <v>0.9260883854316835</v>
       </c>
       <c r="GE2">
-        <v>0.9355558817756885</v>
+        <v>0.9355796817714354</v>
       </c>
       <c r="GF2">
-        <v>0.9497378704896526</v>
+        <v>0.9497952631724241</v>
       </c>
       <c r="GG2">
-        <v>0.9560965858097695</v>
+        <v>0.9561583124151157</v>
       </c>
       <c r="GH2">
-        <v>0.9582007861157014</v>
+        <v>0.9582509349086767</v>
       </c>
       <c r="GI2">
-        <v>0.9587917955954546</v>
+        <v>0.9588247072961489</v>
       </c>
       <c r="GJ2">
-        <v>0.9609416929036869</v>
+        <v>0.960963197697175</v>
       </c>
       <c r="GK2">
-        <v>0.9657327214448818</v>
+        <v>0.9657526970681077</v>
       </c>
       <c r="GL2">
-        <v>0.9715507067377767</v>
+        <v>0.9715729939724934</v>
       </c>
       <c r="GM2">
-        <v>0.9820874372682274</v>
+        <v>0.9821296840539169</v>
       </c>
       <c r="GN2">
-        <v>0.9926596748004658</v>
+        <v>0.9927220139320526</v>
       </c>
       <c r="GO2">
-        <v>0.9970297770204699</v>
+        <v>0.9970890127323133</v>
       </c>
       <c r="GP2">
-        <v>0.9978519928118628</v>
+        <v>0.9978948561348134</v>
       </c>
       <c r="GQ2">
-        <v>0.9978639499924647</v>
+        <v>0.9978948561348134</v>
       </c>
       <c r="GR2">
-        <v>0.9985699392280064</v>
+        <v>0.9985840382982741</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.48831546166282E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.746807785004375E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0001001703957197335</v>
+        <v>5.844402256646876E-05</v>
       </c>
       <c r="E3">
-        <v>0.000558410453916032</v>
+        <v>0.0004942113500332052</v>
       </c>
       <c r="F3">
-        <v>0.000911810984812868</v>
+        <v>0.0008246406710177949</v>
       </c>
       <c r="G3">
-        <v>0.001304597974695157</v>
+        <v>0.001194643721289313</v>
       </c>
       <c r="H3">
-        <v>0.001749432783236758</v>
+        <v>0.001616942061329315</v>
       </c>
       <c r="I3">
-        <v>0.002128586773470217</v>
+        <v>0.00197324729129993</v>
       </c>
       <c r="J3">
-        <v>0.002442441945385693</v>
+        <v>0.002263943227481871</v>
       </c>
       <c r="K3">
-        <v>0.002839826805149546</v>
+        <v>0.002638566009069087</v>
       </c>
       <c r="L3">
-        <v>0.003213676325519641</v>
+        <v>0.002989541548080154</v>
       </c>
       <c r="M3">
-        <v>0.003342605442198585</v>
+        <v>0.003094432163435134</v>
       </c>
       <c r="N3">
-        <v>0.003450721294413654</v>
+        <v>0.003178410553759301</v>
       </c>
       <c r="O3">
-        <v>0.003461615264133038</v>
+        <v>0.003178410553759301</v>
       </c>
       <c r="P3">
-        <v>0.00348615012750105</v>
+        <v>0.003178410553759301</v>
       </c>
       <c r="Q3">
-        <v>0.003510684990869063</v>
+        <v>0.003178410553759301</v>
       </c>
       <c r="R3">
-        <v>0.003586130018925691</v>
+        <v>0.003229562780368054</v>
       </c>
       <c r="S3">
-        <v>0.003748016724755688</v>
+        <v>0.003367567687908967</v>
       </c>
       <c r="T3">
-        <v>0.003865324337733988</v>
+        <v>0.003460781542945732</v>
       </c>
       <c r="U3">
-        <v>0.004030978573466938</v>
+        <v>0.003602571893816673</v>
       </c>
       <c r="V3">
-        <v>0.004286769836878069</v>
+        <v>0.00383492784575833</v>
       </c>
       <c r="W3">
-        <v>0.004493388751555819</v>
+        <v>0.004017877649818149</v>
       </c>
       <c r="X3">
-        <v>0.004639619767789088</v>
+        <v>0.004140152429851791</v>
       </c>
       <c r="Y3">
-        <v>0.004835500032743452</v>
+        <v>0.004312312525265363</v>
       </c>
       <c r="Z3">
-        <v>0.004997386738573449</v>
+        <v>0.004450317432806277</v>
       </c>
       <c r="AA3">
-        <v>0.005129482125170834</v>
+        <v>0.00455838937270348</v>
       </c>
       <c r="AB3">
-        <v>0.005352746289419823</v>
+        <v>0.004758063569293454</v>
       </c>
       <c r="AC3">
-        <v>0.005505923865474157</v>
+        <v>0.004887317937868828</v>
       </c>
       <c r="AD3">
-        <v>0.005638019252071542</v>
+        <v>0.004995389877766032</v>
       </c>
       <c r="AE3">
-        <v>0.005749257899206171</v>
+        <v>0.005082505910923512</v>
       </c>
       <c r="AF3">
-        <v>0.005862054506300669</v>
+        <v>0.0051711873116535</v>
       </c>
       <c r="AG3">
-        <v>0.005908060725115605</v>
+        <v>0.005192760756684286</v>
       </c>
       <c r="AH3">
-        <v>0.005922715980738104</v>
+        <v>0.005192760756684286</v>
       </c>
       <c r="AI3">
-        <v>0.005922748270140272</v>
+        <v>0.005192760756684286</v>
       </c>
       <c r="AJ3">
-        <v>0.005948636661473419</v>
+        <v>0.005194120720251823</v>
       </c>
       <c r="AK3">
-        <v>0.006085565827946292</v>
+        <v>0.005307049423136931</v>
       </c>
       <c r="AL3">
-        <v>0.006185742735365858</v>
+        <v>0.005383051121464564</v>
       </c>
       <c r="AM3">
-        <v>0.006275672253049384</v>
+        <v>0.005448756706920983</v>
       </c>
       <c r="AN3">
-        <v>0.00645791282835509</v>
+        <v>0.005607212260224966</v>
       </c>
       <c r="AO3">
-        <v>0.006703654482025086</v>
+        <v>0.00582947081967237</v>
       </c>
       <c r="AP3">
-        <v>0.006920622816436248</v>
+        <v>0.006022819251721522</v>
       </c>
       <c r="AQ3">
-        <v>0.0071585164403084</v>
+        <v>0.006237192466442446</v>
       </c>
       <c r="AR3">
-        <v>0.007532365960678495</v>
+        <v>0.006588168005453513</v>
       </c>
       <c r="AS3">
-        <v>0.007923903680592963</v>
+        <v>0.006956915845868997</v>
       </c>
       <c r="AT3">
-        <v>0.02197343331869432</v>
+        <v>0.02104859508697245</v>
       </c>
       <c r="AU3">
-        <v>0.03844477589441275</v>
+        <v>0.0375736022292268</v>
       </c>
       <c r="AV3">
-        <v>0.1178073338501306</v>
+        <v>0.1172888528227451</v>
       </c>
       <c r="AW3">
-        <v>0.1243687606811163</v>
+        <v>0.1238568256684366</v>
       </c>
       <c r="AX3">
-        <v>0.1314653229983176</v>
+        <v>0.1309624784023137</v>
       </c>
       <c r="AY3">
-        <v>0.1601894752584187</v>
+        <v>0.159798553509147</v>
       </c>
       <c r="AZ3">
-        <v>0.162020878211244</v>
+        <v>0.161614012691598</v>
       </c>
       <c r="BA3">
-        <v>0.1792786677667045</v>
+        <v>0.1789292061231639</v>
       </c>
       <c r="BB3">
-        <v>0.2157864668263084</v>
+        <v>0.2155859368371021</v>
       </c>
       <c r="BC3">
-        <v>0.235292730323851</v>
+        <v>0.2351602950015405</v>
       </c>
       <c r="BD3">
-        <v>0.235931695707392</v>
+        <v>0.2357776469467848</v>
       </c>
       <c r="BE3">
-        <v>0.2497083803525215</v>
+        <v>0.2495951839022579</v>
       </c>
       <c r="BF3">
-        <v>0.2497951474502865</v>
+        <v>0.2496577120314775</v>
       </c>
       <c r="BG3">
-        <v>0.253095671865269</v>
+        <v>0.2529492778894359</v>
       </c>
       <c r="BH3">
-        <v>0.2548966050188792</v>
+        <v>0.2547341223983005</v>
       </c>
       <c r="BI3">
-        <v>0.2588621009167328</v>
+        <v>0.2586938214706815</v>
       </c>
       <c r="BJ3">
-        <v>0.260884356864642</v>
+        <v>0.2607010410945532</v>
       </c>
       <c r="BK3">
-        <v>0.2623879713259107</v>
+        <v>0.262187153253627</v>
       </c>
       <c r="BL3">
-        <v>0.2648175694633273</v>
+        <v>0.2646036518517945</v>
       </c>
       <c r="BM3">
-        <v>0.2693883007455909</v>
+        <v>0.2691714640136602</v>
       </c>
       <c r="BN3">
-        <v>0.2734965140397684</v>
+        <v>0.2732745590589754</v>
       </c>
       <c r="BO3">
-        <v>0.2744579024750042</v>
+        <v>0.2742158670767457</v>
       </c>
       <c r="BP3">
-        <v>0.2744771183655092</v>
+        <v>0.2742158670767457</v>
       </c>
       <c r="BQ3">
-        <v>0.2745212890113714</v>
+        <v>0.2742355962212481</v>
       </c>
       <c r="BR3">
-        <v>0.274814332903823</v>
+        <v>0.2745053819268372</v>
       </c>
       <c r="BS3">
-        <v>0.2752034525637997</v>
+        <v>0.2748717002101958</v>
       </c>
       <c r="BT3">
-        <v>0.2753558503398741</v>
+        <v>0.2750001710710861</v>
       </c>
       <c r="BU3">
-        <v>0.2765041948102941</v>
+        <v>0.2761293240415512</v>
       </c>
       <c r="BV3">
-        <v>0.277840675775868</v>
+        <v>0.2774475080373989</v>
       </c>
       <c r="BW3">
-        <v>0.2778439811155829</v>
+        <v>0.2774475080373989</v>
       </c>
       <c r="BX3">
-        <v>0.2778443414418736</v>
+        <v>0.2774475080373989</v>
       </c>
       <c r="BY3">
-        <v>0.2816046568450125</v>
+        <v>0.2812010510459458</v>
       </c>
       <c r="BZ3">
-        <v>0.2868820273090739</v>
+        <v>0.286478862238045</v>
       </c>
       <c r="CA3">
-        <v>0.289353451645413</v>
+        <v>0.2889373859056374</v>
       </c>
       <c r="CB3">
-        <v>0.2895735846997426</v>
+        <v>0.2891339141048591</v>
       </c>
       <c r="CC3">
-        <v>0.2910264102623196</v>
+        <v>0.2905689958799029</v>
       </c>
       <c r="CD3">
-        <v>0.2940042104856151</v>
+        <v>0.2935363030935166</v>
       </c>
       <c r="CE3">
-        <v>0.3115750760330112</v>
+        <v>0.3111660610955017</v>
       </c>
       <c r="CF3">
-        <v>0.3211840917854947</v>
+        <v>0.3207961131954298</v>
       </c>
       <c r="CG3">
-        <v>0.3378444093563454</v>
+        <v>0.3375109938498505</v>
       </c>
       <c r="CH3">
-        <v>0.3520259064910474</v>
+        <v>0.351735268051752</v>
       </c>
       <c r="CI3">
-        <v>0.3530875868636998</v>
+        <v>0.3527773448637531</v>
       </c>
       <c r="CJ3">
-        <v>0.3538419008442696</v>
+        <v>0.3535105938525506</v>
       </c>
       <c r="CK3">
-        <v>0.3549112555167244</v>
+        <v>0.3545603814532509</v>
       </c>
       <c r="CL3">
-        <v>0.3595021680984681</v>
+        <v>0.3591484708703677</v>
       </c>
       <c r="CM3">
-        <v>0.3723616472672236</v>
+        <v>0.372044441324117</v>
       </c>
       <c r="CN3">
-        <v>0.389813356817689</v>
+        <v>0.3895544767796505</v>
       </c>
       <c r="CO3">
-        <v>0.4021979834986762</v>
+        <v>0.4019733369704764</v>
       </c>
       <c r="CP3">
-        <v>0.4260587238840529</v>
+        <v>0.4259228761992745</v>
       </c>
       <c r="CQ3">
-        <v>0.461541192970068</v>
+        <v>0.4615494018160862</v>
       </c>
       <c r="CR3">
-        <v>0.4790290325196027</v>
+        <v>0.4790957390575415</v>
       </c>
       <c r="CS3">
-        <v>0.4794550783086283</v>
+        <v>0.4794991590421506</v>
       </c>
       <c r="CT3">
-        <v>0.48466062017454</v>
+        <v>0.4847048001135673</v>
       </c>
       <c r="CU3">
-        <v>0.504066627674665</v>
+        <v>0.5041784255946574</v>
       </c>
       <c r="CV3">
-        <v>0.5312024259756801</v>
+        <v>0.5314185946158001</v>
       </c>
       <c r="CW3">
-        <v>0.5520856004377552</v>
+        <v>0.5523764105260272</v>
       </c>
       <c r="CX3">
-        <v>0.5686916760100031</v>
+        <v>0.569036791278096</v>
       </c>
       <c r="CY3">
-        <v>0.5846165705997974</v>
+        <v>0.585012752245056</v>
       </c>
       <c r="CZ3">
-        <v>0.5973946722706492</v>
+        <v>0.597826958276335</v>
       </c>
       <c r="DA3">
-        <v>0.6046641104833974</v>
+        <v>0.6051063088766067</v>
       </c>
       <c r="DB3">
-        <v>0.606132865845564</v>
+        <v>0.606557396192458</v>
       </c>
       <c r="DC3">
-        <v>0.6093698857621823</v>
+        <v>0.6097851556080121</v>
       </c>
       <c r="DD3">
-        <v>0.6312747191979406</v>
+        <v>0.6317694881610031</v>
       </c>
       <c r="DE3">
-        <v>0.6693868782162182</v>
+        <v>0.6700382070637446</v>
       </c>
       <c r="DF3">
-        <v>0.6999507494289304</v>
+        <v>0.7007227484117688</v>
       </c>
       <c r="DG3">
-        <v>0.7200816439103833</v>
+        <v>0.7209247074852055</v>
       </c>
       <c r="DH3">
-        <v>0.7288624616842002</v>
+        <v>0.7297226237839478</v>
       </c>
       <c r="DI3">
-        <v>0.7290419251495774</v>
+        <v>0.7298782890230336</v>
       </c>
       <c r="DJ3">
-        <v>0.7315657070845679</v>
+        <v>0.7323894192332936</v>
       </c>
       <c r="DK3">
-        <v>0.7368519725484002</v>
+        <v>0.7376761677181073</v>
       </c>
       <c r="DL3">
-        <v>0.7419203621178447</v>
+        <v>0.7427440043767567</v>
       </c>
       <c r="DM3">
-        <v>0.7520325898573662</v>
+        <v>0.7528796610794324</v>
       </c>
       <c r="DN3">
-        <v>0.7602109216467025</v>
+        <v>0.7610722267611564</v>
       </c>
       <c r="DO3">
-        <v>0.7695253904067731</v>
+        <v>0.7704063313897891</v>
       </c>
       <c r="DP3">
-        <v>0.7761619809358227</v>
+        <v>0.7770498253134349</v>
       </c>
       <c r="DQ3">
-        <v>0.7810126846108745</v>
+        <v>0.7818989410493058</v>
       </c>
       <c r="DR3">
-        <v>0.7818868199383578</v>
+        <v>0.7827525810980689</v>
       </c>
       <c r="DS3">
-        <v>0.7820747823935161</v>
+        <v>0.7829167857369757</v>
       </c>
       <c r="DT3">
-        <v>0.7826601694284373</v>
+        <v>0.7834803045852993</v>
       </c>
       <c r="DU3">
-        <v>0.7861000777398295</v>
+        <v>0.7869119170665276</v>
       </c>
       <c r="DV3">
-        <v>0.7940521295349944</v>
+        <v>0.7948771268634363</v>
       </c>
       <c r="DW3">
-        <v>0.8090596501484191</v>
+        <v>0.8099313520275121</v>
       </c>
       <c r="DX3">
-        <v>0.8208798413439454</v>
+        <v>0.821783093018569</v>
       </c>
       <c r="DY3">
-        <v>0.8268313016906431</v>
+        <v>0.8277381991799966</v>
       </c>
       <c r="DZ3">
-        <v>0.8287107114422319</v>
+        <v>0.8296018934185337</v>
       </c>
       <c r="EA3">
-        <v>0.8288771786379439</v>
+        <v>0.8297445005947544</v>
       </c>
       <c r="EB3">
-        <v>0.8291524368708535</v>
+        <v>0.8299964160755497</v>
       </c>
       <c r="EC3">
-        <v>0.8300160346486083</v>
+        <v>0.8308394684718291</v>
       </c>
       <c r="ED3">
-        <v>0.8313966948130442</v>
+        <v>0.8322020417248204</v>
       </c>
       <c r="EE3">
-        <v>0.8337778199517094</v>
+        <v>0.8345698368502786</v>
       </c>
       <c r="EF3">
-        <v>0.8362563793878648</v>
+        <v>0.8370355295428566</v>
       </c>
       <c r="EG3">
-        <v>0.8393699546076629</v>
+        <v>0.8401392573206422</v>
       </c>
       <c r="EH3">
-        <v>0.8412922903581459</v>
+        <v>0.8420460816577809</v>
       </c>
       <c r="EI3">
-        <v>0.841741571476573</v>
+        <v>0.8424728474485201</v>
       </c>
       <c r="EJ3">
-        <v>0.8427094912516406</v>
+        <v>0.8434207178606016</v>
       </c>
       <c r="EK3">
-        <v>0.8435201616307587</v>
+        <v>0.8442105912050072</v>
       </c>
       <c r="EL3">
-        <v>0.8436901253463807</v>
+        <v>0.844356711525997</v>
       </c>
       <c r="EM3">
-        <v>0.843848504822301</v>
+        <v>0.8444911925278463</v>
       </c>
       <c r="EN3">
-        <v>0.8440068842982213</v>
+        <v>0.8446256735296956</v>
       </c>
       <c r="EO3">
-        <v>0.8441311242650211</v>
+        <v>0.8447258526997294</v>
       </c>
       <c r="EP3">
-        <v>0.8441680702160694</v>
+        <v>0.8447383227982523</v>
       </c>
       <c r="EQ3">
-        <v>0.8447755397004217</v>
+        <v>0.8453240290911519</v>
       </c>
       <c r="ER3">
-        <v>0.8489164085937581</v>
+        <v>0.8494599350027927</v>
       </c>
       <c r="ES3">
-        <v>0.8570191863850405</v>
+        <v>0.857576587450818</v>
       </c>
       <c r="ET3">
-        <v>0.8635587932165882</v>
+        <v>0.8641226365497945</v>
       </c>
       <c r="EU3">
-        <v>0.8666807985361692</v>
+        <v>0.8672348345098524</v>
       </c>
       <c r="EV3">
-        <v>0.8669018686104747</v>
+        <v>0.867432304184287</v>
       </c>
       <c r="EW3">
-        <v>0.8674615051960591</v>
+        <v>0.8679699501479361</v>
       </c>
       <c r="EX3">
-        <v>0.8699505451319445</v>
+        <v>0.8704461731717446</v>
       </c>
       <c r="EY3">
-        <v>0.8704269683096724</v>
+        <v>0.8709002100737928</v>
       </c>
       <c r="EZ3">
-        <v>0.8705674090260548</v>
+        <v>0.8710166670229097</v>
       </c>
       <c r="FA3">
-        <v>0.8708557275386281</v>
+        <v>0.8712817048809163</v>
       </c>
       <c r="FB3">
-        <v>0.8713492851259146</v>
+        <v>0.8717529576612849</v>
       </c>
       <c r="FC3">
-        <v>0.8732587346767295</v>
+        <v>0.873646834528904</v>
       </c>
       <c r="FD3">
-        <v>0.8748116729367278</v>
+        <v>0.8751825050059531</v>
       </c>
       <c r="FE3">
-        <v>0.8759886989064091</v>
+        <v>0.8763404758472434</v>
       </c>
       <c r="FF3">
-        <v>0.8762755909290191</v>
+        <v>0.8766040804327728</v>
       </c>
       <c r="FG3">
-        <v>0.8762759365139802</v>
+        <v>0.8766040804327728</v>
       </c>
       <c r="FH3">
-        <v>0.8770653018936471</v>
+        <v>0.8773725474791142</v>
       </c>
       <c r="FI3">
-        <v>0.879895992020732</v>
+        <v>0.8801920451339919</v>
       </c>
       <c r="FJ3">
-        <v>0.8840504035137194</v>
+        <v>0.8843415580361123</v>
       </c>
       <c r="FK3">
-        <v>0.8897340238673164</v>
+        <v>0.8900275507089904</v>
       </c>
       <c r="FL3">
-        <v>0.8928360862874111</v>
+        <v>0.8931197109473085</v>
       </c>
       <c r="FM3">
-        <v>0.894323582449095</v>
+        <v>0.894589628169321</v>
       </c>
       <c r="FN3">
-        <v>0.8943710260718729</v>
+        <v>0.8946126458527213</v>
       </c>
       <c r="FO3">
-        <v>0.8944025406850611</v>
+        <v>0.8946196587890702</v>
       </c>
       <c r="FP3">
-        <v>0.8958761355471031</v>
+        <v>0.8960756086151062</v>
       </c>
       <c r="FQ3">
-        <v>0.897510497305004</v>
+        <v>0.8976930897333399</v>
       </c>
       <c r="FR3">
-        <v>0.9004802702285063</v>
+        <v>0.900652331479859</v>
       </c>
       <c r="FS3">
-        <v>0.9060516046849956</v>
+        <v>0.9062255043712859</v>
       </c>
       <c r="FT3">
-        <v>0.914843895458517</v>
+        <v>0.9150349482202601</v>
       </c>
       <c r="FU3">
-        <v>0.9191154440484871</v>
+        <v>0.9193021551696459</v>
       </c>
       <c r="FV3">
-        <v>0.9212333716939319</v>
+        <v>0.9214055013800709</v>
       </c>
       <c r="FW3">
-        <v>0.9224445503627334</v>
+        <v>0.9225977873058908</v>
       </c>
       <c r="FX3">
-        <v>0.9225242211606812</v>
+        <v>0.9226531853946057</v>
       </c>
       <c r="FY3">
-        <v>0.9225285077455708</v>
+        <v>0.9226531853946057</v>
       </c>
       <c r="FZ3">
-        <v>0.9227127922808239</v>
+        <v>0.9228136946262477</v>
       </c>
       <c r="GA3">
-        <v>0.9233715769638544</v>
+        <v>0.9234509601055557</v>
       </c>
       <c r="GB3">
-        <v>0.9245058409346372</v>
+        <v>0.9245659656280089</v>
       </c>
       <c r="GC3">
-        <v>0.9288341738231446</v>
+        <v>0.9288902268675224</v>
       </c>
       <c r="GD3">
-        <v>0.9334293621047782</v>
+        <v>0.9334826123141456</v>
       </c>
       <c r="GE3">
-        <v>0.9461058777782467</v>
+        <v>0.9461947493383766</v>
       </c>
       <c r="GF3">
-        <v>0.9569831384980618</v>
+        <v>0.9570990765140414</v>
       </c>
       <c r="GG3">
-        <v>0.9620323530680003</v>
+        <v>0.9621476470020556</v>
       </c>
       <c r="GH3">
-        <v>0.9654182073807849</v>
+        <v>0.9655249484748086</v>
       </c>
       <c r="GI3">
-        <v>0.9655316749978621</v>
+        <v>0.965614304075964</v>
       </c>
       <c r="GJ3">
-        <v>0.9672443153537466</v>
+        <v>0.9673104359824474</v>
       </c>
       <c r="GK3">
-        <v>0.9704608132708935</v>
+        <v>0.9705175758228372</v>
       </c>
       <c r="GL3">
-        <v>0.976790948807837</v>
+        <v>0.9768531576566779</v>
       </c>
       <c r="GM3">
-        <v>0.9860851335684302</v>
+        <v>0.9861668818417558</v>
       </c>
       <c r="GN3">
-        <v>0.993093396787906</v>
+        <v>0.9931838156432973</v>
       </c>
       <c r="GO3">
-        <v>0.9954265372278072</v>
+        <v>0.9955033979177474</v>
       </c>
       <c r="GP3">
-        <v>0.9955490999446501</v>
+        <v>0.9956018918630252</v>
       </c>
       <c r="GQ3">
-        <v>0.9958667591064676</v>
+        <v>0.9958964098758921</v>
       </c>
       <c r="GR3">
-        <v>0.997313979369189</v>
+        <v>0.9973258596996315</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001714850059492107</v>
+        <v>7.613953391586707E-05</v>
       </c>
       <c r="C4">
-        <v>0.0003244271723364373</v>
+        <v>0.0001334030948881723</v>
       </c>
       <c r="D4">
-        <v>0.0004652808190092168</v>
+        <v>0.0001783609585429304</v>
       </c>
       <c r="E4">
-        <v>0.0006133278555120752</v>
+        <v>0.0002306414456476286</v>
       </c>
       <c r="F4">
-        <v>0.0007100170792280991</v>
+        <v>0.0002306414456476286</v>
       </c>
       <c r="G4">
-        <v>0.0007896771573463825</v>
+        <v>0.0002306414456476286</v>
       </c>
       <c r="H4">
-        <v>0.0009033357446615589</v>
+        <v>0.0002479156741764544</v>
       </c>
       <c r="I4">
-        <v>0.0009967185024556875</v>
+        <v>0.0002479156741764544</v>
       </c>
       <c r="J4">
-        <v>0.001026569088750562</v>
+        <v>0.0002479156741764544</v>
       </c>
       <c r="K4">
-        <v>0.001027249248374495</v>
+        <v>0.0002479156741764544</v>
       </c>
       <c r="L4">
-        <v>0.001032574975948692</v>
+        <v>0.0002479156741764544</v>
       </c>
       <c r="M4">
-        <v>0.001120573548870005</v>
+        <v>0.0002479156741764544</v>
       </c>
       <c r="N4">
-        <v>0.001217392306582969</v>
+        <v>0.00024804753533037</v>
       </c>
       <c r="O4">
-        <v>0.001538526998997181</v>
+        <v>0.0004765253032736255</v>
       </c>
       <c r="P4">
-        <v>0.001945952709373041</v>
+        <v>0.0007928443597569511</v>
       </c>
       <c r="Q4">
-        <v>0.002237755822480118</v>
+        <v>0.0009914635887454445</v>
       </c>
       <c r="R4">
-        <v>0.002566081244724472</v>
+        <v>0.001227261272350187</v>
       </c>
       <c r="S4">
-        <v>0.002966689335261376</v>
+        <v>0.00153664022631095</v>
       </c>
       <c r="T4">
-        <v>0.003286395457709333</v>
+        <v>0.001763663759160337</v>
       </c>
       <c r="U4">
-        <v>0.003454930363728231</v>
+        <v>0.001836800192807809</v>
       </c>
       <c r="V4">
-        <v>0.003582083030724653</v>
+        <v>0.00186781093035997</v>
       </c>
       <c r="W4">
-        <v>0.003765705396387157</v>
+        <v>0.001956305879032491</v>
       </c>
       <c r="X4">
-        <v>0.003864497324053511</v>
+        <v>0.001958446359337143</v>
       </c>
       <c r="Y4">
-        <v>0.003888914995476721</v>
+        <v>0.001958446359337143</v>
       </c>
       <c r="Z4">
-        <v>0.003890453386940382</v>
+        <v>0.001958446359337143</v>
       </c>
       <c r="AA4">
-        <v>0.003894421103446657</v>
+        <v>0.001958446359337143</v>
       </c>
       <c r="AB4">
-        <v>0.003948136602177799</v>
+        <v>0.001958446359337143</v>
       </c>
       <c r="AC4">
-        <v>0.004009412416730352</v>
+        <v>0.001958446359337143</v>
       </c>
       <c r="AD4">
-        <v>0.004184574812592696</v>
+        <v>0.002038329349710755</v>
       </c>
       <c r="AE4">
-        <v>0.004493436555296817</v>
+        <v>0.002254313676943866</v>
       </c>
       <c r="AF4">
-        <v>0.004739894249475036</v>
+        <v>0.002406772828995146</v>
       </c>
       <c r="AG4">
-        <v>0.005029092512643644</v>
+        <v>0.002602740410333008</v>
       </c>
       <c r="AH4">
-        <v>0.005589824939398119</v>
+        <v>0.003075120431522183</v>
       </c>
       <c r="AI4">
-        <v>0.005917550501656643</v>
+        <v>0.003310307478291904</v>
       </c>
       <c r="AJ4">
-        <v>0.006184462335351698</v>
+        <v>0.00348358824090682</v>
       </c>
       <c r="AK4">
-        <v>0.006545501656823289</v>
+        <v>0.003752687548819295</v>
       </c>
       <c r="AL4">
-        <v>0.00681568307044111</v>
+        <v>0.003929296631347278</v>
       </c>
       <c r="AM4">
-        <v>0.006996166526177761</v>
+        <v>0.004014596277669551</v>
       </c>
       <c r="AN4">
-        <v>0.007148123292588265</v>
+        <v>0.004070856735355705</v>
       </c>
       <c r="AO4">
-        <v>0.007205859561224428</v>
+        <v>0.004070856735355705</v>
       </c>
       <c r="AP4">
-        <v>0.00720587724501301</v>
+        <v>0.004070856735355705</v>
       </c>
       <c r="AQ4">
-        <v>0.007205878348592084</v>
+        <v>0.004070856735355705</v>
       </c>
       <c r="AR4">
-        <v>0.007208436608231653</v>
+        <v>0.004070856735355705</v>
       </c>
       <c r="AS4">
-        <v>0.007233549297638446</v>
+        <v>0.004070856735355705</v>
       </c>
       <c r="AT4">
-        <v>0.05419498818832343</v>
+        <v>0.05177756011071748</v>
       </c>
       <c r="AU4">
-        <v>0.05508392502732512</v>
+        <v>0.05258404093587614</v>
       </c>
       <c r="AV4">
-        <v>0.1504235927752279</v>
+        <v>0.1495381174502723</v>
       </c>
       <c r="AW4">
-        <v>0.1601369635457804</v>
+        <v>0.1593275685253432</v>
       </c>
       <c r="AX4">
-        <v>0.1833131969983154</v>
+        <v>0.1828217507921237</v>
       </c>
       <c r="AY4">
-        <v>0.2010058225803832</v>
+        <v>0.2007338088405483</v>
       </c>
       <c r="AZ4">
-        <v>0.2090933288893415</v>
+        <v>0.2088681858109029</v>
       </c>
       <c r="BA4">
-        <v>0.2310123943715731</v>
+        <v>0.231082614320788</v>
       </c>
       <c r="BB4">
-        <v>0.2446373930497258</v>
+        <v>0.244853968075992</v>
       </c>
       <c r="BC4">
-        <v>0.2489027553489701</v>
+        <v>0.2490975338967064</v>
       </c>
       <c r="BD4">
-        <v>0.2506355339080387</v>
+        <v>0.2507630165712521</v>
       </c>
       <c r="BE4">
-        <v>0.2550321973041815</v>
+        <v>0.255140242392865</v>
       </c>
       <c r="BF4">
-        <v>0.2601346746836516</v>
+        <v>0.2602359625749527</v>
       </c>
       <c r="BG4">
-        <v>0.2628885291186006</v>
+        <v>0.2629408653740167</v>
       </c>
       <c r="BH4">
-        <v>0.2630369794050939</v>
+        <v>0.262993556355743</v>
       </c>
       <c r="BI4">
-        <v>0.2633479486477482</v>
+        <v>0.2632116860454437</v>
       </c>
       <c r="BJ4">
-        <v>0.2657076305920082</v>
+        <v>0.2655153348054772</v>
       </c>
       <c r="BK4">
-        <v>0.2706868684743896</v>
+        <v>0.2704856014180158</v>
       </c>
       <c r="BL4">
-        <v>0.2729572752207584</v>
+        <v>0.2726983710969738</v>
       </c>
       <c r="BM4">
-        <v>0.2771379201220039</v>
+        <v>0.2768556975201499</v>
       </c>
       <c r="BN4">
-        <v>0.2803967434450246</v>
+        <v>0.2800746412802393</v>
       </c>
       <c r="BO4">
-        <v>0.2804062870682991</v>
+        <v>0.2800746412802393</v>
       </c>
       <c r="BP4">
-        <v>0.2823980740212494</v>
+        <v>0.2820037855918673</v>
       </c>
       <c r="BQ4">
-        <v>0.2840398892824668</v>
+        <v>0.2835766707576357</v>
       </c>
       <c r="BR4">
-        <v>0.2908228558222407</v>
+        <v>0.2903830711090581</v>
       </c>
       <c r="BS4">
-        <v>0.2977661513582274</v>
+        <v>0.2973526808645454</v>
       </c>
       <c r="BT4">
-        <v>0.2993178831215726</v>
+        <v>0.2988338641276569</v>
       </c>
       <c r="BU4">
-        <v>0.2993179649247907</v>
+        <v>0.2988338641276569</v>
       </c>
       <c r="BV4">
-        <v>0.2993215451658062</v>
+        <v>0.2988338641276569</v>
       </c>
       <c r="BW4">
-        <v>0.3003063298425437</v>
+        <v>0.299737914755205</v>
       </c>
       <c r="BX4">
-        <v>0.3018392561063332</v>
+        <v>0.3011999546665328</v>
       </c>
       <c r="BY4">
-        <v>0.3091548319335259</v>
+        <v>0.3085485329548996</v>
       </c>
       <c r="BZ4">
-        <v>0.3123810936573158</v>
+        <v>0.3117343301268397</v>
       </c>
       <c r="CA4">
-        <v>0.3125885137824161</v>
+        <v>0.3118470503761607</v>
       </c>
       <c r="CB4">
-        <v>0.3127935442975729</v>
+        <v>0.3119573380847434</v>
       </c>
       <c r="CC4">
-        <v>0.313205954847831</v>
+        <v>0.3122787315367868</v>
       </c>
       <c r="CD4">
-        <v>0.3203766211784467</v>
+        <v>0.3194797969414064</v>
       </c>
       <c r="CE4">
-        <v>0.3425464766547542</v>
+        <v>0.3419495210400209</v>
       </c>
       <c r="CF4">
-        <v>0.3523051284242371</v>
+        <v>0.3517850666146861</v>
       </c>
       <c r="CG4">
-        <v>0.3740993039094188</v>
+        <v>0.3738723614028262</v>
       </c>
       <c r="CH4">
-        <v>0.3910021245101433</v>
+        <v>0.3909804251434376</v>
       </c>
       <c r="CI4">
-        <v>0.3919754597171513</v>
+        <v>0.3918728206045744</v>
       </c>
       <c r="CJ4">
-        <v>0.39234297266847</v>
+        <v>0.3921485098450283</v>
       </c>
       <c r="CK4">
-        <v>0.3927939260378176</v>
+        <v>0.3925091385613295</v>
       </c>
       <c r="CL4">
-        <v>0.3961011522596949</v>
+        <v>0.3957773548077689</v>
       </c>
       <c r="CM4">
-        <v>0.4037969800779054</v>
+        <v>0.4035130165452587</v>
       </c>
       <c r="CN4">
-        <v>0.4106904889150681</v>
+        <v>0.4104319451536212</v>
       </c>
       <c r="CO4">
-        <v>0.4198808376979752</v>
+        <v>0.4196889778331881</v>
       </c>
       <c r="CP4">
-        <v>0.4386518732545691</v>
+        <v>0.4386988201467019</v>
       </c>
       <c r="CQ4">
-        <v>0.4652615266260004</v>
+        <v>0.4656881058077783</v>
       </c>
       <c r="CR4">
-        <v>0.4762476683664876</v>
+        <v>0.4767731939567467</v>
       </c>
       <c r="CS4">
-        <v>0.4763107788049968</v>
+        <v>0.4767731939567467</v>
       </c>
       <c r="CT4">
-        <v>0.485088246097657</v>
+        <v>0.4856099274791782</v>
       </c>
       <c r="CU4">
-        <v>0.5026484256828535</v>
+        <v>0.5033871600579075</v>
       </c>
       <c r="CV4">
-        <v>0.5233061261948808</v>
+        <v>0.5243175624093424</v>
       </c>
       <c r="CW4">
-        <v>0.538750309830061</v>
+        <v>0.5399407838848812</v>
       </c>
       <c r="CX4">
-        <v>0.5487548935937344</v>
+        <v>0.5500266797714705</v>
       </c>
       <c r="CY4">
-        <v>0.5590347513509054</v>
+        <v>0.5603927951161398</v>
       </c>
       <c r="CZ4">
-        <v>0.565569698196538</v>
+        <v>0.5669467199488893</v>
       </c>
       <c r="DA4">
-        <v>0.5680114951388583</v>
+        <v>0.5693339589528262</v>
       </c>
       <c r="DB4">
-        <v>0.5682793857625302</v>
+        <v>0.5695082360899748</v>
       </c>
       <c r="DC4">
-        <v>0.579575094495705</v>
+        <v>0.5809084527907843</v>
       </c>
       <c r="DD4">
-        <v>0.6160780736334379</v>
+        <v>0.6179688038279215</v>
       </c>
       <c r="DE4">
-        <v>0.6607295065786895</v>
+        <v>0.6633240005972043</v>
       </c>
       <c r="DF4">
-        <v>0.6936393498012988</v>
+        <v>0.6967266628488837</v>
       </c>
       <c r="DG4">
-        <v>0.7105300824023089</v>
+        <v>0.7138224214215197</v>
       </c>
       <c r="DH4">
-        <v>0.7144997473085382</v>
+        <v>0.7177649774658524</v>
       </c>
       <c r="DI4">
-        <v>0.7147231713732605</v>
+        <v>0.7178939891752967</v>
       </c>
       <c r="DJ4">
-        <v>0.7202591985424894</v>
+        <v>0.7234310481325928</v>
       </c>
       <c r="DK4">
-        <v>0.7285011358477999</v>
+        <v>0.7317226305459997</v>
       </c>
       <c r="DL4">
-        <v>0.7366401486555415</v>
+        <v>0.7399094393606899</v>
       </c>
       <c r="DM4">
-        <v>0.7506986003234551</v>
+        <v>0.7541220333520339</v>
       </c>
       <c r="DN4">
-        <v>0.761114441077414</v>
+        <v>0.7646265747106679</v>
       </c>
       <c r="DO4">
-        <v>0.774263126766818</v>
+        <v>0.7779130582248157</v>
       </c>
       <c r="DP4">
-        <v>0.7857326619958865</v>
+        <v>0.7894902243201556</v>
       </c>
       <c r="DQ4">
-        <v>0.7923209434402593</v>
+        <v>0.796098441940124</v>
       </c>
       <c r="DR4">
-        <v>0.793722198107159</v>
+        <v>0.7974264446943046</v>
       </c>
       <c r="DS4">
-        <v>0.7940028623405292</v>
+        <v>0.7976137249268124</v>
       </c>
       <c r="DT4">
-        <v>0.7945697535271382</v>
+        <v>0.7980923743537196</v>
       </c>
       <c r="DU4">
-        <v>0.7980395682451749</v>
+        <v>0.8015261000974601</v>
       </c>
       <c r="DV4">
-        <v>0.804179603700136</v>
+        <v>0.8076780187164093</v>
       </c>
       <c r="DW4">
-        <v>0.8172559553912486</v>
+        <v>0.8208908687080277</v>
       </c>
       <c r="DX4">
-        <v>0.8288161401181759</v>
+        <v>0.8325603128745448</v>
       </c>
       <c r="DY4">
-        <v>0.8359721823491372</v>
+        <v>0.8397464914486721</v>
       </c>
       <c r="DZ4">
-        <v>0.8406565187384846</v>
+        <v>0.8444165584836371</v>
       </c>
       <c r="EA4">
-        <v>0.8420194555062895</v>
+        <v>0.8457055549343789</v>
       </c>
       <c r="EB4">
-        <v>0.8420322340489876</v>
+        <v>0.8457055549343789</v>
       </c>
       <c r="EC4">
-        <v>0.8422131627047138</v>
+        <v>0.845791307778979</v>
       </c>
       <c r="ED4">
-        <v>0.8428923211886709</v>
+        <v>0.8463842414534583</v>
       </c>
       <c r="EE4">
-        <v>0.8447250526453783</v>
+        <v>0.8481514727401923</v>
       </c>
       <c r="EF4">
-        <v>0.8459270600169847</v>
+        <v>0.849276648600333</v>
       </c>
       <c r="EG4">
-        <v>0.8473613697831037</v>
+        <v>0.8506383003086785</v>
       </c>
       <c r="EH4">
-        <v>0.8477043154750027</v>
+        <v>0.8508889809239673</v>
       </c>
       <c r="EI4">
-        <v>0.8478406267117827</v>
+        <v>0.8509293147705751</v>
       </c>
       <c r="EJ4">
-        <v>0.8484553549472618</v>
+        <v>0.8514566606680068</v>
       </c>
       <c r="EK4">
-        <v>0.8490325824936266</v>
+        <v>0.8519458321536546</v>
       </c>
       <c r="EL4">
-        <v>0.84935586602599</v>
+        <v>0.8521764973667627</v>
       </c>
       <c r="EM4">
-        <v>0.8494594747575426</v>
+        <v>0.8521835411877626</v>
       </c>
       <c r="EN4">
-        <v>0.8495353800057496</v>
+        <v>0.8521835411877626</v>
       </c>
       <c r="EO4">
-        <v>0.8500975307224705</v>
+        <v>0.8526573649793595</v>
       </c>
       <c r="EP4">
-        <v>0.8501903359502783</v>
+        <v>0.8526573649793595</v>
       </c>
       <c r="EQ4">
-        <v>0.8507860883362055</v>
+        <v>0.8531653941145703</v>
       </c>
       <c r="ER4">
-        <v>0.8539335080618577</v>
+        <v>0.8562709328439624</v>
       </c>
       <c r="ES4">
-        <v>0.8591684372381991</v>
+        <v>0.8615014843999457</v>
       </c>
       <c r="ET4">
-        <v>0.861783103676436</v>
+        <v>0.8640646986053494</v>
       </c>
       <c r="EU4">
-        <v>0.8620487132301617</v>
+        <v>0.864236653691744</v>
       </c>
       <c r="EV4">
-        <v>0.8625349292586765</v>
+        <v>0.8646331785823139</v>
       </c>
       <c r="EW4">
-        <v>0.866715574159922</v>
+        <v>0.86879050500549</v>
       </c>
       <c r="EX4">
-        <v>0.8729997480114783</v>
+        <v>0.8750891515549251</v>
       </c>
       <c r="EY4">
-        <v>0.8749452016655231</v>
+        <v>0.8769711301617751</v>
       </c>
       <c r="EZ4">
-        <v>0.8750755236124447</v>
+        <v>0.8770053671172923</v>
       </c>
       <c r="FA4">
-        <v>0.8763476998823936</v>
+        <v>0.8782019725026772</v>
       </c>
       <c r="FB4">
-        <v>0.8778608953466491</v>
+        <v>0.8796439271386666</v>
       </c>
       <c r="FC4">
-        <v>0.8810585037711157</v>
+        <v>0.882800556237348</v>
       </c>
       <c r="FD4">
-        <v>0.88260604163456</v>
+        <v>0.8842774702545981</v>
       </c>
       <c r="FE4">
-        <v>0.8829650593260794</v>
+        <v>0.8845445116127477</v>
       </c>
       <c r="FF4">
-        <v>0.8829682956426029</v>
+        <v>0.8845445116127477</v>
       </c>
       <c r="FG4">
-        <v>0.8835447276289865</v>
+        <v>0.8850328732456957</v>
       </c>
       <c r="FH4">
-        <v>0.8868634378505925</v>
+        <v>0.888312779808898</v>
       </c>
       <c r="FI4">
-        <v>0.8936579112900946</v>
+        <v>0.8951308937884953</v>
       </c>
       <c r="FJ4">
-        <v>0.9023316430852052</v>
+        <v>0.9038620281421217</v>
       </c>
       <c r="FK4">
-        <v>0.9120870223547654</v>
+        <v>0.9136942424244143</v>
       </c>
       <c r="FL4">
-        <v>0.9185021042032294</v>
+        <v>0.9201261488124768</v>
       </c>
       <c r="FM4">
-        <v>0.9222121703155909</v>
+        <v>0.9238044422128466</v>
       </c>
       <c r="FN4">
-        <v>0.9227490661029084</v>
+        <v>0.9242525573548854</v>
       </c>
       <c r="FO4">
-        <v>0.9228305169009844</v>
+        <v>0.9242525573548854</v>
       </c>
       <c r="FP4">
-        <v>0.9230712634652976</v>
+        <v>0.9243992027731528</v>
       </c>
       <c r="FQ4">
-        <v>0.9234924970153473</v>
+        <v>0.924729577735541</v>
       </c>
       <c r="FR4">
-        <v>0.9252709702733365</v>
+        <v>0.9264415760420429</v>
       </c>
       <c r="FS4">
-        <v>0.9295868577713874</v>
+        <v>0.9307365747774655</v>
       </c>
       <c r="FT4">
-        <v>0.9353826856344793</v>
+        <v>0.936538101905976</v>
       </c>
       <c r="FU4">
-        <v>0.9380740767709038</v>
+        <v>0.9391794192153973</v>
       </c>
       <c r="FV4">
-        <v>0.9403884259162346</v>
+        <v>0.9414369207452192</v>
       </c>
       <c r="FW4">
-        <v>0.9415465697888772</v>
+        <v>0.9425174450719804</v>
       </c>
       <c r="FX4">
-        <v>0.9416584612812341</v>
+        <v>0.9425329204586161</v>
       </c>
       <c r="FY4">
-        <v>0.942323653235521</v>
+        <v>0.943111636686232</v>
       </c>
       <c r="FZ4">
-        <v>0.9423830169141187</v>
+        <v>0.943111636686232</v>
       </c>
       <c r="GA4">
-        <v>0.9423842283549901</v>
+        <v>0.943111636686232</v>
       </c>
       <c r="GB4">
-        <v>0.9424719164929188</v>
+        <v>0.943111636686232</v>
       </c>
       <c r="GC4">
-        <v>0.9438600122601295</v>
+        <v>0.9444262441330935</v>
       </c>
       <c r="GD4">
-        <v>0.9456261715184096</v>
+        <v>0.9461257072113981</v>
       </c>
       <c r="GE4">
-        <v>0.9519870353681543</v>
+        <v>0.952502421541445</v>
       </c>
       <c r="GF4">
-        <v>0.9558604950766562</v>
+        <v>0.9563470440032074</v>
       </c>
       <c r="GG4">
-        <v>0.9568346644536445</v>
+        <v>0.9572402886206951</v>
       </c>
       <c r="GH4">
-        <v>0.9570352454689064</v>
+        <v>0.9573460468914132</v>
       </c>
       <c r="GI4">
-        <v>0.9579691502468458</v>
+        <v>0.9581983035318605</v>
       </c>
       <c r="GJ4">
-        <v>0.9619787145521326</v>
+        <v>0.9621814757922025</v>
       </c>
       <c r="GK4">
-        <v>0.9676386424184348</v>
+        <v>0.9678446613978917</v>
       </c>
       <c r="GL4">
-        <v>0.9743849492590747</v>
+        <v>0.9746137434364064</v>
       </c>
       <c r="GM4">
-        <v>0.9818802205820227</v>
+        <v>0.9821452455593143</v>
       </c>
       <c r="GN4">
-        <v>0.9853838003992618</v>
+        <v>0.985613343012784</v>
       </c>
       <c r="GO4">
-        <v>0.9857367948109234</v>
+        <v>0.9858742528791927</v>
       </c>
       <c r="GP4">
-        <v>0.9858334840346393</v>
+        <v>0.9858742528791927</v>
       </c>
       <c r="GQ4">
-        <v>0.988300327976368</v>
+        <v>0.9882869888671039</v>
       </c>
       <c r="GR4">
-        <v>0.9931791868611205</v>
+        <v>0.9931550731123189</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001995169916282701</v>
+        <v>0.0001782379096198566</v>
       </c>
       <c r="C5">
-        <v>0.0002544007493253485</v>
+        <v>0.0002112434948892076</v>
       </c>
       <c r="D5">
-        <v>0.0002724630285674556</v>
+        <v>0.0002112434948892076</v>
       </c>
       <c r="E5">
-        <v>0.0003204379915544269</v>
+        <v>0.0002373116682862176</v>
       </c>
       <c r="F5">
-        <v>0.000320441230578891</v>
+        <v>0.0002373116682862176</v>
       </c>
       <c r="G5">
-        <v>0.0004029033271187827</v>
+        <v>0.000298009825608359</v>
       </c>
       <c r="H5">
-        <v>0.000484622153689862</v>
+        <v>0.0003579616342369359</v>
       </c>
       <c r="I5">
-        <v>0.0005300880537821136</v>
+        <v>0.0003815103518613181</v>
       </c>
       <c r="J5">
-        <v>0.0006088674304765322</v>
+        <v>0.0004385105350142291</v>
       </c>
       <c r="K5">
-        <v>0.0007247010196161566</v>
+        <v>0.0005327184141725747</v>
       </c>
       <c r="L5">
-        <v>0.0008532252642232813</v>
+        <v>0.0006396695152100172</v>
       </c>
       <c r="M5">
-        <v>0.00113520467239143</v>
+        <v>0.0009007114118536562</v>
       </c>
       <c r="N5">
-        <v>0.001382827302001188</v>
+        <v>0.001127254219514715</v>
       </c>
       <c r="O5">
-        <v>0.00152987806583094</v>
+        <v>0.001252808579123466</v>
       </c>
       <c r="P5">
-        <v>0.00157356397899788</v>
+        <v>0.001274569936875915</v>
       </c>
       <c r="Q5">
-        <v>0.001610735040438183</v>
+        <v>0.001289789457504619</v>
       </c>
       <c r="R5">
-        <v>0.001628200901705316</v>
+        <v>0.001289789457504619</v>
       </c>
       <c r="S5">
-        <v>0.001662431590268996</v>
+        <v>0.001302056425834505</v>
       </c>
       <c r="T5">
-        <v>0.001670473801931545</v>
+        <v>0.001302056425834505</v>
       </c>
       <c r="U5">
-        <v>0.001692488124007825</v>
+        <v>0.001302056425834505</v>
       </c>
       <c r="V5">
-        <v>0.001695164960495505</v>
+        <v>0.001302056425834505</v>
       </c>
       <c r="W5">
-        <v>0.001695588302637741</v>
+        <v>0.001302056425834505</v>
       </c>
       <c r="X5">
-        <v>0.001715162735816398</v>
+        <v>0.001302056425834505</v>
       </c>
       <c r="Y5">
-        <v>0.001762148477844877</v>
+        <v>0.001327131280786002</v>
       </c>
       <c r="Z5">
-        <v>0.00191192254156036</v>
+        <v>0.001455420220556988</v>
       </c>
       <c r="AA5">
-        <v>0.002138672132045951</v>
+        <v>0.001661003530142354</v>
       </c>
       <c r="AB5">
-        <v>0.002253822451214245</v>
+        <v>0.001754525309132723</v>
       </c>
       <c r="AC5">
-        <v>0.002398618715138596</v>
+        <v>0.001877815830392501</v>
       </c>
       <c r="AD5">
-        <v>0.002567542128050573</v>
+        <v>0.002025333438554663</v>
       </c>
       <c r="AE5">
-        <v>0.002699554052511354</v>
+        <v>0.002135786665887491</v>
       </c>
       <c r="AF5">
-        <v>0.002797162322415713</v>
+        <v>0.00221169373407298</v>
       </c>
       <c r="AG5">
-        <v>0.003068195081043183</v>
+        <v>0.002461743638672802</v>
       </c>
       <c r="AH5">
-        <v>0.003358815008848775</v>
+        <v>0.002731461845155017</v>
       </c>
       <c r="AI5">
-        <v>0.003464696420405993</v>
+        <v>0.00281567632346519</v>
       </c>
       <c r="AJ5">
-        <v>0.003635490893239459</v>
+        <v>0.002965072741732132</v>
       </c>
       <c r="AK5">
-        <v>0.003661932237129981</v>
+        <v>0.002969518100869567</v>
       </c>
       <c r="AL5">
-        <v>0.003662910448288936</v>
+        <v>0.002969518100869567</v>
       </c>
       <c r="AM5">
-        <v>0.003672657206879962</v>
+        <v>0.002969518100869567</v>
       </c>
       <c r="AN5">
-        <v>0.003759458433237784</v>
+        <v>0.003034573361272294</v>
       </c>
       <c r="AO5">
-        <v>0.003875292022377408</v>
+        <v>0.003128781240430639</v>
       </c>
       <c r="AP5">
-        <v>0.00398014187797791</v>
+        <v>0.003211959889939786</v>
       </c>
       <c r="AQ5">
-        <v>0.004190253759161619</v>
+        <v>0.003400836574580778</v>
       </c>
       <c r="AR5">
-        <v>0.004625958020879475</v>
+        <v>0.003816240073911712</v>
       </c>
       <c r="AS5">
-        <v>0.005014226034587755</v>
+        <v>0.004184010837877167</v>
       </c>
       <c r="AT5">
-        <v>0.005521579213299223</v>
+        <v>0.004671360033707767</v>
       </c>
       <c r="AU5">
-        <v>0.006127547287872812</v>
+        <v>0.005257732601638671</v>
       </c>
       <c r="AV5">
-        <v>0.006258641832372087</v>
+        <v>0.005367264649098099</v>
       </c>
       <c r="AW5">
-        <v>0.006311433967156929</v>
+        <v>0.005398169947670181</v>
       </c>
       <c r="AX5">
-        <v>0.006387685493957416</v>
+        <v>0.00545263181023296</v>
       </c>
       <c r="AY5">
-        <v>0.006410672600992878</v>
+        <v>0.00545360862459903</v>
       </c>
       <c r="AZ5">
-        <v>0.006415927660272376</v>
+        <v>0.00545360862459903</v>
       </c>
       <c r="BA5">
-        <v>0.00643365160352868</v>
+        <v>0.00545360862459903</v>
       </c>
       <c r="BB5">
-        <v>0.006438761927314251</v>
+        <v>0.00545360862459903</v>
       </c>
       <c r="BC5">
-        <v>0.006501019048701943</v>
+        <v>0.005494018115028788</v>
       </c>
       <c r="BD5">
-        <v>0.006534998220276178</v>
+        <v>0.005506032524551834</v>
       </c>
       <c r="BE5">
-        <v>0.006577861164477649</v>
+        <v>0.005526967504490038</v>
       </c>
       <c r="BF5">
-        <v>0.006658637201088288</v>
+        <v>0.005585972617994628</v>
       </c>
       <c r="BG5">
-        <v>0.006670399458594743</v>
+        <v>0.005585972617994628</v>
       </c>
       <c r="BH5">
-        <v>0.006753029261127599</v>
+        <v>0.005646839175970641</v>
       </c>
       <c r="BI5">
-        <v>0.006898814355010458</v>
+        <v>0.005771122623056374</v>
       </c>
       <c r="BJ5">
-        <v>0.007052122948577632</v>
+        <v>0.005902960733179808</v>
       </c>
       <c r="BK5">
-        <v>0.007361568565593299</v>
+        <v>0.006191582607423335</v>
       </c>
       <c r="BL5">
-        <v>0.00789412664324717</v>
+        <v>0.006704241104297195</v>
       </c>
       <c r="BM5">
-        <v>0.008204655530217384</v>
+        <v>0.006993950735545951</v>
       </c>
       <c r="BN5">
-        <v>0.008469978789084424</v>
+        <v>0.007238267490865018</v>
       </c>
       <c r="BO5">
-        <v>0.008898817921090341</v>
+        <v>0.007646777424188107</v>
       </c>
       <c r="BP5">
-        <v>0.009086072653233135</v>
+        <v>0.007812702282384997</v>
       </c>
       <c r="BQ5">
-        <v>0.009231857747115995</v>
+        <v>0.007936985729470729</v>
       </c>
       <c r="BR5">
-        <v>0.009320754207385901</v>
+        <v>0.008004144902527823</v>
       </c>
       <c r="BS5">
-        <v>0.009321672512147369</v>
+        <v>0.008004144902527823</v>
       </c>
       <c r="BT5">
-        <v>0.009332010637713582</v>
+        <v>0.008004144902527823</v>
       </c>
       <c r="BU5">
-        <v>0.009441961173100059</v>
+        <v>0.008092445359528582</v>
       </c>
       <c r="BV5">
-        <v>0.009687329862804392</v>
+        <v>0.00831672489116024</v>
       </c>
       <c r="BW5">
-        <v>0.01014032616379667</v>
+        <v>0.008749492055731349</v>
       </c>
       <c r="BX5">
-        <v>0.01059507017471562</v>
+        <v>0.009184014169480051</v>
       </c>
       <c r="BY5">
-        <v>0.01116768485068872</v>
+        <v>0.009736895184521784</v>
       </c>
       <c r="BZ5">
-        <v>0.01165039916043403</v>
+        <v>0.0101995034538581</v>
       </c>
       <c r="CA5">
-        <v>0.01201754422502863</v>
+        <v>0.01054606377459737</v>
       </c>
       <c r="CB5">
-        <v>0.01218542970798416</v>
+        <v>0.0106925391535568</v>
       </c>
       <c r="CC5">
-        <v>0.0122923901234961</v>
+        <v>0.01077783710520204</v>
       </c>
       <c r="CD5">
-        <v>0.01253775881320044</v>
+        <v>0.01100211663683369</v>
       </c>
       <c r="CE5">
-        <v>0.0126985460564538</v>
+        <v>0.01114146437422195</v>
       </c>
       <c r="CF5">
-        <v>0.01274498513050522</v>
+        <v>0.01116599029682368</v>
       </c>
       <c r="CG5">
-        <v>0.01276567288563716</v>
+        <v>0.01116599029682368</v>
       </c>
       <c r="CH5">
-        <v>0.01279836145126555</v>
+        <v>0.01117670875453648</v>
       </c>
       <c r="CI5">
-        <v>0.01280190031341706</v>
+        <v>0.01117670875453648</v>
       </c>
       <c r="CJ5">
-        <v>0.01284044680179965</v>
+        <v>0.01119330939931191</v>
       </c>
       <c r="CK5">
-        <v>0.01289382169656004</v>
+        <v>0.01122479987173019</v>
       </c>
       <c r="CL5">
-        <v>0.01299469884232724</v>
+        <v>0.01130398935590452</v>
       </c>
       <c r="CM5">
-        <v>0.0131419735061476</v>
+        <v>0.01142976854292792</v>
       </c>
       <c r="CN5">
-        <v>0.1201050740179776</v>
+        <v>0.118813819177477</v>
       </c>
       <c r="CO5">
-        <v>0.1671406360443661</v>
+        <v>0.166022103355849</v>
       </c>
       <c r="CP5">
-        <v>0.2190091508679641</v>
+        <v>0.2180833590756643</v>
       </c>
       <c r="CQ5">
-        <v>0.2219300977454012</v>
+        <v>0.2209942994018047</v>
       </c>
       <c r="CR5">
-        <v>0.2602210761387123</v>
+        <v>0.2594217786988213</v>
       </c>
       <c r="CS5">
-        <v>0.2630061952218488</v>
+        <v>0.2621963286135637</v>
       </c>
       <c r="CT5">
-        <v>0.279736462519847</v>
+        <v>0.2789737894334181</v>
       </c>
       <c r="CU5">
-        <v>0.308676391305528</v>
+        <v>0.3080114858104241</v>
       </c>
       <c r="CV5">
-        <v>0.3227858897134937</v>
+        <v>0.322157322160995</v>
       </c>
       <c r="CW5">
-        <v>0.3230634097718489</v>
+        <v>0.3224138862365956</v>
       </c>
       <c r="CX5">
-        <v>0.3319106619006184</v>
+        <v>0.3312756793720638</v>
       </c>
       <c r="CY5">
-        <v>0.3319322929977107</v>
+        <v>0.3312756793720638</v>
       </c>
       <c r="CZ5">
-        <v>0.3403845451430543</v>
+        <v>0.3397408363807437</v>
       </c>
       <c r="DA5">
-        <v>0.3405706789752442</v>
+        <v>0.3399056356960684</v>
       </c>
       <c r="DB5">
-        <v>0.3410761860540331</v>
+        <v>0.3403911311451809</v>
       </c>
       <c r="DC5">
-        <v>0.3424024795983819</v>
+        <v>0.3417008128684204</v>
       </c>
       <c r="DD5">
-        <v>0.3441327758257787</v>
+        <v>0.34341617070847</v>
       </c>
       <c r="DE5">
-        <v>0.3502729375681376</v>
+        <v>0.3495596603229622</v>
       </c>
       <c r="DF5">
-        <v>0.3527519987641162</v>
+        <v>0.3520268846173781</v>
       </c>
       <c r="DG5">
-        <v>0.3581887615359897</v>
+        <v>0.3574640616877012</v>
       </c>
       <c r="DH5">
-        <v>0.3592929388896585</v>
+        <v>0.3585507071849535</v>
       </c>
       <c r="DI5">
-        <v>0.3593583251769149</v>
+        <v>0.3585942588026803</v>
       </c>
       <c r="DJ5">
-        <v>0.3604127143326727</v>
+        <v>0.3596309098725711</v>
       </c>
       <c r="DK5">
-        <v>0.362102388061774</v>
+        <v>0.3613054769504424</v>
       </c>
       <c r="DL5">
-        <v>0.368976986773316</v>
+        <v>0.3681864456713904</v>
       </c>
       <c r="DM5">
-        <v>0.3730839962009859</v>
+        <v>0.372288361379284</v>
       </c>
       <c r="DN5">
-        <v>0.3736729206762747</v>
+        <v>0.3728576197510364</v>
       </c>
       <c r="DO5">
-        <v>0.3737127509986034</v>
+        <v>0.3728755095475718</v>
       </c>
       <c r="DP5">
-        <v>0.3740589821440756</v>
+        <v>0.3732010693209066</v>
       </c>
       <c r="DQ5">
-        <v>0.3751789583970814</v>
+        <v>0.3743035791586741</v>
       </c>
       <c r="DR5">
-        <v>0.3810475431508357</v>
+        <v>0.380174366875939</v>
       </c>
       <c r="DS5">
-        <v>0.3903856157590103</v>
+        <v>0.3895290135356308</v>
       </c>
       <c r="DT5">
-        <v>0.3944402195888791</v>
+        <v>0.3935783065746484</v>
       </c>
       <c r="DU5">
-        <v>0.3946235936611848</v>
+        <v>0.3937403346987902</v>
       </c>
       <c r="DV5">
-        <v>0.3948097554933734</v>
+        <v>0.3939051621300935</v>
       </c>
       <c r="DW5">
-        <v>0.3949316027922607</v>
+        <v>0.3940054086285987</v>
       </c>
       <c r="DX5">
-        <v>0.4127094290463034</v>
+        <v>0.4118347675353956</v>
       </c>
       <c r="DY5">
-        <v>0.4310022892787353</v>
+        <v>0.4301812937609881</v>
       </c>
       <c r="DZ5">
-        <v>0.44739184159103</v>
+        <v>0.44661662830758</v>
       </c>
       <c r="EA5">
-        <v>0.4718579225644336</v>
+        <v>0.4711619455894979</v>
       </c>
       <c r="EB5">
-        <v>0.4817405991497566</v>
+        <v>0.4810634520496794</v>
       </c>
       <c r="EC5">
-        <v>0.4818159400565953</v>
+        <v>0.4811169995203693</v>
       </c>
       <c r="ED5">
-        <v>0.4819040839728968</v>
+        <v>0.4811834030323191</v>
       </c>
       <c r="EE5">
-        <v>0.4828139568747186</v>
+        <v>0.4820749392424015</v>
       </c>
       <c r="EF5">
-        <v>0.4860536227387822</v>
+        <v>0.4853059187323238</v>
       </c>
       <c r="EG5">
-        <v>0.4992502211850531</v>
+        <v>0.4985350737660716</v>
       </c>
       <c r="EH5">
-        <v>0.5066514788744965</v>
+        <v>0.5059448829576481</v>
       </c>
       <c r="EI5">
-        <v>0.5197375773254039</v>
+        <v>0.5190630802901045</v>
       </c>
       <c r="EJ5">
-        <v>0.5449245822685576</v>
+        <v>0.5443323077063736</v>
       </c>
       <c r="EK5">
-        <v>0.5696225012322332</v>
+        <v>0.5691104232828798</v>
       </c>
       <c r="EL5">
-        <v>0.5719232281356947</v>
+        <v>0.571398574600016</v>
       </c>
       <c r="EM5">
-        <v>0.5747923113153081</v>
+        <v>0.5742574364018806</v>
       </c>
       <c r="EN5">
-        <v>0.5902196946679753</v>
+        <v>0.5897266165548628</v>
       </c>
       <c r="EO5">
-        <v>0.6154943316074519</v>
+        <v>0.6150838389510376</v>
       </c>
       <c r="EP5">
-        <v>0.6369777007060101</v>
+        <v>0.6366340895620564</v>
       </c>
       <c r="EQ5">
-        <v>0.6501293381541676</v>
+        <v>0.6498180973631548</v>
       </c>
       <c r="ER5">
-        <v>0.659714579751971</v>
+        <v>0.6594209368198647</v>
       </c>
       <c r="ES5">
-        <v>0.6701658873134343</v>
+        <v>0.6698934296026077</v>
       </c>
       <c r="ET5">
-        <v>0.6754122944932951</v>
+        <v>0.6751394626023067</v>
       </c>
       <c r="EU5">
-        <v>0.6766432677416435</v>
+        <v>0.676353429199986</v>
       </c>
       <c r="EV5">
-        <v>0.6786052956593168</v>
+        <v>0.6783014785943194</v>
       </c>
       <c r="EW5">
-        <v>0.7018178336853191</v>
+        <v>0.7015880605843825</v>
       </c>
       <c r="EX5">
-        <v>0.7491166417006618</v>
+        <v>0.7490606811522039</v>
       </c>
       <c r="EY5">
-        <v>0.7953466127608529</v>
+        <v>0.7954600374976251</v>
       </c>
       <c r="EZ5">
-        <v>0.8263310564607462</v>
+        <v>0.826550717446177</v>
       </c>
       <c r="FA5">
-        <v>0.8393538869143085</v>
+        <v>0.839605384716685</v>
       </c>
       <c r="FB5">
-        <v>0.8412555214345159</v>
+        <v>0.8414927905559308</v>
       </c>
       <c r="FC5">
-        <v>0.8428381118681104</v>
+        <v>0.8430598307848003</v>
       </c>
       <c r="FD5">
-        <v>0.8494999545885796</v>
+        <v>0.8497271622505813</v>
       </c>
       <c r="FE5">
-        <v>0.8577144422438998</v>
+        <v>0.857953569916558</v>
       </c>
       <c r="FF5">
-        <v>0.8700147907277774</v>
+        <v>0.8702827625993336</v>
       </c>
       <c r="FG5">
-        <v>0.8830397281812512</v>
+        <v>0.8833395455972318</v>
       </c>
       <c r="FH5">
-        <v>0.897175794588102</v>
+        <v>0.8975120599949331</v>
       </c>
       <c r="FI5">
-        <v>0.9083109681208703</v>
+        <v>0.90867125141434</v>
       </c>
       <c r="FJ5">
-        <v>0.9194959726515477</v>
+        <v>0.91988048023839</v>
       </c>
       <c r="FK5">
-        <v>0.9231930376964189</v>
+        <v>0.9235707535183986</v>
       </c>
       <c r="FL5">
-        <v>0.9251777514131404</v>
+        <v>0.9255415826794284</v>
       </c>
       <c r="FM5">
-        <v>0.9252705573092462</v>
+        <v>0.9256126674817335</v>
       </c>
       <c r="FN5">
-        <v>0.9268745140419442</v>
+        <v>0.9272011625118076</v>
       </c>
       <c r="FO5">
-        <v>0.93125402425818</v>
+        <v>0.9315767077433942</v>
       </c>
       <c r="FP5">
-        <v>0.9406039918658555</v>
+        <v>0.9409432986732839</v>
       </c>
       <c r="FQ5">
-        <v>0.9533012213330799</v>
+        <v>0.953671016274125</v>
       </c>
       <c r="FR5">
-        <v>0.9615456629871433</v>
+        <v>0.9619275020123594</v>
       </c>
       <c r="FS5">
-        <v>0.9662302597905776</v>
+        <v>0.9666093975410575</v>
       </c>
       <c r="FT5">
-        <v>0.9689605596760142</v>
+        <v>0.9693289011895679</v>
       </c>
       <c r="FU5">
-        <v>0.9690876926506797</v>
+        <v>0.9694344552578354</v>
       </c>
       <c r="FV5">
-        <v>0.9691110648466991</v>
+        <v>0.969435818756276</v>
       </c>
       <c r="FW5">
-        <v>0.9693720630057476</v>
+        <v>0.9696757924966281</v>
       </c>
       <c r="FX5">
-        <v>0.9700749742762534</v>
+        <v>0.9703595098123222</v>
       </c>
       <c r="FY5">
-        <v>0.9711540803309742</v>
+        <v>0.9714209801619148</v>
       </c>
       <c r="FZ5">
-        <v>0.9716805034088855</v>
+        <v>0.9719274782470473</v>
       </c>
       <c r="GA5">
-        <v>0.972333231921497</v>
+        <v>0.9725608049410757</v>
       </c>
       <c r="GB5">
-        <v>0.9723743671067709</v>
+        <v>0.9725800050054751</v>
       </c>
       <c r="GC5">
-        <v>0.9724588717132251</v>
+        <v>0.9726427541330639</v>
       </c>
       <c r="GD5">
-        <v>0.9728601381363879</v>
+        <v>0.9730235771476542</v>
       </c>
       <c r="GE5">
-        <v>0.9729300615994539</v>
+        <v>0.9730716847347866</v>
       </c>
       <c r="GF5">
-        <v>0.973149459890248</v>
+        <v>0.9732698862946026</v>
       </c>
       <c r="GG5">
-        <v>0.9733283898427402</v>
+        <v>0.9734274518907855</v>
       </c>
       <c r="GH5">
-        <v>0.9733287249286261</v>
+        <v>0.9734274518907855</v>
       </c>
       <c r="GI5">
-        <v>0.9735176955406969</v>
+        <v>0.9735950997363172</v>
       </c>
       <c r="GJ5">
-        <v>0.973518217444175</v>
+        <v>0.9735950997363172</v>
       </c>
       <c r="GK5">
-        <v>0.9745679502001282</v>
+        <v>0.9746270751189655</v>
       </c>
       <c r="GL5">
-        <v>0.9791965664059116</v>
+        <v>0.9792527581708046</v>
       </c>
       <c r="GM5">
-        <v>0.9840040822041883</v>
+        <v>0.9840580818414487</v>
       </c>
       <c r="GN5">
-        <v>0.9866072993949574</v>
+        <v>0.9866499764015799</v>
       </c>
       <c r="GO5">
-        <v>0.9866169886115508</v>
+        <v>0.9866499764015799</v>
       </c>
       <c r="GP5">
-        <v>0.9876148186696818</v>
+        <v>0.9876298340984109</v>
       </c>
       <c r="GQ5">
-        <v>0.9945762436775806</v>
+        <v>0.99459798876198</v>
       </c>
       <c r="GR5">
-        <v>0.9993935774754453</v>
+        <v>0.9994131710996945</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001680010989463509</v>
+        <v>0.0001547099719831911</v>
       </c>
       <c r="C6">
-        <v>0.0002970075981372634</v>
+        <v>0.000270324338759389</v>
       </c>
       <c r="D6">
-        <v>0.0004044341674635183</v>
+        <v>0.0003643028784294094</v>
       </c>
       <c r="E6">
-        <v>0.0005368278366331876</v>
+        <v>0.000483313188774434</v>
       </c>
       <c r="F6">
-        <v>0.0005816640063519894</v>
+        <v>0.0005145392045527413</v>
       </c>
       <c r="G6">
-        <v>0.0006652892658275185</v>
+        <v>0.0005846547832186929</v>
       </c>
       <c r="H6">
-        <v>0.0006764515317575124</v>
+        <v>0.0005846547832186929</v>
       </c>
       <c r="I6">
-        <v>0.0006970163916285362</v>
+        <v>0.0005915466205821288</v>
       </c>
       <c r="J6">
-        <v>0.0007004812244068058</v>
+        <v>0.0005915466205821288</v>
       </c>
       <c r="K6">
-        <v>0.0007364892911809747</v>
+        <v>0.0006139216664924373</v>
       </c>
       <c r="L6">
-        <v>0.0007501801190951102</v>
+        <v>0.0006139216664924373</v>
       </c>
       <c r="M6">
-        <v>0.0008472492784863235</v>
+        <v>0.000697515968028794</v>
       </c>
       <c r="N6">
-        <v>0.0009872100476085344</v>
+        <v>0.0008241129789467656</v>
       </c>
       <c r="O6">
-        <v>0.001125731226739774</v>
+        <v>0.0009492666709872532</v>
       </c>
       <c r="P6">
-        <v>0.001202675726257203</v>
+        <v>0.001012684184909813</v>
       </c>
       <c r="Q6">
-        <v>0.001323925835496761</v>
+        <v>0.001120522070807338</v>
       </c>
       <c r="R6">
-        <v>0.001355186263300705</v>
+        <v>0.001138137180213379</v>
       </c>
       <c r="S6">
-        <v>0.001387132523100349</v>
+        <v>0.001156439898085985</v>
       </c>
       <c r="T6">
-        <v>0.001460451672640514</v>
+        <v>0.001216222671497366</v>
       </c>
       <c r="U6">
-        <v>0.001539396442145398</v>
+        <v>0.001281645636590791</v>
       </c>
       <c r="V6">
-        <v>0.001550805196073846</v>
+        <v>0.001281645636590791</v>
       </c>
       <c r="W6">
-        <v>0.001634463925549165</v>
+        <v>0.001351794771951933</v>
       </c>
       <c r="X6">
-        <v>0.001736752778907642</v>
+        <v>0.001440622287726295</v>
       </c>
       <c r="Y6">
-        <v>0.001739771952088707</v>
+        <v>0.001440622287726295</v>
       </c>
       <c r="Z6">
-        <v>0.001740169946226211</v>
+        <v>0.001440622287726295</v>
       </c>
       <c r="AA6">
-        <v>0.001740223697155874</v>
+        <v>0.001440622287726295</v>
       </c>
       <c r="AB6">
-        <v>0.001776524143928209</v>
+        <v>0.001463290470969732</v>
       </c>
       <c r="AC6">
-        <v>0.001803989113755958</v>
+        <v>0.001477100291244771</v>
       </c>
       <c r="AD6">
-        <v>0.001806627437139411</v>
+        <v>0.001477100291244771</v>
       </c>
       <c r="AE6">
-        <v>0.001811388575509551</v>
+        <v>0.001477100291244771</v>
       </c>
       <c r="AF6">
-        <v>0.00183275138337557</v>
+        <v>0.001484792143481644</v>
       </c>
       <c r="AG6">
-        <v>0.001852301610252957</v>
+        <v>0.00149066671970641</v>
       </c>
       <c r="AH6">
-        <v>0.001878235788090306</v>
+        <v>0.001502941782869284</v>
       </c>
       <c r="AI6">
-        <v>0.001961224747569826</v>
+        <v>0.001572419413368228</v>
       </c>
       <c r="AJ6">
-        <v>0.002023887427176826</v>
+        <v>0.001621518114010042</v>
       </c>
       <c r="AK6">
-        <v>0.002071447891878542</v>
+        <v>0.001655475481354654</v>
       </c>
       <c r="AL6">
-        <v>0.002153961221361044</v>
+        <v>0.001724476249859767</v>
       </c>
       <c r="AM6">
-        <v>0.002221402440938075</v>
+        <v>0.001778365868046725</v>
       </c>
       <c r="AN6">
-        <v>0.002268603007642048</v>
+        <v>0.00181196240517067</v>
       </c>
       <c r="AO6">
-        <v>0.002327729974271222</v>
+        <v>0.001857516234482268</v>
       </c>
       <c r="AP6">
-        <v>0.002371061869999459</v>
+        <v>0.001887234079836283</v>
       </c>
       <c r="AQ6">
-        <v>0.00240038396581556</v>
+        <v>0.00190290583650548</v>
       </c>
       <c r="AR6">
-        <v>0.002400569244494398</v>
+        <v>0.00190290583650548</v>
       </c>
       <c r="AS6">
-        <v>0.002472995720040162</v>
+        <v>0.001961793623680754</v>
       </c>
       <c r="AT6">
-        <v>0.06681078531653413</v>
+        <v>0.06645250737696951</v>
       </c>
       <c r="AU6">
-        <v>0.06736667451304777</v>
+        <v>0.06699611017057648</v>
       </c>
       <c r="AV6">
-        <v>0.148768268002523</v>
+        <v>0.1485948271990242</v>
       </c>
       <c r="AW6">
-        <v>0.1540079707696613</v>
+        <v>0.1538343757740662</v>
       </c>
       <c r="AX6">
-        <v>0.1763759076293767</v>
+        <v>0.1762465247136745</v>
       </c>
       <c r="AY6">
-        <v>0.1877148835582623</v>
+        <v>0.1876011450442107</v>
       </c>
       <c r="AZ6">
-        <v>0.1925729695277939</v>
+        <v>0.1924580883417744</v>
       </c>
       <c r="BA6">
-        <v>0.2260852413176157</v>
+        <v>0.2260434387363144</v>
       </c>
       <c r="BB6">
-        <v>0.2445498792018114</v>
+        <v>0.2445421782113084</v>
       </c>
       <c r="BC6">
-        <v>0.245852933493639</v>
+        <v>0.2458348814386688</v>
       </c>
       <c r="BD6">
-        <v>0.248998833073909</v>
+        <v>0.2489752033698078</v>
       </c>
       <c r="BE6">
-        <v>0.2544549267396901</v>
+        <v>0.2544317033482951</v>
       </c>
       <c r="BF6">
-        <v>0.2628871746868057</v>
+        <v>0.2628720665680489</v>
       </c>
       <c r="BG6">
-        <v>0.2648288541746281</v>
+        <v>0.2648050491852335</v>
       </c>
       <c r="BH6">
-        <v>0.2650163666734521</v>
+        <v>0.2649793210963425</v>
       </c>
       <c r="BI6">
-        <v>0.2650369315333231</v>
+        <v>0.2649862129337059</v>
       </c>
       <c r="BJ6">
-        <v>0.2685056862115682</v>
+        <v>0.2684502262356672</v>
       </c>
       <c r="BK6">
-        <v>0.2725641915861146</v>
+        <v>0.2725055178309754</v>
       </c>
       <c r="BL6">
-        <v>0.2755625063673101</v>
+        <v>0.2754978726826892</v>
       </c>
       <c r="BM6">
-        <v>0.2810459399329198</v>
+        <v>0.2809817833779628</v>
       </c>
       <c r="BN6">
-        <v>0.2837729756158167</v>
+        <v>0.2837021564528535</v>
       </c>
       <c r="BO6">
-        <v>0.2837730293667463</v>
+        <v>0.2837021564528535</v>
       </c>
       <c r="BP6">
-        <v>0.2851013703584154</v>
+        <v>0.2850202118787283</v>
       </c>
       <c r="BQ6">
-        <v>0.2861099504520899</v>
+        <v>0.2860176781484883</v>
       </c>
       <c r="BR6">
-        <v>0.2898975450283353</v>
+        <v>0.2898013572209572</v>
       </c>
       <c r="BS6">
-        <v>0.295187564995158</v>
+        <v>0.2950913533294094</v>
       </c>
       <c r="BT6">
-        <v>0.2965331118867192</v>
+        <v>0.2964266592226216</v>
       </c>
       <c r="BU6">
-        <v>0.2968723519545916</v>
+        <v>0.2967530517139067</v>
       </c>
       <c r="BV6">
-        <v>0.2968787557540514</v>
+        <v>0.2967530517139067</v>
       </c>
       <c r="BW6">
-        <v>0.2981862177458514</v>
+        <v>0.2980501740582493</v>
       </c>
       <c r="BX6">
-        <v>0.3000562199341233</v>
+        <v>0.299911293714329</v>
       </c>
       <c r="BY6">
-        <v>0.310110198871068</v>
+        <v>0.3099775885996965</v>
       </c>
       <c r="BZ6">
-        <v>0.3150868313398562</v>
+        <v>0.3149533854606426</v>
       </c>
       <c r="CA6">
-        <v>0.3158448280851022</v>
+        <v>0.315699619310451</v>
       </c>
       <c r="CB6">
-        <v>0.3159170752046491</v>
+        <v>0.315758327277052</v>
       </c>
       <c r="CC6">
-        <v>0.3164270241414509</v>
+        <v>0.3162558708145551</v>
       </c>
       <c r="CD6">
-        <v>0.3249459150880232</v>
+        <v>0.3247831014601051</v>
       </c>
       <c r="CE6">
-        <v>0.3450393109620038</v>
+        <v>0.3449148178022995</v>
       </c>
       <c r="CF6">
-        <v>0.3556409118955139</v>
+        <v>0.3555301531577492</v>
       </c>
       <c r="CG6">
-        <v>0.3788533877499327</v>
+        <v>0.378789028652468</v>
       </c>
       <c r="CH6">
-        <v>0.3974228776334708</v>
+        <v>0.3973928917188609</v>
       </c>
       <c r="CI6">
-        <v>0.3989270498240371</v>
+        <v>0.398887233788996</v>
       </c>
       <c r="CJ6">
-        <v>0.3989436391059331</v>
+        <v>0.3988901397506752</v>
       </c>
       <c r="CK6">
-        <v>0.3992011249743183</v>
+        <v>0.3991345662793087</v>
       </c>
       <c r="CL6">
-        <v>0.4022731704550513</v>
+        <v>0.4022008428109176</v>
       </c>
       <c r="CM6">
-        <v>0.4121756873929459</v>
+        <v>0.4121152833739979</v>
       </c>
       <c r="CN6">
-        <v>0.4195604433466311</v>
+        <v>0.4195054413425251</v>
       </c>
       <c r="CO6">
-        <v>0.4293660772851333</v>
+        <v>0.4293227479557953</v>
       </c>
       <c r="CP6">
-        <v>0.4493257691599525</v>
+        <v>0.4493204139731088</v>
       </c>
       <c r="CQ6">
-        <v>0.4794929569707536</v>
+        <v>0.4795520158114839</v>
       </c>
       <c r="CR6">
-        <v>0.4905530419013883</v>
+        <v>0.4906270227485814</v>
       </c>
       <c r="CS6">
-        <v>0.4905556802247717</v>
+        <v>0.4906270227485814</v>
       </c>
       <c r="CT6">
-        <v>0.4996918111674728</v>
+        <v>0.4997730921912459</v>
       </c>
       <c r="CU6">
-        <v>0.5184207660500108</v>
+        <v>0.5185368333095828</v>
       </c>
       <c r="CV6">
-        <v>0.5414213009057588</v>
+        <v>0.5415832188271463</v>
       </c>
       <c r="CW6">
-        <v>0.5545579028233703</v>
+        <v>0.5547401214328136</v>
       </c>
       <c r="CX6">
-        <v>0.5643242457621189</v>
+        <v>0.5645180352731309</v>
       </c>
       <c r="CY6">
-        <v>0.5761016526882548</v>
+        <v>0.5763122222433175</v>
       </c>
       <c r="CZ6">
-        <v>0.5831506502440457</v>
+        <v>0.5833657521184334</v>
       </c>
       <c r="DA6">
-        <v>0.5866574885220519</v>
+        <v>0.5868679476658969</v>
       </c>
       <c r="DB6">
-        <v>0.5866934746318262</v>
+        <v>0.5868903006979334</v>
       </c>
       <c r="DC6">
-        <v>0.5971962305659563</v>
+        <v>0.5974065350215303</v>
       </c>
       <c r="DD6">
-        <v>0.6351235503280883</v>
+        <v>0.6354183694312397</v>
       </c>
       <c r="DE6">
-        <v>0.6800838480461118</v>
+        <v>0.6804813989119967</v>
       </c>
       <c r="DF6">
-        <v>0.7124855978428983</v>
+        <v>0.7129533507927506</v>
       </c>
       <c r="DG6">
-        <v>0.7299897077331181</v>
+        <v>0.7304890742737797</v>
       </c>
       <c r="DH6">
-        <v>0.7356681606975046</v>
+        <v>0.7361685095152752</v>
       </c>
       <c r="DI6">
-        <v>0.7357041687642788</v>
+        <v>0.7361908845611855</v>
       </c>
       <c r="DJ6">
-        <v>0.7392909283417838</v>
+        <v>0.7397732084236575</v>
       </c>
       <c r="DK6">
-        <v>0.7458822861004449</v>
+        <v>0.7463679131038027</v>
       </c>
       <c r="DL6">
-        <v>0.7525645130585361</v>
+        <v>0.7530537223565984</v>
       </c>
       <c r="DM6">
-        <v>0.7650813669800344</v>
+        <v>0.7655892716688398</v>
       </c>
       <c r="DN6">
-        <v>0.7764760874085703</v>
+        <v>0.7769997808907728</v>
       </c>
       <c r="DO6">
-        <v>0.7887987123312867</v>
+        <v>0.7893405981041147</v>
       </c>
       <c r="DP6">
-        <v>0.8005572122575412</v>
+        <v>0.8011158291007139</v>
       </c>
       <c r="DQ6">
-        <v>0.8074028412146076</v>
+        <v>0.8079654636032116</v>
       </c>
       <c r="DR6">
-        <v>0.8097483379998974</v>
+        <v>0.8103033095024034</v>
       </c>
       <c r="DS6">
-        <v>0.8107631321935329</v>
+        <v>0.8113070059681474</v>
       </c>
       <c r="DT6">
-        <v>0.8109340828224607</v>
+        <v>0.8114646731101086</v>
       </c>
       <c r="DU6">
-        <v>0.8132853142077145</v>
+        <v>0.8138082684632663</v>
       </c>
       <c r="DV6">
-        <v>0.8186567725740265</v>
+        <v>0.8191799139163737</v>
       </c>
       <c r="DW6">
-        <v>0.8304962784997729</v>
+        <v>0.83103636073761</v>
       </c>
       <c r="DX6">
-        <v>0.8410723924334429</v>
+        <v>0.8416261430757211</v>
       </c>
       <c r="DY6">
-        <v>0.8469228620967506</v>
+        <v>0.8474780405810227</v>
       </c>
       <c r="DZ6">
-        <v>0.8499238401779294</v>
+        <v>0.8504730656313114</v>
       </c>
       <c r="EA6">
-        <v>0.8503505188352535</v>
+        <v>0.8508871231991584</v>
       </c>
       <c r="EB6">
-        <v>0.8504115654798706</v>
+        <v>0.8509346016788886</v>
       </c>
       <c r="EC6">
-        <v>0.8507495227077511</v>
+        <v>0.8512597080073157</v>
       </c>
       <c r="ED6">
-        <v>0.8512810303044176</v>
+        <v>0.8517788660468306</v>
       </c>
       <c r="EE6">
-        <v>0.8523424291977608</v>
+        <v>0.8528292879297347</v>
       </c>
       <c r="EF6">
-        <v>0.8530166107535325</v>
+        <v>0.8534914894884416</v>
       </c>
       <c r="EG6">
-        <v>0.8537414895489863</v>
+        <v>0.8542045196049519</v>
       </c>
       <c r="EH6">
-        <v>0.8537920044156695</v>
+        <v>0.8542414390268942</v>
       </c>
       <c r="EI6">
-        <v>0.8538385142393778</v>
+        <v>0.8542743430318309</v>
       </c>
       <c r="EJ6">
-        <v>0.8540814482578543</v>
+        <v>0.8545041800177424</v>
       </c>
       <c r="EK6">
-        <v>0.8542093111370523</v>
+        <v>0.8546186478022733</v>
       </c>
       <c r="EL6">
-        <v>0.8543835151859598</v>
+        <v>0.8547795767913593</v>
       </c>
       <c r="EM6">
-        <v>0.854383960815157</v>
+        <v>0.8547795767913593</v>
       </c>
       <c r="EN6">
-        <v>0.854390497610116</v>
+        <v>0.8547795767913593</v>
       </c>
       <c r="EO6">
-        <v>0.8552191655049188</v>
+        <v>0.855596664846107</v>
       </c>
       <c r="EP6">
-        <v>0.8552253941024798</v>
+        <v>0.855596664846107</v>
       </c>
       <c r="EQ6">
-        <v>0.8561934312964086</v>
+        <v>0.856553483200198</v>
       </c>
       <c r="ER6">
-        <v>0.860310761270586</v>
+        <v>0.8606677517650881</v>
       </c>
       <c r="ES6">
-        <v>0.8661839152337515</v>
+        <v>0.8665423923280745</v>
       </c>
       <c r="ET6">
-        <v>0.8693700214137693</v>
+        <v>0.8697230250037863</v>
       </c>
       <c r="EU6">
-        <v>0.8697739707112359</v>
+        <v>0.8701142943372324</v>
       </c>
       <c r="EV6">
-        <v>0.8701045989791623</v>
+        <v>0.8704320527219254</v>
       </c>
       <c r="EW6">
-        <v>0.8745111249515259</v>
+        <v>0.8748362663726336</v>
       </c>
       <c r="EX6">
-        <v>0.8799212425175954</v>
+        <v>0.8802466711621829</v>
       </c>
       <c r="EY6">
-        <v>0.8817190086063204</v>
+        <v>0.8820353676097339</v>
       </c>
       <c r="EZ6">
-        <v>0.8820411357643001</v>
+        <v>0.8823446028645477</v>
       </c>
       <c r="FA6">
-        <v>0.8838760400527922</v>
+        <v>0.8841705337087921</v>
       </c>
       <c r="FB6">
-        <v>0.8860941720388807</v>
+        <v>0.8863806849031255</v>
       </c>
       <c r="FC6">
-        <v>0.8907090383099378</v>
+        <v>0.890993778504327</v>
       </c>
       <c r="FD6">
-        <v>0.8931491620946341</v>
+        <v>0.8934264965097571</v>
       </c>
       <c r="FE6">
-        <v>0.894150675288353</v>
+        <v>0.8944168775745801</v>
       </c>
       <c r="FF6">
-        <v>0.8946478007252352</v>
+        <v>0.8949015643961951</v>
       </c>
       <c r="FG6">
-        <v>0.8947162475548059</v>
+        <v>0.894956462229149</v>
       </c>
       <c r="FH6">
-        <v>0.8962000689454999</v>
+        <v>0.8964304007859144</v>
       </c>
       <c r="FI6">
-        <v>0.9011890039142109</v>
+        <v>0.9014185320132357</v>
       </c>
       <c r="FJ6">
-        <v>0.9081051668708349</v>
+        <v>0.9083388832154219</v>
       </c>
       <c r="FK6">
-        <v>0.916519481818063</v>
+        <v>0.916761266984478</v>
       </c>
       <c r="FL6">
-        <v>0.9227780872788111</v>
+        <v>0.9230223574577198</v>
       </c>
       <c r="FM6">
-        <v>0.9255231637615948</v>
+        <v>0.9257608180625355</v>
       </c>
       <c r="FN6">
-        <v>0.9260663022581884</v>
+        <v>0.9262916371288235</v>
       </c>
       <c r="FO6">
-        <v>0.9261810759574686</v>
+        <v>0.9263929818292923</v>
       </c>
       <c r="FP6">
-        <v>0.9263976047261105</v>
+        <v>0.9265963451693812</v>
       </c>
       <c r="FQ6">
-        <v>0.9265811315749595</v>
+        <v>0.926766621106717</v>
       </c>
       <c r="FR6">
-        <v>0.9272431501108075</v>
+        <v>0.9274166281403347</v>
       </c>
       <c r="FS6">
-        <v>0.9301149481927965</v>
+        <v>0.9302821385839691</v>
       </c>
       <c r="FT6">
-        <v>0.9346661017642531</v>
+        <v>0.9348313544542574</v>
       </c>
       <c r="FU6">
-        <v>0.9362740724541685</v>
+        <v>0.936429763886978</v>
       </c>
       <c r="FV6">
-        <v>0.9380718385428934</v>
+        <v>0.9382184603345289</v>
       </c>
       <c r="FW6">
-        <v>0.9386695788391446</v>
+        <v>0.9388040226323513</v>
       </c>
       <c r="FX6">
-        <v>0.9387319947987531</v>
+        <v>0.9388528739739301</v>
       </c>
       <c r="FY6">
-        <v>0.9391530078661127</v>
+        <v>0.9392612512765633</v>
       </c>
       <c r="FZ6">
-        <v>0.9392263270156528</v>
+        <v>0.9393210340499747</v>
       </c>
       <c r="GA6">
-        <v>0.9392313662911211</v>
+        <v>0.9393210340499747</v>
       </c>
       <c r="GB6">
-        <v>0.9394009524200575</v>
+        <v>0.9394773331575592</v>
       </c>
       <c r="GC6">
-        <v>0.9407831864113886</v>
+        <v>0.9408494211790093</v>
       </c>
       <c r="GD6">
-        <v>0.9429319268979124</v>
+        <v>0.9429900011329986</v>
       </c>
       <c r="GE6">
-        <v>0.9508936678479789</v>
+        <v>0.9509586386287002</v>
       </c>
       <c r="GF6">
-        <v>0.9556948275178676</v>
+        <v>0.9557585081737265</v>
       </c>
       <c r="GG6">
-        <v>0.9572076575083797</v>
+        <v>0.9572615304696047</v>
       </c>
       <c r="GH6">
-        <v>0.9576328973857127</v>
+        <v>0.9576741455306722</v>
       </c>
       <c r="GI6">
-        <v>0.9585007546802697</v>
+        <v>0.9585305244952048</v>
       </c>
       <c r="GJ6">
-        <v>0.9623542880561016</v>
+        <v>0.9623803131647108</v>
       </c>
       <c r="GK6">
-        <v>0.9680606320203132</v>
+        <v>0.9680877116504717</v>
       </c>
       <c r="GL6">
-        <v>0.9756234949728814</v>
+        <v>0.9756564379581176</v>
       </c>
       <c r="GM6">
-        <v>0.9836541379225158</v>
+        <v>0.983694155926243</v>
       </c>
       <c r="GN6">
-        <v>0.9876904675972012</v>
+        <v>0.9877272143812602</v>
       </c>
       <c r="GO6">
-        <v>0.988012594755181</v>
+        <v>0.9880364496360741</v>
       </c>
       <c r="GP6">
-        <v>0.9881338045744208</v>
+        <v>0.988144247127611</v>
       </c>
       <c r="GQ6">
-        <v>0.9899115194632715</v>
+        <v>0.9899128404378268</v>
       </c>
       <c r="GR6">
-        <v>0.9941041180369768</v>
+        <v>0.9941025725661355</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>98</v>
       </c>
       <c r="E2">
-        <v>0.01073481150792281</v>
+        <v>0.01001842340203877</v>
       </c>
       <c r="F2">
-        <v>0.510662704111662</v>
+        <v>0.5107758443165034</v>
       </c>
       <c r="G2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>19</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>98</v>
       </c>
       <c r="E3">
-        <v>0.007532365960678495</v>
+        <v>0.02104859508697245</v>
       </c>
       <c r="F3">
-        <v>0.504066627674665</v>
+        <v>0.5041784255946574</v>
       </c>
       <c r="G3">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>98</v>
       </c>
       <c r="E4">
-        <v>0.007208436608231653</v>
+        <v>0.05177756011071748</v>
       </c>
       <c r="F4">
-        <v>0.5026484256828535</v>
+        <v>0.5033871600579075</v>
       </c>
       <c r="G4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4">
         <v>19</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>137</v>
       </c>
       <c r="E5">
-        <v>0.01284044680179965</v>
+        <v>0.01130398935590452</v>
       </c>
       <c r="F5">
-        <v>0.5066514788744965</v>
+        <v>0.5059448829576481</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>98</v>
       </c>
       <c r="E6">
-        <v>0.002400569244494398</v>
+        <v>0.06645250737696951</v>
       </c>
       <c r="F6">
-        <v>0.5184207660500108</v>
+        <v>0.5185368333095828</v>
       </c>
       <c r="G6">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H6">
         <v>19</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>109</v>
       </c>
       <c r="E2">
-        <v>0.01073481150792281</v>
+        <v>0.01001842340203877</v>
       </c>
       <c r="F2">
-        <v>0.7020631481473382</v>
+        <v>0.7026781972963692</v>
       </c>
       <c r="G2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H2">
         <v>19</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E3">
-        <v>0.007532365960678495</v>
+        <v>0.02104859508697245</v>
       </c>
       <c r="F3">
-        <v>0.7200816439103833</v>
+        <v>0.7007227484117688</v>
       </c>
       <c r="G3">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>110</v>
       </c>
       <c r="E4">
-        <v>0.007208436608231653</v>
+        <v>0.05177756011071748</v>
       </c>
       <c r="F4">
-        <v>0.7105300824023089</v>
+        <v>0.7138224214215197</v>
       </c>
       <c r="G4">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H4">
         <v>19</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>152</v>
       </c>
       <c r="E5">
-        <v>0.01284044680179965</v>
+        <v>0.01130398935590452</v>
       </c>
       <c r="F5">
-        <v>0.7018178336853191</v>
+        <v>0.7015880605843825</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>109</v>
       </c>
       <c r="E6">
-        <v>0.002400569244494398</v>
+        <v>0.06645250737696951</v>
       </c>
       <c r="F6">
-        <v>0.7124855978428983</v>
+        <v>0.7129533507927506</v>
       </c>
       <c r="G6">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6">
         <v>19</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2">
-        <v>0.01073481150792281</v>
+        <v>0.01001842340203877</v>
       </c>
       <c r="F2">
-        <v>0.8056002739856306</v>
+        <v>0.8005602496972543</v>
       </c>
       <c r="G2">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H2">
         <v>19</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>126</v>
       </c>
       <c r="E3">
-        <v>0.007532365960678495</v>
+        <v>0.02104859508697245</v>
       </c>
       <c r="F3">
-        <v>0.8090596501484191</v>
+        <v>0.8099313520275121</v>
       </c>
       <c r="G3">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4">
-        <v>0.007208436608231653</v>
+        <v>0.05177756011071748</v>
       </c>
       <c r="F4">
-        <v>0.804179603700136</v>
+        <v>0.8015261000974601</v>
       </c>
       <c r="G4">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H4">
         <v>19</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>155</v>
       </c>
       <c r="E5">
-        <v>0.01284044680179965</v>
+        <v>0.01130398935590452</v>
       </c>
       <c r="F5">
-        <v>0.8263310564607462</v>
+        <v>0.826550717446177</v>
       </c>
       <c r="G5">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>119</v>
       </c>
       <c r="E6">
-        <v>0.002400569244494398</v>
+        <v>0.06645250737696951</v>
       </c>
       <c r="F6">
-        <v>0.8005572122575412</v>
+        <v>0.8011158291007139</v>
       </c>
       <c r="G6">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H6">
         <v>19</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>174</v>
       </c>
       <c r="E2">
-        <v>0.01073481150792281</v>
+        <v>0.01001842340203877</v>
       </c>
       <c r="F2">
-        <v>0.900064538528947</v>
+        <v>0.9001889715230985</v>
       </c>
       <c r="G2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H2">
         <v>19</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>173</v>
       </c>
       <c r="E3">
-        <v>0.007532365960678495</v>
+        <v>0.02104859508697245</v>
       </c>
       <c r="F3">
-        <v>0.9004802702285063</v>
+        <v>0.900652331479859</v>
       </c>
       <c r="G3">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>165</v>
       </c>
       <c r="E4">
-        <v>0.007208436608231653</v>
+        <v>0.05177756011071748</v>
       </c>
       <c r="F4">
-        <v>0.9023316430852052</v>
+        <v>0.9038620281421217</v>
       </c>
       <c r="G4">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H4">
         <v>19</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>164</v>
       </c>
       <c r="E5">
-        <v>0.01284044680179965</v>
+        <v>0.01130398935590452</v>
       </c>
       <c r="F5">
-        <v>0.9083109681208703</v>
+        <v>0.90867125141434</v>
       </c>
       <c r="G5">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>164</v>
       </c>
       <c r="E6">
-        <v>0.002400569244494398</v>
+        <v>0.06645250737696951</v>
       </c>
       <c r="F6">
-        <v>0.9011890039142109</v>
+        <v>0.9014185320132357</v>
       </c>
       <c r="G6">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H6">
         <v>19</v>

--- a/on_trucks/Processed_Stand_Alone/19_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/19_225-80R17.xlsx
@@ -1994,34 +1994,34 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001024803900701393</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>9.381675467678833E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0001874753942039752</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.000291521407912097</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0002976573810351375</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0003302320066766378</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0002360064748637844</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0001874753942039752</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0001176292117826261</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>3.248797176226616E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2033,46 +2033,46 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.891514934829677E-06</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001589289077288349</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.000341644781582087</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0004373560092155291</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0004721508876953888</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.000400010838142981</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0004505431053828778</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0003924085012320405</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.000316781488979755</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.000250129899866717</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0002961082889952019</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0001575088063182258</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>6.792198872285134E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>3.301331021505206E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -2081,43 +2081,43 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>4.400535344085765E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0001746535891402822</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0003169133904551249</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0004883872858038786</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.00047645362001765</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0005610419628993723</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0005739475902917173</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0005250395048822775</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0004962202721328639</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0003712127843078836</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0002360064748637844</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>9.184118354188327E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>9.519674061395837E-06</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2126,472 +2126,472 @@
         <v>0</v>
       </c>
       <c r="AT2">
-        <v>7.381141720096966E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.09809252555456657</v>
+        <v>0.6821260050033225</v>
       </c>
       <c r="AV2">
-        <v>0.02226870297136175</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.04762555963256509</v>
+        <v>0.1758768251922875</v>
       </c>
       <c r="AX2">
-        <v>0.000902424521417503</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.03005632326288946</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.001437505977406917</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.04028558430170293</v>
+        <v>0.1022473445370567</v>
       </c>
       <c r="BB2">
-        <v>0.02073616160053333</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.01399084903033244</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.009318055831864517</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.008421820387439287</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0003763518729602356</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.002477499375381164</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0004782345960758487</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0001846993203323147</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>1.097094762191053E-05</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.001710503788928125</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.005538815080761754</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.001996154044460297</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.009614477321871555</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.004330031657752637</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0006801849390883665</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>2.688909691002725E-05</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>3.515687330130607E-05</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.003669876968967261</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0001228960062770855</v>
+        <v>0</v>
       </c>
       <c r="BU2">
         <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.001209317027260926</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0005739475902917173</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0003569883830594429</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.002071864447433027</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.007138551826893738</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.003029028115256217</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0002388795200582931</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0001756679487246316</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0001885226965356166</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.008380928019228562</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.009941378381173807</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.005787775727899968</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.01613624293837378</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.002766225190693269</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.001987469886598599</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.002099973584308836</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.003083683666178495</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.008470834016111303</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.01327511414532298</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.007041980695189454</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.0157751243819605</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0.02445823333534228</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.0177336781086514</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.001834201496407543</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.00316472754209488</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.01937501586344469</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.02816990833107595</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.02220115427957292</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.01959821351561813</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.01523180493054605</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.01560909373860084</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.009226321020674461</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.004070531439335013</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.0001470389949698597</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.01370854313615621</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.02988441170678197</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.03405533188653444</v>
+        <v>0.03974982526733321</v>
       </c>
       <c r="DG2">
-        <v>0.02437496105621861</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.0115650061471426</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.002182925369245717</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.0005739475902917173</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.003935394006530744</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.0030000814577119</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.004161309987412787</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.006593348355471154</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.004437845079120825</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.004412984446429532</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.003266223624556719</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.0003749065776752502</v>
+        <v>0</v>
       </c>
       <c r="DS2">
         <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.0002665535155628028</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.003681210297850524</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.005692227306896957</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.008495394530538112</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.01086773305222886</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.005692227306896957</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.00107742659303115</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.0001820440566088585</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.000638552412990587</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.002008129867327155</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.002827002351218973</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.003266223624556719</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.003638025588193562</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.002659030775792326</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.002908578209343304</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.00089215846929218</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.0008367341137428202</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.001311249636255285</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.000500462820203826</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.0002305022255939787</v>
+        <v>0</v>
       </c>
       <c r="EN2">
         <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.0001270571008458312</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.001116583896251962</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.0007396834352089734</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.00443025590124148</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.01031628732165305</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.01093174857916493</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.008001386818580133</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.002023426262911606</v>
+        <v>0</v>
       </c>
       <c r="EW2">
         <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.002229758673857169</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.001400132019070739</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>3.683400643251396E-06</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.0001033643196619807</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.0007650412203296906</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.001862137688878769</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.004053515135234877</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.00331679967493607</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.0008705746061042262</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.0007115270522906593</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>1.196762030345578E-05</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.0008679780712090472</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.002245867797731758</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.003255134003749096</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.002331600745502175</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.001242903372650537</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>1.523996532080809E-06</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>9.868695543148452E-05</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.0008579061424026234</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.001987791986769409</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.001677428547954148</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.003378621427695375</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.005432101658075995</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.004319498811531328</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.0004705400054201304</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.0004944072566933865</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>7.297220623427608E-05</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.0003451963751015298</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.0002652037662898444</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.001777307404503833</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.002357501052100996</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.004483717403041924</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.005880967969591789</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.009491296339751855</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.0142155814009888</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.006363049242691648</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.002092622493561048</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.0005737723874721007</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.002138490401026082</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.004789499370932763</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.00582029690438567</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.01055669008142346</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.01059232987813573</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.004366998800260739</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0008058434025000691</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
         <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0006891821634607396</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.001415961701725154</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2773,37 +2773,37 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.844402256646876E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0004357673274667364</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0003304293209845898</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0003700030502715182</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0004222983400400015</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0003563052299706154</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0002906959361819412</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0003746227815872163</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0003509755390110665</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0001048906153549799</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>8.397839032416721E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -2815,52 +2815,52 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>5.115222660875301E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0001380049075409133</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>9.321385503676504E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0001417903508709404</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0002323559519416572</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0001829498040598193</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0001222747800336412</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.000172160095413572</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0001380049075409133</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0001080719398972038</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0001996741965899742</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0001292543685753737</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0001080719398972038</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>8.711603315748031E-05</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>8.868140072998779E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>2.157344503078637E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -2869,121 +2869,121 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1.359963567537614E-06</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.000112928702885108</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>7.600169832763302E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>6.570558545641846E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0001584555533039835</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0002222585594474039</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0001933484320491518</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0002143732147209245</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0003509755390110665</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0003687478404154844</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.01409167924110345</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.01652500714225436</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.07971525059351831</v>
+        <v>0.7048888207093451</v>
       </c>
       <c r="AW3">
-        <v>0.006567972845691518</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.007105652733877079</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.02883607510683328</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.001815459182451049</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.01731519343156588</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.03665673071393816</v>
+        <v>0.09293024904934465</v>
       </c>
       <c r="BC3">
-        <v>0.01957435816443847</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.0006173519452442874</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.01381753695547301</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>6.252812921964145E-05</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.003291565857958474</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.001784844508864571</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.00395969907238096</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.002007219623871733</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.001486112159073768</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.002416498598167515</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.004567812161865667</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.004103095045315168</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0009413080177703044</v>
+        <v>0</v>
       </c>
       <c r="BP3">
         <v>0</v>
       </c>
       <c r="BQ3">
-        <v>1.972914450242217E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.0002697857055891317</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.0003663182833585783</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0001284708608902975</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.001129152970465118</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.001318183995847704</v>
+        <v>0</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -2992,379 +2992,379 @@
         <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.003753543008546927</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.005277811192099195</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.002458523667592412</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.0001965281992216503</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.001435081775043803</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.002967307213613678</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.01762975800198512</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.009630052099928146</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.01671488065442065</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.01422427420190147</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.001042076812001136</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.0007332489887974826</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.001049787600700264</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.004588089417116793</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.01289597045374928</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.01751003545553354</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.0124188601908259</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.02394953922879806</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.03562652561681174</v>
+        <v>0.07828871372677737</v>
       </c>
       <c r="CR3">
-        <v>0.01754633724145532</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.0004034199846090569</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.005205641071416629</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.01947362548109018</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.02724016902114266</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.0209578159102271</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.01666038075206889</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.01597596096696002</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.01281420603127904</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.007279350600271624</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.001451087315851352</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.003227759415554111</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.02198433255299099</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.03826871890274154</v>
+        <v>0.1158402327717699</v>
       </c>
       <c r="DF3">
-        <v>0.03068454134802425</v>
+        <v>0.008051983742763023</v>
       </c>
       <c r="DG3">
-        <v>0.02020195907343673</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.008797916298742268</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.0001556652390858481</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.00251113021025995</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.005286748484813678</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.005067836658649409</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.01013565670267574</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.008192565681724025</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.009334104628632761</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.006643493923645817</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.004849115735870837</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.0008536400487631231</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.0001642046389068096</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.0005635188483236628</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.003431612481228407</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.00796520979690863</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.01505422516407581</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.01185174099105694</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.005955106161427555</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.001863694238537118</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.0001426071762205936</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.0002519154807953993</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.0008430523962793135</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.001362573252991226</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.002367795125458232</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.002465692692578033</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.003103727777785545</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.001906824337138786</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.0004267657907391952</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.0009478704120814683</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.0007898733444056245</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.0001461203209897943</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.0001344810018492874</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.0001344810018492874</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.0001001791700337756</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>1.247009852289963E-05</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.000585706292899594</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.004135905911640861</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.008116652448025324</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.006546049098976511</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.003112197960057872</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.0001974696744346153</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.0005376459636491684</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.002476223023808402</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.0004540369020482483</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.0001164569491168718</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.0002650378580065395</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.0004712527803686467</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.001893876867619129</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.001535670477049097</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.001157970841290347</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.0002636045855293859</v>
+        <v>0</v>
       </c>
       <c r="FG3">
         <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.0007684670463413149</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.002819497654877681</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.00414951290212036</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.005685992672878167</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.003092160238318059</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.001469917222012516</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>2.301768340031609E-05</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>7.012936348949325E-06</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.00145594982603592</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.001617481118233764</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.002959241746519022</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0055731728914269</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.008809443848974226</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.004267206949385736</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.002103346210425088</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.001192285925819844</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>5.539808871488856E-05</v>
+        <v>0</v>
       </c>
       <c r="FY3">
         <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.000160509231642004</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.000637265479307933</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.001115005522453172</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.004324261239513555</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.004592385446623181</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.01271213702423089</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.01090432717566485</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.0050485704880142</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.003377301472753017</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>8.935560115543405E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.001696131906483324</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.003207139840389794</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.0063355818338407</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.009313724185077893</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.007016933801541464</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.002319582274450183</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>9.849394527769186E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0002945180128669285</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.00142944982373942</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.002674140300368662</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,16 +3540,16 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>7.613953391586707E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>5.726356097230523E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>4.495786365475806E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>5.228048710469823E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.727422852882582E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3576,37 +3576,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.318611539155599E-07</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0002284777679432555</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0003163190564833256</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0001986192289884935</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.000235797683604743</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0003093789539607625</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0002270235328493872</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>7.313643364747226E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>3.101073755216095E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>8.849494867252085E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>2.140480304652313E-06</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -3624,37 +3624,37 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>7.988299037361167E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0002159843272331114</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0001524591520512795</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0001959675813378619</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.000472380021189175</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0002351870467697208</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0001732807626149162</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0002690993079124752</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.000176609082527983</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>8.529964632227268E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>5.62604576861535E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -3672,85 +3672,85 @@
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.04770670337536178</v>
+        <v>0.1594639324368209</v>
       </c>
       <c r="AU4">
-        <v>0.0008064808251586539</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.09695407651439616</v>
+        <v>0.614294602618771</v>
       </c>
       <c r="AW4">
-        <v>0.009789451075070938</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.02349418226678051</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.01791205804842457</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.008134376970354632</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.02221442850988503</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.01377135375520402</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.004243565820714417</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.001665482674545703</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.004377225821612872</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.005095720182087706</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.002704902799064012</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>5.269098172631451E-05</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0002181296897007031</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.002303648760033522</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.004970266612538593</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.002212769678957965</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.004157326423176127</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.00321894376008941</v>
+        <v>0</v>
       </c>
       <c r="BO4">
         <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.001929144311628008</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.001572885165768348</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.006806400351422496</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.006969609755487263</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.001481183263111508</v>
+        <v>0</v>
       </c>
       <c r="BU4">
         <v>0</v>
@@ -3759,325 +3759,325 @@
         <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.0009040506275480854</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.001462039911327739</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.007348578288366858</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.003185797171940071</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.0001127202493210396</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.0001102877085826378</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.0003213934520434439</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.007201065404619542</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.02246972409861448</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.009835545574665252</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.02208729478814006</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.01710806374061142</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.0008923954611367847</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.0002756892404539107</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.0003606287163011616</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.003268216246439394</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.007735661737489823</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.006918928608362592</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.009257032679566927</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.01900984231351377</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.02698928566107632</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.01108508814896847</v>
+        <v>0</v>
       </c>
       <c r="CS4">
         <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.008836733522431493</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.01777723257872937</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.02093040235143487</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.01562322147553886</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.01008589588658921</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.01036611534466931</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.006553924832749502</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.00238723900393686</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.0001742771371485599</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.01140021670080949</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.03706035103713722</v>
+        <v>0.06113812822961625</v>
       </c>
       <c r="DE4">
-        <v>0.0453551967692828</v>
+        <v>0.1377462801559433</v>
       </c>
       <c r="DF4">
-        <v>0.03340266225167943</v>
+        <v>0.02735705655884839</v>
       </c>
       <c r="DG4">
-        <v>0.01709575857263598</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.00394255604433272</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.0001290117094442131</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.005537058957296177</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.008291582413406893</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.008186808814690106</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.014212593991344</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.01050454135863397</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.01328648351414781</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.01157716609533989</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.006608217619968488</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.001328002754180532</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.0001872802325078258</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.0004786494269072793</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.003433725743740471</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.006151918618949235</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.01321284999161838</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.01166944416651708</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.007186178574127344</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.00467006703496494</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.001288996450741895</v>
+        <v>0</v>
       </c>
       <c r="EB4">
         <v>0</v>
       </c>
       <c r="EC4">
-        <v>8.575284460012407E-05</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.0005929336744792122</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.001767231286734049</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.00112517586014069</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.001361651708345414</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.0002506806152887553</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>4.033384660782433E-05</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.0005273458974317413</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.0004891714856477372</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.0002306652131080762</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>7.043820999952529E-06</v>
+        <v>0</v>
       </c>
       <c r="EN4">
         <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.0004738237915968431</v>
+        <v>0</v>
       </c>
       <c r="EP4">
         <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.000508029135210793</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.003105538729392096</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.005230551555983293</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.002563214205403683</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.0001719550863946101</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.000396524890569937</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.004157326423176127</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.006298646549434981</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.001881978606849995</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>3.423695551718526E-05</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.001196605385384908</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.001441954635989396</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.003156629098681403</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.00147691401725014</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.0002670413581495536</v>
+        <v>0</v>
       </c>
       <c r="FF4">
         <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.0004883616329479901</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.003279906563202298</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.006818113979597266</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.008731134353626343</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.009832214282292681</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.006431906388062494</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.003678293400369814</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.0004481151420387631</v>
+        <v>0</v>
       </c>
       <c r="FO4">
         <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.000146645418267395</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.0003303749623881941</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.001711998306501983</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.00429499873542263</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.005801527128510427</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.002641317309421347</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.002257501529821974</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.001080524326761233</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>1.547538663574454E-05</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.0005787162276158707</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
         <v>0</v>
@@ -4089,55 +4089,55 @@
         <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.001314607446861533</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.001699463078304629</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.006376714330046891</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.003844622461762307</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.0008932446174877175</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.0001057582707180832</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.0008522566404473429</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.003983172260341937</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.005663185605689216</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.006769082038514704</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.007531502122907837</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.003468097453469761</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0002609098664087256</v>
+        <v>0</v>
       </c>
       <c r="GP4">
         <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.002412735987911128</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.004868084245215044</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.006844926887681548</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,58 +4313,58 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001782379096198566</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3.300558526935102E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2.606817339700997E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.069815732214139E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>5.995180862857689E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.354871762438224E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>5.700018315291103E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>9.420787915834552E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0001069511010374425</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0002610418966436391</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0002265428076610584</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0001255543596087511</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>2.176135775244904E-05</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.52195206287039E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1.226696832988608E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4382,43 +4382,43 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>2.507485495149681E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0001282889397709858</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0002055833095853665</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>9.352177899036912E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0001232905212597781</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0001475176081621617</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0001104532273328278</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>7.590706818548921E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0002500499045998222</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0002697182064822144</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>8.42144783101728E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.000149396418266943</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>4.445359137434962E-06</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -4427,40 +4427,40 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>6.505526040272653E-05</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>9.420787915834552E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>8.317864950914678E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0001888766846409923</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0004154034993309333</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0003677707639654553</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0004873491958305998</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0005863725679309045</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0001095320474594276</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>3.090529857208158E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>5.446186256277956E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>9.768143660703892E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
         <v>0</v>
@@ -4472,52 +4472,52 @@
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>4.040949042975772E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>1.201440952304703E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>2.093497993820377E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>5.900511350459009E-05</v>
+        <v>0</v>
       </c>
       <c r="BG5">
         <v>0</v>
       </c>
       <c r="BH5">
-        <v>6.08665579760127E-05</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0001242834470857328</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0001318381101234345</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.0002886218742435263</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.0005126584968738597</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0002897096312487567</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.0002443167553190676</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.000408509933323089</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.0001659248581968903</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0001242834470857328</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>6.715917305709426E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
         <v>0</v>
@@ -4526,391 +4526,391 @@
         <v>0</v>
       </c>
       <c r="BU5">
-        <v>8.830045700075891E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0002242795316316575</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.0004327671645711086</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.0004345221137487017</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.0005528810150417336</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0004626082693363172</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.000346560320739268</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.000146475378959434</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>8.529795164523391E-05</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.0002242795316316575</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.000139347737388259</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>2.452592260172686E-05</v>
+        <v>0</v>
       </c>
       <c r="CG5">
         <v>0</v>
       </c>
       <c r="CH5">
-        <v>1.071845771279437E-05</v>
+        <v>0</v>
       </c>
       <c r="CI5">
         <v>0</v>
       </c>
       <c r="CJ5">
-        <v>1.660064477543838E-05</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>3.149047241827697E-05</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>7.918948417432818E-05</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.0001257791870234041</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1073840506345491</v>
+        <v>0.4850471535861112</v>
       </c>
       <c r="CO5">
-        <v>0.04720828417837195</v>
+        <v>0.1073637992192025</v>
       </c>
       <c r="CP5">
-        <v>0.05206125571981532</v>
+        <v>0.1378226812303568</v>
       </c>
       <c r="CQ5">
-        <v>0.002910940326140405</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.03842747929701658</v>
+        <v>0.0522525137809563</v>
       </c>
       <c r="CS5">
-        <v>0.002774549914742475</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.01677746081985436</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.02903769637700597</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.01414583635057087</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.0002565640756006173</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.008861793135468227</v>
+        <v>0</v>
       </c>
       <c r="CY5">
         <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.008465157008679879</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.0001647993153246952</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.0004854954491124632</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.001309681723239464</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.00171535784004968</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.00614348961449219</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.002467224294415953</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.00543717707032308</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.001086645497252258</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>4.355161772676478E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.001036651069890831</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.001674567077871301</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.006880968720948025</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.004101915707893618</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.0005692583717523478</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>1.788979653543634E-05</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.0003255597733348088</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.001102509837767489</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.00587078771726485</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.009354646659691825</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.004049293039017619</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.0001620281241417448</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.000164827431303303</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.0001002464985052528</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.01782935890679683</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.01834652622559255</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.01643533454659185</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.02454531728191786</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.00990150646018155</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>5.354747068992892E-05</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>6.640351194975803E-05</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.0008915362100823803</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.003230979489922319</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.01322915503374788</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.007409809191576443</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.01311819733245645</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.02526922741626917</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.02477811557650611</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.002288151317136178</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.002858861801864676</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.01546918015298218</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.02535722239617478</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.0215502506110188</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.01318400780109843</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.009602839456709925</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.01047249278274303</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.005246032999699101</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.001213966597679202</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.001948049394333426</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.02328658199006306</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.04747262056782137</v>
+        <v>0.109022863326366</v>
       </c>
       <c r="EY5">
-        <v>0.04639935634542118</v>
+        <v>0.102286696003374</v>
       </c>
       <c r="EZ5">
-        <v>0.031090679948552</v>
+        <v>0.006204292853633068</v>
       </c>
       <c r="FA5">
-        <v>0.01305466727050798</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.001887405839245883</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.001567040228869491</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.006667331465780981</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.008226407665976668</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.01232919268277558</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.01305678299789822</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.01417251439770129</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.01115919141940694</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.01120922882404995</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.003690273280008621</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.001970829161029869</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>7.108480230511182E-05</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.001588495030074043</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.004375545231586596</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.009366590929889668</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.01272771760084112</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.008256485738234436</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.004681895528698056</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.002719503648510485</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.0001055540682675265</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>1.363498440573679E-06</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.0002399737403520492</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.0006837173156941153</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.001061470349592641</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.0005064980851324761</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.0006333266940284209</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>1.920006439951083E-05</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>6.274912758879068E-05</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.0003808230145902829</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>4.810758713232694E-05</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0001982015598161027</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.0001575655961828014</v>
+        <v>0</v>
       </c>
       <c r="GH5">
         <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.0001676478455316589</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
         <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.001031975382648357</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.004625683051839098</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.004805323670644125</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.00259189456013123</v>
+        <v>0</v>
       </c>
       <c r="GO5">
         <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.0009798576968309957</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.006968154663569198</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.004815182337714523</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.0005868289003051297</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,73 +5086,73 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001547099719831911</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001156143667761979</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>9.397853967002036E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0001190103103450246</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>3.122601577830739E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>7.011557866595158E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>6.891837363435918E-06</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.237504591030842E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>8.359430153635662E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0001265970109179716</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0001251536920404877</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>6.341751392255961E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0001078378858975257</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.761510940604054E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1.830271787260573E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>5.978277341138184E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>6.542296509342411E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>7.014913536114214E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>8.882751577436165E-05</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -5164,10 +5164,10 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>2.266818324343712E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>1.380982027503974E-05</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -5176,337 +5176,337 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>7.691852236872491E-06</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>5.874576224765762E-06</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>1.227506316287488E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>6.947763049894359E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>4.909870064181458E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>3.395736734461108E-05</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>6.900076850511361E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>5.388961818695738E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>3.359653712394497E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>4.555382931159876E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.971784535401417E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1.567175666919796E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>5.888778717527356E-05</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.06449071375328876</v>
+        <v>0.2993490144028054</v>
       </c>
       <c r="AU6">
-        <v>0.0005436027936069729</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.08159871702844768</v>
+        <v>0.4481073630720585</v>
       </c>
       <c r="AW6">
-        <v>0.005239548575041986</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.02241214893960836</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.01135462033053619</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.004856943297563666</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.03358535039453999</v>
+        <v>0.03061918402299463</v>
       </c>
       <c r="BB6">
-        <v>0.01849873947499399</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.001292703227360458</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.003140321931139007</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.005456499978487231</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.008440363219753852</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.001932982617184615</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.0001742719111090118</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>6.891837363435918E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.003464013301961232</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.004055291595308205</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.002992354851713829</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.005483910695273624</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.002720373074890668</v>
+        <v>0</v>
       </c>
       <c r="BO6">
         <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.001318055425874808</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.000997466269760042</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.003783679072468872</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.005289996108452288</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.001335305893212106</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0003263924912851499</v>
+        <v>0</v>
       </c>
       <c r="BV6">
         <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.001297122344342575</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.001861119656079662</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.01006629488536761</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.004975796860946053</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.0007462338498084122</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>5.870796660095031E-05</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0004975435375031374</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.008527230645549977</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.02013171634219436</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.01061533535544973</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.02325887549471878</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.01860386306639289</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.001494342070135087</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>2.905961679171743E-06</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.000244426528633563</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.003066276531608873</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.009914440563080384</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.007390157968527175</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.009817306613270177</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.01999766601731359</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
-        <v>0.03023160183837504</v>
+        <v>0.001457505185149344</v>
       </c>
       <c r="CR6">
-        <v>0.01107500693709752</v>
+        <v>0</v>
       </c>
       <c r="CS6">
         <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.009146069442664566</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.01876374111833683</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.0230463855175636</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.01315690260566727</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.009777913840317306</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.01179418697018648</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.007053529875115992</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.003502195547463457</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>2.235303203650205E-05</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.01051623432359698</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.03801183440970941</v>
+        <v>0.06910856480675705</v>
       </c>
       <c r="DE6">
-        <v>0.04506302948075691</v>
+        <v>0.1304204618202944</v>
       </c>
       <c r="DF6">
-        <v>0.03247195188075396</v>
+        <v>0.0209379066899406</v>
       </c>
       <c r="DG6">
-        <v>0.01753572348102911</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.00567943524149553</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>2.237504591030842E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.003582323862471937</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.006594704680145218</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.00668580925279567</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.01253554931224142</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.01141050922193298</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.01234081721334186</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.01177523099659915</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.006849634502497759</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.002337845899191713</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.001003696465744018</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.0001576671419612441</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.002343595353157647</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.005371645453107425</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.01185644682123635</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.01058978233811116</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.005851897505301538</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.002995025050288703</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.0004140575678469341</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>4.747847973018365E-05</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.0003251063284271198</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.0005191580395150005</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.001050421882904096</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.0006622015587068462</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.0007130301165103418</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>3.691942194229258E-05</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>3.290400493673202E-05</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0002298369859114583</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.000114467784530789</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.0001609289890860392</v>
+        <v>0</v>
       </c>
       <c r="EM6">
         <v>0</v>
@@ -5515,175 +5515,175 @@
         <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.0008170880547476655</v>
+        <v>0</v>
       </c>
       <c r="EP6">
         <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.0009568183540910361</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.004114268564890129</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.005874640562986372</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.00318063267571173</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.000391269333446078</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.0003177583846929145</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.004404213650708208</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.005410404789549347</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.001788696447550971</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.0003092352548138743</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.001825930844244317</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.002210151194333408</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.00461309360120152</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.002432718005430067</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.0009903810648230172</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.0004846868216149919</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>5.489783295393036E-05</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.001473938556765377</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.004988131227321372</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.00692035120218618</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.008422383769056142</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.006261090473241724</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.002738460604815794</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.0005308190662879902</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.0001013447004688093</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.0002033633400889096</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.0001702759373358932</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.0006500070336176091</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.002865510443634464</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.004549215870288224</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.001598409432720626</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.001788696447550971</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.0005855622978223873</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>4.885134157885024E-05</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.0004083773026331689</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>5.978277341138184E-05</v>
+        <v>0</v>
       </c>
       <c r="GA6">
         <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.0001562991075845626</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.001372088021450105</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.002140579953989333</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.007968637495701631</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.004799869545026268</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.001503022295878166</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.0004126150610675411</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.0008563789645325829</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.003849788669505971</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.005707398485760845</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.007568726307645975</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.008037717968125307</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.004033058455017276</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0003092352548138743</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.0001077974915369273</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.001768593310215892</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.004189732128308734</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.005897427433864507</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001024803900701393</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0001962971447469276</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0003837725389509028</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0006752939468629999</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0009729513278981374</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.001303183334574775</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.001539189809438559</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001726665203642535</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.001844294415425161</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.001876782387187427</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.001876782387187427</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.001876782387187427</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.001876782387187427</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001878673902122257</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.002037602809851092</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.002379247591433179</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.002816603600648708</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.003288754488344097</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.003688765326487078</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.004139308431869956</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.004531716933101997</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.004848498422081751</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.005098628321948468</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.00539473661094367</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.005552245417261895</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.005620167405984746</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.005653180716199798</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.005653180716199798</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.005653180716199798</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.005697186069640656</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.005871839658780938</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.006188753049236063</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.006677140335039942</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.007153593955057592</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.007714635917956964</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.008288583508248681</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.008813623013130959</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.009309843285263823</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.009681056069571706</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.009917062544435491</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.01000890372797737</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.01001842340203877</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.01001842340203877</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.01001842340203877</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.01009223481923974</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.1081847603738063</v>
+        <v>0.6821260050033225</v>
       </c>
       <c r="AV2">
-        <v>0.1304534633451681</v>
+        <v>0.6821260050033225</v>
       </c>
       <c r="AW2">
-        <v>0.1780790229777331</v>
+        <v>0.85800283019561</v>
       </c>
       <c r="AX2">
-        <v>0.1789814474991507</v>
+        <v>0.85800283019561</v>
       </c>
       <c r="AY2">
-        <v>0.2090377707620401</v>
+        <v>0.85800283019561</v>
       </c>
       <c r="AZ2">
-        <v>0.210475276739447</v>
+        <v>0.85800283019561</v>
       </c>
       <c r="BA2">
-        <v>0.25076086104115</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BB2">
-        <v>0.2714970226416833</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BC2">
-        <v>0.2854878716720157</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BD2">
-        <v>0.2948059275038802</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BE2">
-        <v>0.3032277478913195</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BF2">
-        <v>0.3036040997642798</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BG2">
-        <v>0.3060815991396609</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BH2">
-        <v>0.3065598337357368</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BI2">
-        <v>0.3067445330560691</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BJ2">
-        <v>0.306755504003691</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BK2">
-        <v>0.3084660077926191</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BL2">
-        <v>0.3140048228733809</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BM2">
-        <v>0.3160009769178412</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BN2">
-        <v>0.3256154542397127</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BO2">
-        <v>0.3299454858974654</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BP2">
-        <v>0.3306256708365538</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BQ2">
-        <v>0.3306525599334638</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BR2">
-        <v>0.3306877168067651</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BS2">
-        <v>0.3343575937757323</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BT2">
-        <v>0.3344804897820094</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BU2">
-        <v>0.3344804897820094</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BV2">
-        <v>0.3356898068092703</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BW2">
-        <v>0.336263754399562</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BX2">
-        <v>0.3366207427826214</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BY2">
-        <v>0.3386926072300545</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="BZ2">
-        <v>0.3458311590569482</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CA2">
-        <v>0.3488601871722044</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CB2">
-        <v>0.3490990666922627</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CC2">
-        <v>0.3492747346409873</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CD2">
-        <v>0.349463257337523</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CE2">
-        <v>0.3578441853567516</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CF2">
-        <v>0.3677855637379254</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CG2">
-        <v>0.3735733394658253</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CH2">
-        <v>0.3897095824041991</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CI2">
-        <v>0.3924758075948924</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CJ2">
-        <v>0.394463277481491</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CK2">
-        <v>0.3965632510657998</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CL2">
-        <v>0.3996469347319783</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CM2">
-        <v>0.4081177687480896</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CN2">
-        <v>0.4213928828934126</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CO2">
-        <v>0.4284348635886021</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CP2">
-        <v>0.4442099879705625</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CQ2">
-        <v>0.4686682213059048</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CR2">
-        <v>0.4864018994145562</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CS2">
-        <v>0.4882361009109638</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CT2">
-        <v>0.4914008284530587</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CU2">
-        <v>0.5107758443165034</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CV2">
-        <v>0.5389457526475793</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CW2">
-        <v>0.5611469069271522</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CX2">
-        <v>0.5807451204427703</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CY2">
-        <v>0.5959769253733164</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="CZ2">
-        <v>0.6115860191119172</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="DA2">
-        <v>0.6208123401325917</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="DB2">
-        <v>0.6248828715719267</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="DC2">
-        <v>0.6250299105668965</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="DD2">
-        <v>0.6387384537030527</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="DE2">
-        <v>0.6686228654098347</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="DF2">
-        <v>0.7026781972963692</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG2">
-        <v>0.7270531583525878</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH2">
-        <v>0.7386181644997304</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI2">
-        <v>0.7408010898689761</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ2">
-        <v>0.7413750374592678</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK2">
-        <v>0.7453104314657986</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL2">
-        <v>0.7483105129235105</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM2">
-        <v>0.7524718229109233</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN2">
-        <v>0.7590651712663945</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO2">
-        <v>0.7635030163455153</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP2">
-        <v>0.7679160007919449</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ2">
-        <v>0.7711822244165016</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR2">
-        <v>0.7715571309941769</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS2">
-        <v>0.7715571309941769</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT2">
-        <v>0.7718236845097397</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU2">
-        <v>0.7755048948075902</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV2">
-        <v>0.7811971221144872</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW2">
-        <v>0.7896925166450254</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX2">
-        <v>0.8005602496972543</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY2">
-        <v>0.8062524770041513</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ2">
-        <v>0.8073299035971824</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA2">
-        <v>0.8075119476537912</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB2">
-        <v>0.8081505000667818</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC2">
-        <v>0.8101586299341089</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED2">
-        <v>0.8129856322853279</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE2">
-        <v>0.8162518559098847</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF2">
-        <v>0.8198898814980783</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG2">
-        <v>0.8225489122738706</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH2">
-        <v>0.8254574904832139</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI2">
-        <v>0.8263496489525061</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ2">
-        <v>0.8271863830662489</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK2">
-        <v>0.8284976327025042</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL2">
-        <v>0.828998095522708</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM2">
-        <v>0.8292285977483019</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN2">
-        <v>0.8292285977483019</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO2">
-        <v>0.8293556548491477</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP2">
-        <v>0.8304722387453997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ2">
-        <v>0.8312119221806087</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER2">
-        <v>0.8356421780818502</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES2">
-        <v>0.8459584654035032</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET2">
-        <v>0.8568902139826681</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU2">
-        <v>0.8648916008012482</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV2">
-        <v>0.8669150270641598</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW2">
-        <v>0.8669150270641598</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX2">
-        <v>0.869144785738017</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY2">
-        <v>0.8705449177570878</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ2">
-        <v>0.870548601157731</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA2">
-        <v>0.870651965477393</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB2">
-        <v>0.8714170066977227</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC2">
-        <v>0.8732791443866015</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD2">
-        <v>0.8773326595218364</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE2">
-        <v>0.8806494591967724</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF2">
-        <v>0.8815200338028766</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG2">
-        <v>0.8822315608551672</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH2">
-        <v>0.8822435284754706</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI2">
-        <v>0.8831115065466797</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ2">
-        <v>0.8853573743444114</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK2">
-        <v>0.8886125083481605</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL2">
-        <v>0.8909441090936627</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM2">
-        <v>0.8921870124663133</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN2">
-        <v>0.8921885364628453</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO2">
-        <v>0.8922872234182768</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP2">
-        <v>0.8931451295606795</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ2">
-        <v>0.8951329215474489</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR2">
-        <v>0.8968103500954031</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS2">
-        <v>0.9001889715230985</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT2">
-        <v>0.9056210731811745</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU2">
-        <v>0.9099405719927058</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV2">
-        <v>0.910411111998126</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW2">
-        <v>0.9109055192548193</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX2">
-        <v>0.9109784914610536</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY2">
-        <v>0.9113236878361551</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ2">
-        <v>0.9115888916024449</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA2">
-        <v>0.9133661990069488</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB2">
-        <v>0.9157237000590498</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC2">
-        <v>0.9202074174620917</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD2">
-        <v>0.9260883854316835</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE2">
-        <v>0.9355796817714354</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF2">
-        <v>0.9497952631724241</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG2">
-        <v>0.9561583124151157</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH2">
-        <v>0.9582509349086767</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI2">
-        <v>0.9588247072961489</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ2">
-        <v>0.960963197697175</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK2">
-        <v>0.9657526970681077</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL2">
-        <v>0.9715729939724934</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM2">
-        <v>0.9821296840539169</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN2">
-        <v>0.9927220139320526</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO2">
-        <v>0.9970890127323133</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP2">
-        <v>0.9978948561348134</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ2">
-        <v>0.9978948561348134</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR2">
-        <v>0.9985840382982741</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7424,595 +7424,595 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.844402256646876E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0004942113500332052</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0008246406710177949</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001194643721289313</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.001616942061329315</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.00197324729129993</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.002263943227481871</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.002638566009069087</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.002989541548080154</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.003094432163435134</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.003178410553759301</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.003178410553759301</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.003178410553759301</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.003178410553759301</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.003229562780368054</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.003367567687908967</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.003460781542945732</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.003602571893816673</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.00383492784575833</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.004017877649818149</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.004140152429851791</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.004312312525265363</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.004450317432806277</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.00455838937270348</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.004758063569293454</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.004887317937868828</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.004995389877766032</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.005082505910923512</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0051711873116535</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.005192760756684286</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.005192760756684286</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.005192760756684286</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.005194120720251823</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.005307049423136931</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.005383051121464564</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.005448756706920983</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.005607212260224966</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.00582947081967237</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.006022819251721522</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.006237192466442446</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.006588168005453513</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.006956915845868997</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.02104859508697245</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0375736022292268</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.1172888528227451</v>
+        <v>0.7048888207093451</v>
       </c>
       <c r="AW3">
-        <v>0.1238568256684366</v>
+        <v>0.7048888207093451</v>
       </c>
       <c r="AX3">
-        <v>0.1309624784023137</v>
+        <v>0.7048888207093451</v>
       </c>
       <c r="AY3">
-        <v>0.159798553509147</v>
+        <v>0.7048888207093451</v>
       </c>
       <c r="AZ3">
-        <v>0.161614012691598</v>
+        <v>0.7048888207093451</v>
       </c>
       <c r="BA3">
-        <v>0.1789292061231639</v>
+        <v>0.7048888207093451</v>
       </c>
       <c r="BB3">
-        <v>0.2155859368371021</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BC3">
-        <v>0.2351602950015405</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BD3">
-        <v>0.2357776469467848</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BE3">
-        <v>0.2495951839022579</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BF3">
-        <v>0.2496577120314775</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BG3">
-        <v>0.2529492778894359</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BH3">
-        <v>0.2547341223983005</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BI3">
-        <v>0.2586938214706815</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BJ3">
-        <v>0.2607010410945532</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BK3">
-        <v>0.262187153253627</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BL3">
-        <v>0.2646036518517945</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BM3">
-        <v>0.2691714640136602</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BN3">
-        <v>0.2732745590589754</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BO3">
-        <v>0.2742158670767457</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BP3">
-        <v>0.2742158670767457</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BQ3">
-        <v>0.2742355962212481</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BR3">
-        <v>0.2745053819268372</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BS3">
-        <v>0.2748717002101958</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BT3">
-        <v>0.2750001710710861</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BU3">
-        <v>0.2761293240415512</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BV3">
-        <v>0.2774475080373989</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BW3">
-        <v>0.2774475080373989</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BX3">
-        <v>0.2774475080373989</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BY3">
-        <v>0.2812010510459458</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="BZ3">
-        <v>0.286478862238045</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="CA3">
-        <v>0.2889373859056374</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="CB3">
-        <v>0.2891339141048591</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="CC3">
-        <v>0.2905689958799029</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="CD3">
-        <v>0.2935363030935166</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="CE3">
-        <v>0.3111660610955017</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="CF3">
-        <v>0.3207961131954298</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="CG3">
-        <v>0.3375109938498505</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="CH3">
-        <v>0.351735268051752</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="CI3">
-        <v>0.3527773448637531</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="CJ3">
-        <v>0.3535105938525506</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="CK3">
-        <v>0.3545603814532509</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="CL3">
-        <v>0.3591484708703677</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="CM3">
-        <v>0.372044441324117</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="CN3">
-        <v>0.3895544767796505</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="CO3">
-        <v>0.4019733369704764</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="CP3">
-        <v>0.4259228761992745</v>
+        <v>0.7978190697586898</v>
       </c>
       <c r="CQ3">
-        <v>0.4615494018160862</v>
+        <v>0.8761077834854671</v>
       </c>
       <c r="CR3">
-        <v>0.4790957390575415</v>
+        <v>0.8761077834854671</v>
       </c>
       <c r="CS3">
-        <v>0.4794991590421506</v>
+        <v>0.8761077834854671</v>
       </c>
       <c r="CT3">
-        <v>0.4847048001135673</v>
+        <v>0.8761077834854671</v>
       </c>
       <c r="CU3">
-        <v>0.5041784255946574</v>
+        <v>0.8761077834854671</v>
       </c>
       <c r="CV3">
-        <v>0.5314185946158001</v>
+        <v>0.8761077834854671</v>
       </c>
       <c r="CW3">
-        <v>0.5523764105260272</v>
+        <v>0.8761077834854671</v>
       </c>
       <c r="CX3">
-        <v>0.569036791278096</v>
+        <v>0.8761077834854671</v>
       </c>
       <c r="CY3">
-        <v>0.585012752245056</v>
+        <v>0.8761077834854671</v>
       </c>
       <c r="CZ3">
-        <v>0.597826958276335</v>
+        <v>0.8761077834854671</v>
       </c>
       <c r="DA3">
-        <v>0.6051063088766067</v>
+        <v>0.8761077834854671</v>
       </c>
       <c r="DB3">
-        <v>0.606557396192458</v>
+        <v>0.8761077834854671</v>
       </c>
       <c r="DC3">
-        <v>0.6097851556080121</v>
+        <v>0.8761077834854671</v>
       </c>
       <c r="DD3">
-        <v>0.6317694881610031</v>
+        <v>0.8761077834854671</v>
       </c>
       <c r="DE3">
-        <v>0.6700382070637446</v>
+        <v>0.9919480162572371</v>
       </c>
       <c r="DF3">
-        <v>0.7007227484117688</v>
+        <v>1</v>
       </c>
       <c r="DG3">
-        <v>0.7209247074852055</v>
+        <v>1</v>
       </c>
       <c r="DH3">
-        <v>0.7297226237839478</v>
+        <v>1</v>
       </c>
       <c r="DI3">
-        <v>0.7298782890230336</v>
+        <v>1</v>
       </c>
       <c r="DJ3">
-        <v>0.7323894192332936</v>
+        <v>1</v>
       </c>
       <c r="DK3">
-        <v>0.7376761677181073</v>
+        <v>1</v>
       </c>
       <c r="DL3">
-        <v>0.7427440043767567</v>
+        <v>1</v>
       </c>
       <c r="DM3">
-        <v>0.7528796610794324</v>
+        <v>1</v>
       </c>
       <c r="DN3">
-        <v>0.7610722267611564</v>
+        <v>1</v>
       </c>
       <c r="DO3">
-        <v>0.7704063313897891</v>
+        <v>1</v>
       </c>
       <c r="DP3">
-        <v>0.7770498253134349</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.7818989410493058</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.7827525810980689</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.7829167857369757</v>
+        <v>1</v>
       </c>
       <c r="DT3">
-        <v>0.7834803045852993</v>
+        <v>1</v>
       </c>
       <c r="DU3">
-        <v>0.7869119170665276</v>
+        <v>1</v>
       </c>
       <c r="DV3">
-        <v>0.7948771268634363</v>
+        <v>1</v>
       </c>
       <c r="DW3">
-        <v>0.8099313520275121</v>
+        <v>1</v>
       </c>
       <c r="DX3">
-        <v>0.821783093018569</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.8277381991799966</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.8296018934185337</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.8297445005947544</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.8299964160755497</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.8308394684718291</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.8322020417248204</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.8345698368502786</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.8370355295428566</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.8401392573206422</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.8420460816577809</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.8424728474485201</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.8434207178606016</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.8442105912050072</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.844356711525997</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.8444911925278463</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.8446256735296956</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.8447258526997294</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.8447383227982523</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.8453240290911519</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.8494599350027927</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.857576587450818</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.8641226365497945</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.8672348345098524</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.867432304184287</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.8679699501479361</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.8704461731717446</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.8709002100737928</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.8710166670229097</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8712817048809163</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8717529576612849</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.873646834528904</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8751825050059531</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.8763404758472434</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.8766040804327728</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.8766040804327728</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.8773725474791142</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.8801920451339919</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.8843415580361123</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.8900275507089904</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.8931197109473085</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.894589628169321</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.8946126458527213</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.8946196587890702</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.8960756086151062</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.8976930897333399</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.900652331479859</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9062255043712859</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9150349482202601</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9193021551696459</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9214055013800709</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9225977873058908</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9226531853946057</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9226531853946057</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9228136946262477</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9234509601055557</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9245659656280089</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9288902268675224</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9334826123141456</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9461947493383766</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9570990765140414</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9621476470020556</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9655249484748086</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.965614304075964</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9673104359824474</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9705175758228372</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9768531576566779</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9861668818417558</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9931838156432973</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9955033979177474</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9956018918630252</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9958964098758921</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9973258596996315</v>
+        <v>1</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>7.613953391586707E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0001334030948881723</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0001783609585429304</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0002306414456476286</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0002306414456476286</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0002306414456476286</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0002479156741764544</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0002479156741764544</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0002479156741764544</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0002479156741764544</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0002479156741764544</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0002479156741764544</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.00024804753533037</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0004765253032736255</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0007928443597569511</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0009914635887454445</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.001227261272350187</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.00153664022631095</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001763663759160337</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001836800192807809</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.00186781093035997</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.001956305879032491</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.001958446359337143</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.001958446359337143</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001958446359337143</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.001958446359337143</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.001958446359337143</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.001958446359337143</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.002038329349710755</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.002254313676943866</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.002406772828995146</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.002602740410333008</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.003075120431522183</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.003310307478291904</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.00348358824090682</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.003752687548819295</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.003929296631347278</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.004014596277669551</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.004070856735355705</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.004070856735355705</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.004070856735355705</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.004070856735355705</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.004070856735355705</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.004070856735355705</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.05177756011071748</v>
+        <v>0.1594639324368209</v>
       </c>
       <c r="AU4">
-        <v>0.05258404093587614</v>
+        <v>0.1594639324368209</v>
       </c>
       <c r="AV4">
-        <v>0.1495381174502723</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="AW4">
-        <v>0.1593275685253432</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="AX4">
-        <v>0.1828217507921237</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="AY4">
-        <v>0.2007338088405483</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="AZ4">
-        <v>0.2088681858109029</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BA4">
-        <v>0.231082614320788</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BB4">
-        <v>0.244853968075992</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BC4">
-        <v>0.2490975338967064</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BD4">
-        <v>0.2507630165712521</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BE4">
-        <v>0.255140242392865</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BF4">
-        <v>0.2602359625749527</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BG4">
-        <v>0.2629408653740167</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BH4">
-        <v>0.262993556355743</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BI4">
-        <v>0.2632116860454437</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BJ4">
-        <v>0.2655153348054772</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BK4">
-        <v>0.2704856014180158</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BL4">
-        <v>0.2726983710969738</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BM4">
-        <v>0.2768556975201499</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BN4">
-        <v>0.2800746412802393</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BO4">
-        <v>0.2800746412802393</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BP4">
-        <v>0.2820037855918673</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BQ4">
-        <v>0.2835766707576357</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BR4">
-        <v>0.2903830711090581</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BS4">
-        <v>0.2973526808645454</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BT4">
-        <v>0.2988338641276569</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BU4">
-        <v>0.2988338641276569</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BV4">
-        <v>0.2988338641276569</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BW4">
-        <v>0.299737914755205</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BX4">
-        <v>0.3011999546665328</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BY4">
-        <v>0.3085485329548996</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="BZ4">
-        <v>0.3117343301268397</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CA4">
-        <v>0.3118470503761607</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CB4">
-        <v>0.3119573380847434</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CC4">
-        <v>0.3122787315367868</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CD4">
-        <v>0.3194797969414064</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CE4">
-        <v>0.3419495210400209</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CF4">
-        <v>0.3517850666146861</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CG4">
-        <v>0.3738723614028262</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CH4">
-        <v>0.3909804251434376</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CI4">
-        <v>0.3918728206045744</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CJ4">
-        <v>0.3921485098450283</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CK4">
-        <v>0.3925091385613295</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CL4">
-        <v>0.3957773548077689</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CM4">
-        <v>0.4035130165452587</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CN4">
-        <v>0.4104319451536212</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CO4">
-        <v>0.4196889778331881</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CP4">
-        <v>0.4386988201467019</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CQ4">
-        <v>0.4656881058077783</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CR4">
-        <v>0.4767731939567467</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CS4">
-        <v>0.4767731939567467</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CT4">
-        <v>0.4856099274791782</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CU4">
-        <v>0.5033871600579075</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CV4">
-        <v>0.5243175624093424</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CW4">
-        <v>0.5399407838848812</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CX4">
-        <v>0.5500266797714705</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CY4">
-        <v>0.5603927951161398</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="CZ4">
-        <v>0.5669467199488893</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="DA4">
-        <v>0.5693339589528262</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="DB4">
-        <v>0.5695082360899748</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="DC4">
-        <v>0.5809084527907843</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="DD4">
-        <v>0.6179688038279215</v>
+        <v>0.8348966632852083</v>
       </c>
       <c r="DE4">
-        <v>0.6633240005972043</v>
+        <v>0.9726429434411515</v>
       </c>
       <c r="DF4">
-        <v>0.6967266628488837</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG4">
-        <v>0.7138224214215197</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH4">
-        <v>0.7177649774658524</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI4">
-        <v>0.7178939891752967</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ4">
-        <v>0.7234310481325928</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK4">
-        <v>0.7317226305459997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL4">
-        <v>0.7399094393606899</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM4">
-        <v>0.7541220333520339</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN4">
-        <v>0.7646265747106679</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO4">
-        <v>0.7779130582248157</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP4">
-        <v>0.7894902243201556</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ4">
-        <v>0.796098441940124</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR4">
-        <v>0.7974264446943046</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS4">
-        <v>0.7976137249268124</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT4">
-        <v>0.7980923743537196</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU4">
-        <v>0.8015261000974601</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV4">
-        <v>0.8076780187164093</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW4">
-        <v>0.8208908687080277</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX4">
-        <v>0.8325603128745448</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY4">
-        <v>0.8397464914486721</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ4">
-        <v>0.8444165584836371</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA4">
-        <v>0.8457055549343789</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB4">
-        <v>0.8457055549343789</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC4">
-        <v>0.845791307778979</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED4">
-        <v>0.8463842414534583</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE4">
-        <v>0.8481514727401923</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF4">
-        <v>0.849276648600333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG4">
-        <v>0.8506383003086785</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH4">
-        <v>0.8508889809239673</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI4">
-        <v>0.8509293147705751</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ4">
-        <v>0.8514566606680068</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK4">
-        <v>0.8519458321536546</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL4">
-        <v>0.8521764973667627</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM4">
-        <v>0.8521835411877626</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN4">
-        <v>0.8521835411877626</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO4">
-        <v>0.8526573649793595</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP4">
-        <v>0.8526573649793595</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ4">
-        <v>0.8531653941145703</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER4">
-        <v>0.8562709328439624</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES4">
-        <v>0.8615014843999457</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET4">
-        <v>0.8640646986053494</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU4">
-        <v>0.864236653691744</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV4">
-        <v>0.8646331785823139</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW4">
-        <v>0.86879050500549</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX4">
-        <v>0.8750891515549251</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY4">
-        <v>0.8769711301617751</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ4">
-        <v>0.8770053671172923</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA4">
-        <v>0.8782019725026772</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB4">
-        <v>0.8796439271386666</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC4">
-        <v>0.882800556237348</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD4">
-        <v>0.8842774702545981</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE4">
-        <v>0.8845445116127477</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF4">
-        <v>0.8845445116127477</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG4">
-        <v>0.8850328732456957</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH4">
-        <v>0.888312779808898</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI4">
-        <v>0.8951308937884953</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ4">
-        <v>0.9038620281421217</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK4">
-        <v>0.9136942424244143</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL4">
-        <v>0.9201261488124768</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM4">
-        <v>0.9238044422128466</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN4">
-        <v>0.9242525573548854</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO4">
-        <v>0.9242525573548854</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP4">
-        <v>0.9243992027731528</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ4">
-        <v>0.924729577735541</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR4">
-        <v>0.9264415760420429</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS4">
-        <v>0.9307365747774655</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT4">
-        <v>0.936538101905976</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU4">
-        <v>0.9391794192153973</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV4">
-        <v>0.9414369207452192</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW4">
-        <v>0.9425174450719804</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX4">
-        <v>0.9425329204586161</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY4">
-        <v>0.943111636686232</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ4">
-        <v>0.943111636686232</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA4">
-        <v>0.943111636686232</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB4">
-        <v>0.943111636686232</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC4">
-        <v>0.9444262441330935</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD4">
-        <v>0.9461257072113981</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE4">
-        <v>0.952502421541445</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF4">
-        <v>0.9563470440032074</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG4">
-        <v>0.9572402886206951</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH4">
-        <v>0.9573460468914132</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI4">
-        <v>0.9581983035318605</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ4">
-        <v>0.9621814757922025</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK4">
-        <v>0.9678446613978917</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL4">
-        <v>0.9746137434364064</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM4">
-        <v>0.9821452455593143</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN4">
-        <v>0.985613343012784</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO4">
-        <v>0.9858742528791927</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP4">
-        <v>0.9858742528791927</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ4">
-        <v>0.9882869888671039</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR4">
-        <v>0.9931550731123189</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001782379096198566</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0002112434948892076</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0002112434948892076</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0002373116682862176</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0002373116682862176</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000298009825608359</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0003579616342369359</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0003815103518613181</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0004385105350142291</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0005327184141725747</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0006396695152100172</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0009007114118536562</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.001127254219514715</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.001252808579123466</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.001274569936875915</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.001289789457504619</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.001289789457504619</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.001302056425834505</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.001302056425834505</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.001302056425834505</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.001302056425834505</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.001302056425834505</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.001302056425834505</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.001327131280786002</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.001455420220556988</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.001661003530142354</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.001754525309132723</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.001877815830392501</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.002025333438554663</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.002135786665887491</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.00221169373407298</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.002461743638672802</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.002731461845155017</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.00281567632346519</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.002965072741732132</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.002969518100869567</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.002969518100869567</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.002969518100869567</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.003034573361272294</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.003128781240430639</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.003211959889939786</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.003400836574580778</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.003816240073911712</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.004184010837877167</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.004671360033707767</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.005257732601638671</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.005367264649098099</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.005398169947670181</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.00545263181023296</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.00545360862459903</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.00545360862459903</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.00545360862459903</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.00545360862459903</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.005494018115028788</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.005506032524551834</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.005526967504490038</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.005585972617994628</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.005585972617994628</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.005646839175970641</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.005771122623056374</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.005902960733179808</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.006191582607423335</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.006704241104297195</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.006993950735545951</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.007238267490865018</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.007646777424188107</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.007812702282384997</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.007936985729470729</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.008004144902527823</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.008004144902527823</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.008004144902527823</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.008092445359528582</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.00831672489116024</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.008749492055731349</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.009184014169480051</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.009736895184521784</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0101995034538581</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.01054606377459737</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.0106925391535568</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.01077783710520204</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.01100211663683369</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.01114146437422195</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.01116599029682368</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.01116599029682368</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.01117670875453648</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.01117670875453648</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.01119330939931191</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.01122479987173019</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.01130398935590452</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.01142976854292792</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.118813819177477</v>
+        <v>0.4850471535861112</v>
       </c>
       <c r="CO5">
-        <v>0.166022103355849</v>
+        <v>0.5924109528053138</v>
       </c>
       <c r="CP5">
-        <v>0.2180833590756643</v>
+        <v>0.7302336340356705</v>
       </c>
       <c r="CQ5">
-        <v>0.2209942994018047</v>
+        <v>0.7302336340356705</v>
       </c>
       <c r="CR5">
-        <v>0.2594217786988213</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="CS5">
-        <v>0.2621963286135637</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="CT5">
-        <v>0.2789737894334181</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="CU5">
-        <v>0.3080114858104241</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="CV5">
-        <v>0.322157322160995</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="CW5">
-        <v>0.3224138862365956</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="CX5">
-        <v>0.3312756793720638</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="CY5">
-        <v>0.3312756793720638</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="CZ5">
-        <v>0.3397408363807437</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DA5">
-        <v>0.3399056356960684</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DB5">
-        <v>0.3403911311451809</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DC5">
-        <v>0.3417008128684204</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DD5">
-        <v>0.34341617070847</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DE5">
-        <v>0.3495596603229622</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DF5">
-        <v>0.3520268846173781</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DG5">
-        <v>0.3574640616877012</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DH5">
-        <v>0.3585507071849535</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DI5">
-        <v>0.3585942588026803</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DJ5">
-        <v>0.3596309098725711</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DK5">
-        <v>0.3613054769504424</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DL5">
-        <v>0.3681864456713904</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DM5">
-        <v>0.372288361379284</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DN5">
-        <v>0.3728576197510364</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DO5">
-        <v>0.3728755095475718</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DP5">
-        <v>0.3732010693209066</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DQ5">
-        <v>0.3743035791586741</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DR5">
-        <v>0.380174366875939</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DS5">
-        <v>0.3895290135356308</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DT5">
-        <v>0.3935783065746484</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DU5">
-        <v>0.3937403346987902</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DV5">
-        <v>0.3939051621300935</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DW5">
-        <v>0.3940054086285987</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DX5">
-        <v>0.4118347675353956</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DY5">
-        <v>0.4301812937609881</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="DZ5">
-        <v>0.44661662830758</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="EA5">
-        <v>0.4711619455894979</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="EB5">
-        <v>0.4810634520496794</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="EC5">
-        <v>0.4811169995203693</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="ED5">
-        <v>0.4811834030323191</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="EE5">
-        <v>0.4820749392424015</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="EF5">
-        <v>0.4853059187323238</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="EG5">
-        <v>0.4985350737660716</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="EH5">
-        <v>0.5059448829576481</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="EI5">
-        <v>0.5190630802901045</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="EJ5">
-        <v>0.5443323077063736</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="EK5">
-        <v>0.5691104232828798</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="EL5">
-        <v>0.571398574600016</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="EM5">
-        <v>0.5742574364018806</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="EN5">
-        <v>0.5897266165548628</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="EO5">
-        <v>0.6150838389510376</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="EP5">
-        <v>0.6366340895620564</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="EQ5">
-        <v>0.6498180973631548</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="ER5">
-        <v>0.6594209368198647</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="ES5">
-        <v>0.6698934296026077</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="ET5">
-        <v>0.6751394626023067</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="EU5">
-        <v>0.676353429199986</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="EV5">
-        <v>0.6783014785943194</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="EW5">
-        <v>0.7015880605843825</v>
+        <v>0.7824861478166268</v>
       </c>
       <c r="EX5">
-        <v>0.7490606811522039</v>
+        <v>0.8915090111429929</v>
       </c>
       <c r="EY5">
-        <v>0.7954600374976251</v>
+        <v>0.9937957071463669</v>
       </c>
       <c r="EZ5">
-        <v>0.826550717446177</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.839605384716685</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.8414927905559308</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.8430598307848003</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8497271622505813</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.857953569916558</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.8702827625993336</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.8833395455972318</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.8975120599949331</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.90867125141434</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.91988048023839</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.9235707535183986</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.9255415826794284</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.9256126674817335</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9272011625118076</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9315767077433942</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9409432986732839</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.953671016274125</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9619275020123594</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9666093975410575</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9693289011895679</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9694344552578354</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.969435818756276</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9696757924966281</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9703595098123222</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9714209801619148</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9719274782470473</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9725608049410757</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9725800050054751</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9726427541330639</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9730235771476542</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9730716847347866</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9732698862946026</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9734274518907855</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9734274518907855</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9735950997363172</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9735950997363172</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9746270751189655</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9792527581708046</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9840580818414487</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9866499764015799</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9866499764015799</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9876298340984109</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.99459798876198</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9994131710996945</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001547099719831911</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.000270324338759389</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0003643028784294094</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.000483313188774434</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0005145392045527413</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0005846547832186929</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0005846547832186929</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0005915466205821288</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0005915466205821288</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0006139216664924373</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0006139216664924373</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.000697515968028794</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0008241129789467656</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0009492666709872532</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.001012684184909813</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.001120522070807338</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.001138137180213379</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.001156439898085985</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.001216222671497366</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.001281645636590791</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.001281645636590791</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.001351794771951933</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.001440622287726295</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.001440622287726295</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.001440622287726295</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.001440622287726295</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.001463290470969732</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.001477100291244771</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.001477100291244771</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.001477100291244771</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.001484792143481644</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.00149066671970641</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.001502941782869284</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001572419413368228</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.001621518114010042</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.001655475481354654</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.001724476249859767</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.001778365868046725</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.00181196240517067</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.001857516234482268</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.001887234079836283</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.00190290583650548</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.00190290583650548</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.001961793623680754</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.06645250737696951</v>
+        <v>0.2993490144028054</v>
       </c>
       <c r="AU6">
-        <v>0.06699611017057648</v>
+        <v>0.2993490144028054</v>
       </c>
       <c r="AV6">
-        <v>0.1485948271990242</v>
+        <v>0.7474563774748639</v>
       </c>
       <c r="AW6">
-        <v>0.1538343757740662</v>
+        <v>0.7474563774748639</v>
       </c>
       <c r="AX6">
-        <v>0.1762465247136745</v>
+        <v>0.7474563774748639</v>
       </c>
       <c r="AY6">
-        <v>0.1876011450442107</v>
+        <v>0.7474563774748639</v>
       </c>
       <c r="AZ6">
-        <v>0.1924580883417744</v>
+        <v>0.7474563774748639</v>
       </c>
       <c r="BA6">
-        <v>0.2260434387363144</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BB6">
-        <v>0.2445421782113084</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BC6">
-        <v>0.2458348814386688</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BD6">
-        <v>0.2489752033698078</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BE6">
-        <v>0.2544317033482951</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BF6">
-        <v>0.2628720665680489</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BG6">
-        <v>0.2648050491852335</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BH6">
-        <v>0.2649793210963425</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BI6">
-        <v>0.2649862129337059</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BJ6">
-        <v>0.2684502262356672</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BK6">
-        <v>0.2725055178309754</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BL6">
-        <v>0.2754978726826892</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BM6">
-        <v>0.2809817833779628</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BN6">
-        <v>0.2837021564528535</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BO6">
-        <v>0.2837021564528535</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BP6">
-        <v>0.2850202118787283</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BQ6">
-        <v>0.2860176781484883</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BR6">
-        <v>0.2898013572209572</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BS6">
-        <v>0.2950913533294094</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BT6">
-        <v>0.2964266592226216</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BU6">
-        <v>0.2967530517139067</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BV6">
-        <v>0.2967530517139067</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BW6">
-        <v>0.2980501740582493</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BX6">
-        <v>0.299911293714329</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BY6">
-        <v>0.3099775885996965</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="BZ6">
-        <v>0.3149533854606426</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="CA6">
-        <v>0.315699619310451</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="CB6">
-        <v>0.315758327277052</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="CC6">
-        <v>0.3162558708145551</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="CD6">
-        <v>0.3247831014601051</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="CE6">
-        <v>0.3449148178022995</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="CF6">
-        <v>0.3555301531577492</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="CG6">
-        <v>0.378789028652468</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="CH6">
-        <v>0.3973928917188609</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="CI6">
-        <v>0.398887233788996</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="CJ6">
-        <v>0.3988901397506752</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="CK6">
-        <v>0.3991345662793087</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="CL6">
-        <v>0.4022008428109176</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="CM6">
-        <v>0.4121152833739979</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="CN6">
-        <v>0.4195054413425251</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="CO6">
-        <v>0.4293227479557953</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="CP6">
-        <v>0.4493204139731088</v>
+        <v>0.7780755614978586</v>
       </c>
       <c r="CQ6">
-        <v>0.4795520158114839</v>
+        <v>0.7795330666830079</v>
       </c>
       <c r="CR6">
-        <v>0.4906270227485814</v>
+        <v>0.7795330666830079</v>
       </c>
       <c r="CS6">
-        <v>0.4906270227485814</v>
+        <v>0.7795330666830079</v>
       </c>
       <c r="CT6">
-        <v>0.4997730921912459</v>
+        <v>0.7795330666830079</v>
       </c>
       <c r="CU6">
-        <v>0.5185368333095828</v>
+        <v>0.7795330666830079</v>
       </c>
       <c r="CV6">
-        <v>0.5415832188271463</v>
+        <v>0.7795330666830079</v>
       </c>
       <c r="CW6">
-        <v>0.5547401214328136</v>
+        <v>0.7795330666830079</v>
       </c>
       <c r="CX6">
-        <v>0.5645180352731309</v>
+        <v>0.7795330666830079</v>
       </c>
       <c r="CY6">
-        <v>0.5763122222433175</v>
+        <v>0.7795330666830079</v>
       </c>
       <c r="CZ6">
-        <v>0.5833657521184334</v>
+        <v>0.7795330666830079</v>
       </c>
       <c r="DA6">
-        <v>0.5868679476658969</v>
+        <v>0.7795330666830079</v>
       </c>
       <c r="DB6">
-        <v>0.5868903006979334</v>
+        <v>0.7795330666830079</v>
       </c>
       <c r="DC6">
-        <v>0.5974065350215303</v>
+        <v>0.7795330666830079</v>
       </c>
       <c r="DD6">
-        <v>0.6354183694312397</v>
+        <v>0.848641631489765</v>
       </c>
       <c r="DE6">
-        <v>0.6804813989119967</v>
+        <v>0.9790620933100594</v>
       </c>
       <c r="DF6">
-        <v>0.7129533507927506</v>
+        <v>1</v>
       </c>
       <c r="DG6">
-        <v>0.7304890742737797</v>
+        <v>1</v>
       </c>
       <c r="DH6">
-        <v>0.7361685095152752</v>
+        <v>1</v>
       </c>
       <c r="DI6">
-        <v>0.7361908845611855</v>
+        <v>1</v>
       </c>
       <c r="DJ6">
-        <v>0.7397732084236575</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.7463679131038027</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.7530537223565984</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.7655892716688398</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.7769997808907728</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.7893405981041147</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.8011158291007139</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.8079654636032116</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.8103033095024034</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.8113070059681474</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.8114646731101086</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.8138082684632663</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.8191799139163737</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.83103636073761</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.8416261430757211</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.8474780405810227</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.8504730656313114</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.8508871231991584</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.8509346016788886</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.8512597080073157</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.8517788660468306</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.8528292879297347</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.8534914894884416</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.8542045196049519</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.8542414390268942</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.8542743430318309</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.8545041800177424</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.8546186478022733</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.8547795767913593</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.8547795767913593</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.8547795767913593</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.855596664846107</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.855596664846107</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.856553483200198</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.8606677517650881</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.8665423923280745</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.8697230250037863</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.8701142943372324</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.8704320527219254</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.8748362663726336</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.8802466711621829</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.8820353676097339</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.8823446028645477</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.8841705337087921</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.8863806849031255</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.890993778504327</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.8934264965097571</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.8944168775745801</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.8949015643961951</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.894956462229149</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8964304007859144</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.9014185320132357</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.9083388832154219</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.916761266984478</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.9230223574577198</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9257608180625355</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9262916371288235</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9263929818292923</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9265963451693812</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.926766621106717</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9274166281403347</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9302821385839691</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9348313544542574</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.936429763886978</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9382184603345289</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9388040226323513</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9388528739739301</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9392612512765633</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9393210340499747</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9393210340499747</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9394773331575592</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9408494211790093</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9429900011329986</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9509586386287002</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9557585081737265</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9572615304696047</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9576741455306722</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9585305244952048</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9623803131647108</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9680877116504717</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9756564379581176</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.983694155926243</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9877272143812602</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9880364496360741</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.988144247127611</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9899128404378268</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9941025725661355</v>
+        <v>1</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10570,16 +10570,16 @@
         <v>44</v>
       </c>
       <c r="D2">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="E2">
-        <v>0.01001842340203877</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5107758443165034</v>
+        <v>0.6821260050033225</v>
       </c>
       <c r="G2">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>19</v>
@@ -10611,16 +10611,16 @@
         <v>45</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E3">
-        <v>0.02104859508697245</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5041784255946574</v>
+        <v>0.7048888207093451</v>
       </c>
       <c r="G3">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E4">
-        <v>0.05177756011071748</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5033871600579075</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="G4">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>19</v>
@@ -10693,16 +10693,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="E5">
-        <v>0.01130398935590452</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5059448829576481</v>
+        <v>0.5924109528053138</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E6">
-        <v>0.06645250737696951</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5185368333095828</v>
+        <v>0.7474563774748639</v>
       </c>
       <c r="G6">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>19</v>
@@ -10829,16 +10829,16 @@
         <v>44</v>
       </c>
       <c r="D2">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="E2">
-        <v>0.01001842340203877</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7026781972963692</v>
+        <v>0.85800283019561</v>
       </c>
       <c r="G2">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>19</v>
@@ -10870,16 +10870,16 @@
         <v>45</v>
       </c>
       <c r="D3">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="E3">
-        <v>0.02104859508697245</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7007227484117688</v>
+        <v>0.7048888207093451</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="E4">
-        <v>0.05177756011071748</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7138224214215197</v>
+        <v>0.773758535055592</v>
       </c>
       <c r="G4">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>19</v>
@@ -10952,16 +10952,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.01130398935590452</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7015880605843825</v>
+        <v>0.7302336340356705</v>
       </c>
       <c r="G5">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="E6">
-        <v>0.06645250737696951</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7129533507927506</v>
+        <v>0.7474563774748639</v>
       </c>
       <c r="G6">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>19</v>
@@ -11088,16 +11088,16 @@
         <v>44</v>
       </c>
       <c r="D2">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="E2">
-        <v>0.01001842340203877</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8005602496972543</v>
+        <v>0.85800283019561</v>
       </c>
       <c r="G2">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>19</v>
@@ -11129,16 +11129,16 @@
         <v>45</v>
       </c>
       <c r="D3">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.02104859508697245</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8099313520275121</v>
+        <v>0.8761077834854671</v>
       </c>
       <c r="G3">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E4">
-        <v>0.05177756011071748</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8015261000974601</v>
+        <v>0.8348966632852083</v>
       </c>
       <c r="G4">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="H4">
         <v>19</v>
@@ -11211,16 +11211,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E5">
-        <v>0.01130398935590452</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.826550717446177</v>
+        <v>0.8915090111429929</v>
       </c>
       <c r="G5">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>0.06645250737696951</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8011158291007139</v>
+        <v>0.848641631489765</v>
       </c>
       <c r="G6">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H6">
         <v>19</v>
@@ -11347,16 +11347,16 @@
         <v>44</v>
       </c>
       <c r="D2">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="E2">
-        <v>0.01001842340203877</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9001889715230985</v>
+        <v>0.9602501747326667</v>
       </c>
       <c r="G2">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>19</v>
@@ -11388,16 +11388,16 @@
         <v>45</v>
       </c>
       <c r="D3">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="E3">
-        <v>0.02104859508697245</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.900652331479859</v>
+        <v>0.9919480162572371</v>
       </c>
       <c r="G3">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="E4">
-        <v>0.05177756011071748</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9038620281421217</v>
+        <v>0.9726429434411515</v>
       </c>
       <c r="G4">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="H4">
         <v>19</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E5">
-        <v>0.01130398935590452</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.90867125141434</v>
+        <v>0.9937957071463669</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="E6">
-        <v>0.06645250737696951</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9014185320132357</v>
+        <v>0.9790620933100594</v>
       </c>
       <c r="G6">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="H6">
         <v>19</v>

--- a/on_trucks/Processed_Stand_Alone/19_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/19_225-80R17.xlsx
@@ -947,37 +947,37 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4345473230918531</v>
+        <v>0.3454555171341648</v>
       </c>
       <c r="F2">
-        <v>0.06021836699207936</v>
+        <v>0.06899992943258881</v>
       </c>
       <c r="G2">
-        <v>0.1854007352846309</v>
+        <v>0.1614516744345657</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.09866448689100792</v>
+        <v>0.09739379129742032</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1491645602964246</v>
+        <v>0.1346899374938851</v>
       </c>
       <c r="L2">
-        <v>0.05265247817273894</v>
+        <v>0.06341224457425251</v>
       </c>
       <c r="M2">
-        <v>0.01935204927126506</v>
+        <v>0.03881866319975229</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.02178154022335783</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.01851384297378073</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -998,16 +998,16 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.008002332220947194</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.02286230052316134</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.003595077083616135</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.00118813627999412</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.01383501312851312</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -1189,52 +1189,52 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03650063817467206</v>
+        <v>0.05190101161997565</v>
       </c>
       <c r="E3">
-        <v>0.05163954847536911</v>
+        <v>0.06301191315488792</v>
       </c>
       <c r="F3">
-        <v>0.4447766291932748</v>
+        <v>0.3515470393177259</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.01754675919987499</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.02000187767860808</v>
       </c>
       <c r="I3">
-        <v>0.1282326593065868</v>
+        <v>0.1192259005420184</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.05655567973292379</v>
+        <v>0.06662000972527843</v>
       </c>
       <c r="L3">
-        <v>0.1768887420616508</v>
+        <v>0.1549360628871356</v>
       </c>
       <c r="M3">
-        <v>0.07061103669047977</v>
+        <v>0.07693565887647646</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0347950663650428</v>
+        <v>0.05064924117804098</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.002586245488680401</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.005637031350356311</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1246,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.008413757272152607</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.006291796593882003</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.004695695114906229</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -1434,43 +1434,43 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2296866892235827</v>
+        <v>0.189069297098704</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.52284555709563</v>
+        <v>0.3972252906417836</v>
       </c>
       <c r="G4">
-        <v>0.003973558783301957</v>
+        <v>0.02880281338782445</v>
       </c>
       <c r="H4">
-        <v>0.08555483357149647</v>
+        <v>0.08672919109323794</v>
       </c>
       <c r="I4">
-        <v>0.05232566596585851</v>
+        <v>0.06313498619072744</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0218072403715334</v>
       </c>
       <c r="K4">
-        <v>0.07793673866382898</v>
+        <v>0.08132000075926817</v>
       </c>
       <c r="L4">
-        <v>0.02767695669630128</v>
+        <v>0.04563329297980062</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.005361781275565651</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.005926727759217477</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.008963618824198877</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.008433358817450961</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.004997269498938303</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.001030967072878661</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1506,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.01619422438923123</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.01688406860818609</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.01848587123145311</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1817,43 +1817,43 @@
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.4256283465787107</v>
+        <v>0.3412209165654894</v>
       </c>
       <c r="AY5">
-        <v>0.1589479334808111</v>
+        <v>0.1430583231760353</v>
       </c>
       <c r="AZ5">
-        <v>0.1804548046291323</v>
+        <v>0.1590394644714765</v>
       </c>
       <c r="BA5">
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.1200341179867082</v>
+        <v>0.1141425790184046</v>
       </c>
       <c r="BC5">
         <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.02408792218259806</v>
+        <v>0.04284770300733779</v>
       </c>
       <c r="BE5">
-        <v>0.07842149989348271</v>
+        <v>0.08322143177970087</v>
       </c>
       <c r="BF5">
-        <v>0.012425375248557</v>
+        <v>0.03418159769000654</v>
       </c>
       <c r="BG5">
         <v>0</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>0.01678091019150602</v>
       </c>
       <c r="BI5">
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>0.01547476241566395</v>
       </c>
       <c r="BK5">
         <v>0</v>
@@ -1868,13 +1868,13 @@
         <v>0</v>
       </c>
       <c r="BO5">
-        <v>0</v>
+        <v>0.007829365291308066</v>
       </c>
       <c r="BP5">
         <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0</v>
+        <v>0.005503433546043419</v>
       </c>
       <c r="BR5">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="BV5">
-        <v>0</v>
+        <v>0.01025793049142483</v>
       </c>
       <c r="BW5">
-        <v>0</v>
+        <v>0.001106333683186639</v>
       </c>
       <c r="BX5">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="CB5">
-        <v>0</v>
+        <v>0.006931340748219807</v>
       </c>
       <c r="CC5">
-        <v>0</v>
+        <v>0.01840390792419638</v>
       </c>
     </row>
     <row r="6" spans="1:81">
@@ -1924,43 +1924,43 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3115713401837382</v>
+        <v>0.2569698978366779</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4080460311845889</v>
+        <v>0.3285464972262234</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.009074404416639221</v>
       </c>
       <c r="H6">
-        <v>0.07428376939787294</v>
+        <v>0.08092126561966954</v>
       </c>
       <c r="I6">
-        <v>0.01192864597196894</v>
+        <v>0.03465868998413587</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.007473657431153437</v>
       </c>
       <c r="K6">
-        <v>0.1372911899903133</v>
+        <v>0.1276677942224296</v>
       </c>
       <c r="L6">
-        <v>0.05221544483736286</v>
+        <v>0.06454831215509539</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.0002916433835806755</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.009982087413985138</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.02246599803863679</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1972,16 +1972,16 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.001645905900518381</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.004119700699943178</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.01009676858763494</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1996,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.002983326079026218</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.009285467205851031</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.004663578434154959</v>
+        <v>0.02926858379879947</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -2430,97 +2430,97 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4345473230918531</v>
+        <v>0.3454555171341648</v>
       </c>
       <c r="F2">
-        <v>0.4947656900839325</v>
+        <v>0.4144554465667536</v>
       </c>
       <c r="G2">
-        <v>0.6801664253685634</v>
+        <v>0.5759071210013194</v>
       </c>
       <c r="H2">
-        <v>0.6801664253685634</v>
+        <v>0.5759071210013194</v>
       </c>
       <c r="I2">
-        <v>0.7788309122595714</v>
+        <v>0.6733009122987397</v>
       </c>
       <c r="J2">
-        <v>0.7788309122595714</v>
+        <v>0.6733009122987397</v>
       </c>
       <c r="K2">
-        <v>0.927995472555996</v>
+        <v>0.8079908497926247</v>
       </c>
       <c r="L2">
-        <v>0.980647950728735</v>
+        <v>0.8714030943668772</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.9102217575666295</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9320032977899874</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9505171407637681</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9505171407637681</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0.9505171407637681</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0.9505171407637681</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.9505171407637681</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.9505171407637681</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.9505171407637681</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.9585194729847153</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0.9585194729847153</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.9813817735078766</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0.9849768505914928</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9849768505914928</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.9849768505914928</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9849768505914928</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9861649868714869</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9861649868714869</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9861649868714869</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9861649868714869</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9861649868714869</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9861649868714869</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9861649868714869</v>
       </c>
       <c r="AJ2">
         <v>1</v>
@@ -2672,97 +2672,97 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03650063817467206</v>
+        <v>0.05190101161997565</v>
       </c>
       <c r="E3">
-        <v>0.08814018665004117</v>
+        <v>0.1149129247748636</v>
       </c>
       <c r="F3">
-        <v>0.532916815843316</v>
+        <v>0.4664599640925895</v>
       </c>
       <c r="G3">
-        <v>0.532916815843316</v>
+        <v>0.4840067232924645</v>
       </c>
       <c r="H3">
-        <v>0.532916815843316</v>
+        <v>0.5040086009710726</v>
       </c>
       <c r="I3">
-        <v>0.6611494751499027</v>
+        <v>0.6232345015130909</v>
       </c>
       <c r="J3">
-        <v>0.6611494751499027</v>
+        <v>0.6232345015130909</v>
       </c>
       <c r="K3">
-        <v>0.7177051548828265</v>
+        <v>0.6898545112383694</v>
       </c>
       <c r="L3">
-        <v>0.8945938969444773</v>
+        <v>0.844790574125505</v>
       </c>
       <c r="M3">
-        <v>0.9652049336349571</v>
+        <v>0.9217262330019814</v>
       </c>
       <c r="N3">
-        <v>0.9652049336349571</v>
+        <v>0.9217262330019814</v>
       </c>
       <c r="O3">
-        <v>0.9999999999999999</v>
+        <v>0.9723754741800223</v>
       </c>
       <c r="P3">
-        <v>0.9999999999999999</v>
+        <v>0.9723754741800223</v>
       </c>
       <c r="Q3">
-        <v>0.9999999999999999</v>
+        <v>0.9749617196687027</v>
       </c>
       <c r="R3">
-        <v>0.9999999999999999</v>
+        <v>0.9749617196687027</v>
       </c>
       <c r="S3">
-        <v>0.9999999999999999</v>
+        <v>0.980598751019059</v>
       </c>
       <c r="T3">
-        <v>0.9999999999999999</v>
+        <v>0.980598751019059</v>
       </c>
       <c r="U3">
-        <v>0.9999999999999999</v>
+        <v>0.980598751019059</v>
       </c>
       <c r="V3">
-        <v>0.9999999999999999</v>
+        <v>0.980598751019059</v>
       </c>
       <c r="W3">
-        <v>0.9999999999999999</v>
+        <v>0.9890125082912117</v>
       </c>
       <c r="X3">
-        <v>0.9999999999999999</v>
+        <v>0.9953043048850937</v>
       </c>
       <c r="Y3">
-        <v>0.9999999999999999</v>
+        <v>0.9953043048850937</v>
       </c>
       <c r="Z3">
-        <v>0.9999999999999999</v>
+        <v>0.9953043048850937</v>
       </c>
       <c r="AA3">
-        <v>0.9999999999999999</v>
+        <v>0.9953043048850937</v>
       </c>
       <c r="AB3">
-        <v>0.9999999999999999</v>
+        <v>0.9953043048850937</v>
       </c>
       <c r="AC3">
-        <v>0.9999999999999999</v>
+        <v>0.9953043048850937</v>
       </c>
       <c r="AD3">
-        <v>0.9999999999999999</v>
+        <v>0.9953043048850937</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999999</v>
+        <v>0.9953043048850937</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999999</v>
+        <v>0.9953043048850937</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.9953043048850937</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.9953043048850937</v>
       </c>
       <c r="AI3">
         <v>0.9999999999999999</v>
@@ -2917,238 +2917,238 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2296866892235827</v>
+        <v>0.189069297098704</v>
       </c>
       <c r="E4">
-        <v>0.2296866892235827</v>
+        <v>0.189069297098704</v>
       </c>
       <c r="F4">
-        <v>0.7525322463192126</v>
+        <v>0.5862945877404876</v>
       </c>
       <c r="G4">
-        <v>0.7565058051025145</v>
+        <v>0.615097401128312</v>
       </c>
       <c r="H4">
-        <v>0.842060638674011</v>
+        <v>0.70182659222155</v>
       </c>
       <c r="I4">
-        <v>0.8943863046398696</v>
+        <v>0.7649615784122774</v>
       </c>
       <c r="J4">
-        <v>0.8943863046398696</v>
+        <v>0.7867688187838108</v>
       </c>
       <c r="K4">
-        <v>0.9723230433036986</v>
+        <v>0.8680888195430789</v>
       </c>
       <c r="L4">
-        <v>0.9999999999999999</v>
+        <v>0.9137221125228796</v>
       </c>
       <c r="M4">
-        <v>0.9999999999999999</v>
+        <v>0.9190838937984452</v>
       </c>
       <c r="N4">
-        <v>0.9999999999999999</v>
+        <v>0.9190838937984452</v>
       </c>
       <c r="O4">
-        <v>0.9999999999999999</v>
+        <v>0.9250106215576627</v>
       </c>
       <c r="P4">
-        <v>0.9999999999999999</v>
+        <v>0.9339742403818615</v>
       </c>
       <c r="Q4">
-        <v>0.9999999999999999</v>
+        <v>0.9339742403818615</v>
       </c>
       <c r="R4">
-        <v>0.9999999999999999</v>
+        <v>0.9339742403818615</v>
       </c>
       <c r="S4">
-        <v>0.9999999999999999</v>
+        <v>0.9339742403818615</v>
       </c>
       <c r="T4">
-        <v>0.9999999999999999</v>
+        <v>0.9339742403818615</v>
       </c>
       <c r="U4">
-        <v>0.9999999999999999</v>
+        <v>0.9424075991993125</v>
       </c>
       <c r="V4">
-        <v>0.9999999999999999</v>
+        <v>0.9424075991993125</v>
       </c>
       <c r="W4">
-        <v>0.9999999999999999</v>
+        <v>0.9474048686982508</v>
       </c>
       <c r="X4">
-        <v>0.9999999999999999</v>
+        <v>0.9484358357711294</v>
       </c>
       <c r="Y4">
-        <v>0.9999999999999999</v>
+        <v>0.9484358357711294</v>
       </c>
       <c r="Z4">
-        <v>0.9999999999999999</v>
+        <v>0.9484358357711294</v>
       </c>
       <c r="AA4">
-        <v>0.9999999999999999</v>
+        <v>0.9484358357711294</v>
       </c>
       <c r="AB4">
-        <v>0.9999999999999999</v>
+        <v>0.9646300601603607</v>
       </c>
       <c r="AC4">
-        <v>0.9999999999999999</v>
+        <v>0.9815141287685467</v>
       </c>
       <c r="AD4">
-        <v>0.9999999999999999</v>
+        <v>0.9815141287685467</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999999</v>
+        <v>0.9815141287685467</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999999</v>
+        <v>0.9815141287685467</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.9815141287685467</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.9815141287685467</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BY4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BZ4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CA4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CB4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CC4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:81">
@@ -3300,97 +3300,97 @@
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.4256283465787107</v>
+        <v>0.3412209165654894</v>
       </c>
       <c r="AY5">
-        <v>0.5845762800595218</v>
+        <v>0.4842792397415247</v>
       </c>
       <c r="AZ5">
-        <v>0.7650310846886541</v>
+        <v>0.6433187042130012</v>
       </c>
       <c r="BA5">
-        <v>0.7650310846886541</v>
+        <v>0.6433187042130012</v>
       </c>
       <c r="BB5">
-        <v>0.8850652026753624</v>
+        <v>0.7574612832314058</v>
       </c>
       <c r="BC5">
-        <v>0.8850652026753624</v>
+        <v>0.7574612832314058</v>
       </c>
       <c r="BD5">
-        <v>0.9091531248579604</v>
+        <v>0.8003089862387436</v>
       </c>
       <c r="BE5">
-        <v>0.9875746247514431</v>
+        <v>0.8835304180184445</v>
       </c>
       <c r="BF5">
-        <v>1</v>
+        <v>0.917712015708451</v>
       </c>
       <c r="BG5">
-        <v>1</v>
+        <v>0.917712015708451</v>
       </c>
       <c r="BH5">
-        <v>1</v>
+        <v>0.934492925899957</v>
       </c>
       <c r="BI5">
-        <v>1</v>
+        <v>0.934492925899957</v>
       </c>
       <c r="BJ5">
-        <v>1</v>
+        <v>0.949967688315621</v>
       </c>
       <c r="BK5">
-        <v>1</v>
+        <v>0.949967688315621</v>
       </c>
       <c r="BL5">
-        <v>1</v>
+        <v>0.949967688315621</v>
       </c>
       <c r="BM5">
-        <v>1</v>
+        <v>0.949967688315621</v>
       </c>
       <c r="BN5">
-        <v>1</v>
+        <v>0.949967688315621</v>
       </c>
       <c r="BO5">
-        <v>1</v>
+        <v>0.957797053606929</v>
       </c>
       <c r="BP5">
-        <v>1</v>
+        <v>0.957797053606929</v>
       </c>
       <c r="BQ5">
-        <v>1</v>
+        <v>0.9633004871529725</v>
       </c>
       <c r="BR5">
-        <v>1</v>
+        <v>0.9633004871529725</v>
       </c>
       <c r="BS5">
-        <v>1</v>
+        <v>0.9633004871529725</v>
       </c>
       <c r="BT5">
-        <v>1</v>
+        <v>0.9633004871529725</v>
       </c>
       <c r="BU5">
-        <v>1</v>
+        <v>0.9633004871529725</v>
       </c>
       <c r="BV5">
-        <v>1</v>
+        <v>0.9735584176443973</v>
       </c>
       <c r="BW5">
-        <v>1</v>
+        <v>0.974664751327584</v>
       </c>
       <c r="BX5">
-        <v>1</v>
+        <v>0.974664751327584</v>
       </c>
       <c r="BY5">
-        <v>1</v>
+        <v>0.974664751327584</v>
       </c>
       <c r="BZ5">
-        <v>1</v>
+        <v>0.974664751327584</v>
       </c>
       <c r="CA5">
-        <v>1</v>
+        <v>0.974664751327584</v>
       </c>
       <c r="CB5">
-        <v>1</v>
+        <v>0.9815960920758038</v>
       </c>
       <c r="CC5">
         <v>1</v>
@@ -3407,97 +3407,97 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3115713401837382</v>
+        <v>0.2569698978366779</v>
       </c>
       <c r="E6">
-        <v>0.3115713401837382</v>
+        <v>0.2569698978366779</v>
       </c>
       <c r="F6">
-        <v>0.719617371368327</v>
+        <v>0.5855163950629013</v>
       </c>
       <c r="G6">
-        <v>0.719617371368327</v>
+        <v>0.5945907994795405</v>
       </c>
       <c r="H6">
-        <v>0.7939011407662</v>
+        <v>0.67551206509921</v>
       </c>
       <c r="I6">
-        <v>0.805829786738169</v>
+        <v>0.7101707550833459</v>
       </c>
       <c r="J6">
-        <v>0.805829786738169</v>
+        <v>0.7176444125144994</v>
       </c>
       <c r="K6">
-        <v>0.9431209767284823</v>
+        <v>0.845312206736929</v>
       </c>
       <c r="L6">
-        <v>0.9953364215658451</v>
+        <v>0.9098605188920244</v>
       </c>
       <c r="M6">
-        <v>0.9953364215658451</v>
+        <v>0.9098605188920244</v>
       </c>
       <c r="N6">
-        <v>0.9953364215658451</v>
+        <v>0.910152162275605</v>
       </c>
       <c r="O6">
-        <v>0.9953364215658451</v>
+        <v>0.9201342496895901</v>
       </c>
       <c r="P6">
-        <v>0.9953364215658451</v>
+        <v>0.9426002477282269</v>
       </c>
       <c r="Q6">
-        <v>0.9953364215658451</v>
+        <v>0.9426002477282269</v>
       </c>
       <c r="R6">
-        <v>0.9953364215658451</v>
+        <v>0.9426002477282269</v>
       </c>
       <c r="S6">
-        <v>0.9953364215658451</v>
+        <v>0.9426002477282269</v>
       </c>
       <c r="T6">
-        <v>0.9953364215658451</v>
+        <v>0.9442461536287453</v>
       </c>
       <c r="U6">
-        <v>0.9953364215658451</v>
+        <v>0.9483658543286885</v>
       </c>
       <c r="V6">
-        <v>0.9953364215658451</v>
+        <v>0.9483658543286885</v>
       </c>
       <c r="W6">
-        <v>0.9953364215658451</v>
+        <v>0.9584626229163234</v>
       </c>
       <c r="X6">
-        <v>0.9953364215658451</v>
+        <v>0.9584626229163234</v>
       </c>
       <c r="Y6">
-        <v>0.9953364215658451</v>
+        <v>0.9584626229163234</v>
       </c>
       <c r="Z6">
-        <v>0.9953364215658451</v>
+        <v>0.9584626229163234</v>
       </c>
       <c r="AA6">
-        <v>0.9953364215658451</v>
+        <v>0.9584626229163234</v>
       </c>
       <c r="AB6">
-        <v>0.9953364215658451</v>
+        <v>0.9614459489953496</v>
       </c>
       <c r="AC6">
-        <v>0.9953364215658451</v>
+        <v>0.9707314162012006</v>
       </c>
       <c r="AD6">
-        <v>0.9953364215658451</v>
+        <v>0.9707314162012006</v>
       </c>
       <c r="AE6">
-        <v>0.9953364215658451</v>
+        <v>0.9707314162012006</v>
       </c>
       <c r="AF6">
-        <v>0.9953364215658451</v>
+        <v>0.9707314162012006</v>
       </c>
       <c r="AG6">
-        <v>0.9953364215658451</v>
+        <v>0.9707314162012006</v>
       </c>
       <c r="AH6">
-        <v>0.9953364215658451</v>
+        <v>0.9707314162012006</v>
       </c>
       <c r="AI6">
         <v>1</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6801664253685634</v>
+        <v>0.5759071210013194</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3744,19 +3744,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.532916815843316</v>
+        <v>0.5040086009710726</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7525322463192126</v>
+        <v>0.5862945877404876</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3829,16 +3829,16 @@
         <v>47</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5845762800595218</v>
+        <v>0.6433187042130012</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.719617371368327</v>
+        <v>0.5855163950629013</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -3965,16 +3965,16 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.8079908497926247</v>
+      </c>
+      <c r="G2">
         <v>8</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.7788309122595714</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
       </c>
       <c r="H2">
         <v>19</v>
@@ -4003,19 +4003,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.844790574125505</v>
+      </c>
+      <c r="G3">
         <v>10</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.7177051548828265</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -4047,16 +4047,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7525322463192126</v>
+        <v>0.70182659222155</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>19</v>
@@ -4088,16 +4088,16 @@
         <v>47</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7650310846886541</v>
+        <v>0.7574612832314058</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -4129,16 +4129,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.719617371368327</v>
+        <v>0.7101707550833459</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>19</v>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.927995472555996</v>
+        <v>0.8079908497926247</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -4262,7 +4262,7 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -4271,10 +4271,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8945938969444773</v>
+        <v>0.844790574125505</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -4306,16 +4306,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.842060638674011</v>
+        <v>0.8680888195430789</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>19</v>
@@ -4347,16 +4347,16 @@
         <v>47</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8850652026753624</v>
+        <v>0.8003089862387436</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -4388,16 +4388,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.805829786738169</v>
+        <v>0.845312206736929</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>19</v>
@@ -4483,16 +4483,16 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.9102217575666295</v>
+      </c>
+      <c r="G2">
         <v>10</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.927995472555996</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
       </c>
       <c r="H2">
         <v>19</v>
@@ -4521,7 +4521,7 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -4530,10 +4530,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9652049336349571</v>
+        <v>0.9217262330019814</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -4565,16 +4565,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.9137221125228796</v>
+      </c>
+      <c r="G4">
         <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9723230433036986</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
       </c>
       <c r="H4">
         <v>19</v>
@@ -4606,16 +4606,16 @@
         <v>47</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9091531248579604</v>
+        <v>0.917712015708451</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -4647,16 +4647,16 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.9098605188920244</v>
+      </c>
+      <c r="G6">
         <v>10</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9431209767284823</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
       </c>
       <c r="H6">
         <v>19</v>
